--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_612.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_612.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32272-d84222-Reviews-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>179</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Ramada-By-Wyndham-Culver-City.h16321.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_612.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_612.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="603">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1703 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r582890438-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>32272</t>
+  </si>
+  <si>
+    <t>84222</t>
+  </si>
+  <si>
+    <t>582890438</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at the Ramada. So close to great food and even greater beaches. I chose the standard king room and I was very pleasantly surprised to see it came with a jacuzzi tub! The room was very clean and super spacious. The king bed was so comfy! Its always hard for my boyfriend and I to find a bed we both find comfortable because our different preferences on firmness but we both woke up well-rested and not hurting! Check in and out was super easy and fast. No hidden fees! The lobby was super cool and modern. 
+The continental breakfast was LEGIT! Waffles, OJ, apple juice, danishes, cereal, oatmeal, fruit, bagels &amp; cream cheese, toast and jelly, and coffee! Save a bunch of money right there not having to go out to eat for breakfast. 
+There were some things that weren't cool. I.e there were a couple of weird stains on the outside of our bed linens BUT the inside of the sheets were clean so we didn't care too much! We were surprised it didn't have a mini fridge to keep our water bottles cold. Also, whenever our neighboring rooms would close their doors it shook our walls and jolted us awake! But we didn't hear any other noises like showers running, or street noise or even people talking. So that was nice! I'm pretty sure the elevator needs some inspecting or at least some...I really enjoyed my stay at the Ramada. So close to great food and even greater beaches. I chose the standard king room and I was very pleasantly surprised to see it came with a jacuzzi tub! The room was very clean and super spacious. The king bed was so comfy! Its always hard for my boyfriend and I to find a bed we both find comfortable because our different preferences on firmness but we both woke up well-rested and not hurting! Check in and out was super easy and fast. No hidden fees! The lobby was super cool and modern. The continental breakfast was LEGIT! Waffles, OJ, apple juice, danishes, cereal, oatmeal, fruit, bagels &amp; cream cheese, toast and jelly, and coffee! Save a bunch of money right there not having to go out to eat for breakfast. There were some things that weren't cool. I.e there were a couple of weird stains on the outside of our bed linens BUT the inside of the sheets were clean so we didn't care too much! We were surprised it didn't have a mini fridge to keep our water bottles cold. Also, whenever our neighboring rooms would close their doors it shook our walls and jolted us awake! But we didn't hear any other noises like showers running, or street noise or even people talking. So that was nice! I'm pretty sure the elevator needs some inspecting or at least some WD-40.Overall, would stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay at the Ramada. So close to great food and even greater beaches. I chose the standard king room and I was very pleasantly surprised to see it came with a jacuzzi tub! The room was very clean and super spacious. The king bed was so comfy! Its always hard for my boyfriend and I to find a bed we both find comfortable because our different preferences on firmness but we both woke up well-rested and not hurting! Check in and out was super easy and fast. No hidden fees! The lobby was super cool and modern. 
+The continental breakfast was LEGIT! Waffles, OJ, apple juice, danishes, cereal, oatmeal, fruit, bagels &amp; cream cheese, toast and jelly, and coffee! Save a bunch of money right there not having to go out to eat for breakfast. 
+There were some things that weren't cool. I.e there were a couple of weird stains on the outside of our bed linens BUT the inside of the sheets were clean so we didn't care too much! We were surprised it didn't have a mini fridge to keep our water bottles cold. Also, whenever our neighboring rooms would close their doors it shook our walls and jolted us awake! But we didn't hear any other noises like showers running, or street noise or even people talking. So that was nice! I'm pretty sure the elevator needs some inspecting or at least some...I really enjoyed my stay at the Ramada. So close to great food and even greater beaches. I chose the standard king room and I was very pleasantly surprised to see it came with a jacuzzi tub! The room was very clean and super spacious. The king bed was so comfy! Its always hard for my boyfriend and I to find a bed we both find comfortable because our different preferences on firmness but we both woke up well-rested and not hurting! Check in and out was super easy and fast. No hidden fees! The lobby was super cool and modern. The continental breakfast was LEGIT! Waffles, OJ, apple juice, danishes, cereal, oatmeal, fruit, bagels &amp; cream cheese, toast and jelly, and coffee! Save a bunch of money right there not having to go out to eat for breakfast. There were some things that weren't cool. I.e there were a couple of weird stains on the outside of our bed linens BUT the inside of the sheets were clean so we didn't care too much! We were surprised it didn't have a mini fridge to keep our water bottles cold. Also, whenever our neighboring rooms would close their doors it shook our walls and jolted us awake! But we didn't hear any other noises like showers running, or street noise or even people talking. So that was nice! I'm pretty sure the elevator needs some inspecting or at least some WD-40.Overall, would stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r582741424-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>582741424</t>
+  </si>
+  <si>
+    <t>05/25/2018</t>
+  </si>
+  <si>
+    <t>Clean and comfy for less money</t>
+  </si>
+  <si>
+    <t>Our checking person was very nice. We enjoyed our stay. They rooms were very nice and clean and comfortable. A fridge in the room may have helped. Was great value and nicer than expected. We would stay here again on our next trip.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r576531398-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>576531398</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Never again!</t>
+  </si>
+  <si>
+    <t>The reviews and pictures looked OK, but when we pulled up we had a different opinion.  There were 4 of us on a business trip and had prepaid the 4 rooms for our 3 night stay.  We decided to make the best of it, but asked that our rooms be close together.  The rooms were outdated and while surface clean, I would not walk in the room without slippers.MoreShow less</t>
+  </si>
+  <si>
+    <t>ramadaculvercity, General Manager at Ramada by Wyndham Culver City, responded to this reviewResponded May 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2018</t>
+  </si>
+  <si>
+    <t>The reviews and pictures looked OK, but when we pulled up we had a different opinion.  There were 4 of us on a business trip and had prepaid the 4 rooms for our 3 night stay.  We decided to make the best of it, but asked that our rooms be close together.  The rooms were outdated and while surface clean, I would not walk in the room without slippers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r566527389-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>566527389</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t>Homeless Guy is the Doorman</t>
+  </si>
+  <si>
+    <t>Where do I start...• Homeless Guy greeter at the lobby door.• Same Guy followed us in and stood beside my wife as I checked in.• Sink was clogged...had to brush our teeth in the shower.On the plus side...• We checked in very late• Nothing bit us as we sleptMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>ramadaculvercity, Manager at Ramada by Wyndham Culver City, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Where do I start...• Homeless Guy greeter at the lobby door.• Same Guy followed us in and stood beside my wife as I checked in.• Sink was clogged...had to brush our teeth in the shower.On the plus side...• We checked in very late• Nothing bit us as we sleptMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r559303150-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>559303150</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r558303791-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>558303791</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Great for the area</t>
+  </si>
+  <si>
+    <t>I waivered between 3 stars and 4. Ultimately, I gave this hotel a 3 star rating because it can get pretty pricey depending on the day and time you stay (like any other hotel). Our room was in total, $147 for a queen double which seemed a little high even for a clean room in a busy part of Los Angeles. It's a competitive rate for the area in regular chain hotel I guess, but still a little high. No matter what the holiday or situation - paying more than that - is WAAY too much. We actually were put up here for work - if it were me paying out of my own pocket... I never would have paid that much for the hotel and if I had to out of emergency - I would have felt very put out about it!
+So, that having been said -- the room is very clean. It was an updated room with new bedding and furniture, new fixtures and bathroom and carpet. There was free wifi in the room that worked well. The kids enjoyed the flat screen with multiple working channels. They don't get to watch tv much - so this was a vacation for them!  The bathroom did not have a tub - which was disappointing - BUT the shower was huge and lovely with great water pressure so it made up for it. Had we been staying for more...I waivered between 3 stars and 4. Ultimately, I gave this hotel a 3 star rating because it can get pretty pricey depending on the day and time you stay (like any other hotel). Our room was in total, $147 for a queen double which seemed a little high even for a clean room in a busy part of Los Angeles. It's a competitive rate for the area in regular chain hotel I guess, but still a little high. No matter what the holiday or situation - paying more than that - is WAAY too much. We actually were put up here for work - if it were me paying out of my own pocket... I never would have paid that much for the hotel and if I had to out of emergency - I would have felt very put out about it!So, that having been said -- the room is very clean. It was an updated room with new bedding and furniture, new fixtures and bathroom and carpet. There was free wifi in the room that worked well. The kids enjoyed the flat screen with multiple working channels. They don't get to watch tv much - so this was a vacation for them!  The bathroom did not have a tub - which was disappointing - BUT the shower was huge and lovely with great water pressure so it made up for it. Had we been staying for more than one night - I would have preferred a bathtub (and would have been more disappointed that I didn't have a tub for the $150 bucks).We slept well - the beds were comfortable and it wasn't loud. We were right on the bottom floor against the parking lot - and we had no issues with noise. The hotel is right off the busy main road - and it's a congested part of Los Angeles - so there was no less than 3 sirens that went by throughout the night - but no big deal. The parking lot was safe - it's off the road and not open to people passing by. We had no issues with parking - lots of room too. Free parking. I didn't see any 'shady' looking people at the hotel or on the grounds. I felt safe given the area. It has come a long way. The staff was nice and helpful. There was a free continental breakfast upstairs in a renovated space - a breakfast room with tv. It was limited - but nothing I would complain about. When I reserve a room that has 'free breakfast' I don't expect more than continental. When it is more than expected - it is a great plus. This was not - but it did the job. Lots of cereal choices, muffins, danish, packaged/frozen pancakes that you heat up in the microwave (my kids did not like them), bagels, cream cheese, toast, oatmeal and coffee and juice. It was plenty but I know a lot of times people expect more and are disappointed with continental. If staying more than a day or two - this would get tiring as far a choice. **The coffee here was awful. In room coffee was better than what was being served at breakfast - but for the 4 cups of coffee being served in room - there was only one pack of cream and sugar. Plus, I prefer milk or creme. But overall - if you like your morning cup to be an experience - don't even attempt it here. Overall - it did the job for what we needed. As I said, it worked for our stay but I would not make a family vacation here. It's best for a couple or business trip though I didn't see a business center. To print I had to email the front desk. There is no place to walk to or just hang out. You really have to have a plan and a car to get somewhere good. The room was fine - but not worth a high price. The surrounding area has a lot going on - but I wouldn't walk around to sight see. You need a car. Just a couple blocks down the road is a really nice center that has a Starbucks and tons of new restaurants and that has its own free parking lot. It's .3 miles down the road but I come from the era of nobody walks in L.A. ---- I drove there for coffee because I wasn't going to make the walk with all the coffee - and it's too busy to walk with the kids. The hotel does not have a pool. It said there was a hot tub but we didn't even look for it - so I don't know to comment on it.  Stay if you have too - but if this is a family vacation - look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I waivered between 3 stars and 4. Ultimately, I gave this hotel a 3 star rating because it can get pretty pricey depending on the day and time you stay (like any other hotel). Our room was in total, $147 for a queen double which seemed a little high even for a clean room in a busy part of Los Angeles. It's a competitive rate for the area in regular chain hotel I guess, but still a little high. No matter what the holiday or situation - paying more than that - is WAAY too much. We actually were put up here for work - if it were me paying out of my own pocket... I never would have paid that much for the hotel and if I had to out of emergency - I would have felt very put out about it!
+So, that having been said -- the room is very clean. It was an updated room with new bedding and furniture, new fixtures and bathroom and carpet. There was free wifi in the room that worked well. The kids enjoyed the flat screen with multiple working channels. They don't get to watch tv much - so this was a vacation for them!  The bathroom did not have a tub - which was disappointing - BUT the shower was huge and lovely with great water pressure so it made up for it. Had we been staying for more...I waivered between 3 stars and 4. Ultimately, I gave this hotel a 3 star rating because it can get pretty pricey depending on the day and time you stay (like any other hotel). Our room was in total, $147 for a queen double which seemed a little high even for a clean room in a busy part of Los Angeles. It's a competitive rate for the area in regular chain hotel I guess, but still a little high. No matter what the holiday or situation - paying more than that - is WAAY too much. We actually were put up here for work - if it were me paying out of my own pocket... I never would have paid that much for the hotel and if I had to out of emergency - I would have felt very put out about it!So, that having been said -- the room is very clean. It was an updated room with new bedding and furniture, new fixtures and bathroom and carpet. There was free wifi in the room that worked well. The kids enjoyed the flat screen with multiple working channels. They don't get to watch tv much - so this was a vacation for them!  The bathroom did not have a tub - which was disappointing - BUT the shower was huge and lovely with great water pressure so it made up for it. Had we been staying for more than one night - I would have preferred a bathtub (and would have been more disappointed that I didn't have a tub for the $150 bucks).We slept well - the beds were comfortable and it wasn't loud. We were right on the bottom floor against the parking lot - and we had no issues with noise. The hotel is right off the busy main road - and it's a congested part of Los Angeles - so there was no less than 3 sirens that went by throughout the night - but no big deal. The parking lot was safe - it's off the road and not open to people passing by. We had no issues with parking - lots of room too. Free parking. I didn't see any 'shady' looking people at the hotel or on the grounds. I felt safe given the area. It has come a long way. The staff was nice and helpful. There was a free continental breakfast upstairs in a renovated space - a breakfast room with tv. It was limited - but nothing I would complain about. When I reserve a room that has 'free breakfast' I don't expect more than continental. When it is more than expected - it is a great plus. This was not - but it did the job. Lots of cereal choices, muffins, danish, packaged/frozen pancakes that you heat up in the microwave (my kids did not like them), bagels, cream cheese, toast, oatmeal and coffee and juice. It was plenty but I know a lot of times people expect more and are disappointed with continental. If staying more than a day or two - this would get tiring as far a choice. **The coffee here was awful. In room coffee was better than what was being served at breakfast - but for the 4 cups of coffee being served in room - there was only one pack of cream and sugar. Plus, I prefer milk or creme. But overall - if you like your morning cup to be an experience - don't even attempt it here. Overall - it did the job for what we needed. As I said, it worked for our stay but I would not make a family vacation here. It's best for a couple or business trip though I didn't see a business center. To print I had to email the front desk. There is no place to walk to or just hang out. You really have to have a plan and a car to get somewhere good. The room was fine - but not worth a high price. The surrounding area has a lot going on - but I wouldn't walk around to sight see. You need a car. Just a couple blocks down the road is a really nice center that has a Starbucks and tons of new restaurants and that has its own free parking lot. It's .3 miles down the road but I come from the era of nobody walks in L.A. ---- I drove there for coffee because I wasn't going to make the walk with all the coffee - and it's too busy to walk with the kids. The hotel does not have a pool. It said there was a hot tub but we didn't even look for it - so I don't know to comment on it.  Stay if you have too - but if this is a family vacation - look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r552252822-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>552252822</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Culve City</t>
+  </si>
+  <si>
+    <t>While it was clean, right away I found that the tissue box only had one more tissue in it before it was empty. Just doesn't make a good impression. A bit noisy, to be expected. Not enough light over the bath sink. I was able to check in early, which was a good plus because of the up coming doctor appointments and the need for rest before hand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r546425089-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>546425089</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r538319483-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>538319483</t>
+  </si>
+  <si>
+    <t>11/04/2017</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r534448378-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>534448378</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Fair stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celebrating 2 year anniversary. Wasn't in the hotel often during the day. At night We popped some bubbly, played some music and sat in Jacuzzi for a while. The girl that checked us in didn't seem like she wanted to be there, she wasn't very nice but not rude either if that makes sense. Different girl checked us out and she was very sweet. Overall the room was ok for a last minute "affordable" trip, The bathroom was great. My only complaint is the blanket seemed to have cigarette burns and the bed felt "broken" couldn't sit down with out sinking in and hearing it creek.   </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r530012347-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>530012347</t>
+  </si>
+  <si>
+    <t>10/04/2017</t>
+  </si>
+  <si>
+    <t>Training/R and R</t>
+  </si>
+  <si>
+    <t>Nice area to stay. The Hotel is on the main strip, 40 minute walk to the beach. Catch a bus for a $1 which takes you straight the Santa Monica. If you want something closer visit Venice beach which is less than 2 miles away. The hotel is a good standard. Clean. Friendly staff. Secure. Local shops and bars a stones throw away.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r526338054-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>526338054</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Just the basics</t>
+  </si>
+  <si>
+    <t>I had a hard time trying to find a reasonable hotel for my short trip to Los Angeles.  I chose this hotel based on it's location and on that end, it did not disappoint.  It's about a 20 minute Uber ride to most areas (Hollywood, Santa Monica, Venice Beach).  The best part of this hotel was the bed.  It was the most comfortable bed I have ever slept on.  The continental breakfast was ok and comparable to most other continental breakfasts.  Now the disappointments.  They only had one vending machine and it was cash only.  They said there was an area to buy drinks and other toiletries but there were no drinks and a very small selection of toiletries.  There are no microwaves or mini-fridge's in the rooms (which is ok as it does not say they do on the website) and the ice machine never had any ice.  The wifi was very slow and the change the password daily.  My husband had to work one of the days we were there are we are from the east coast, it took us calling down to the front desk and going down there (where no one was to be found) to them finally calling us back and giving us the password.  Also, we were only given 1 wash cloth and two towels.  I called down and asked for more and was brought 1 more towel.  I asked again if they could...I had a hard time trying to find a reasonable hotel for my short trip to Los Angeles.  I chose this hotel based on it's location and on that end, it did not disappoint.  It's about a 20 minute Uber ride to most areas (Hollywood, Santa Monica, Venice Beach).  The best part of this hotel was the bed.  It was the most comfortable bed I have ever slept on.  The continental breakfast was ok and comparable to most other continental breakfasts.  Now the disappointments.  They only had one vending machine and it was cash only.  They said there was an area to buy drinks and other toiletries but there were no drinks and a very small selection of toiletries.  There are no microwaves or mini-fridge's in the rooms (which is ok as it does not say they do on the website) and the ice machine never had any ice.  The wifi was very slow and the change the password daily.  My husband had to work one of the days we were there are we are from the east coast, it took us calling down to the front desk and going down there (where no one was to be found) to them finally calling us back and giving us the password.  Also, we were only given 1 wash cloth and two towels.  I called down and asked for more and was brought 1 more towel.  I asked again if they could bring at least two more wash clothes when they cleaned the room, when we returned for the evening they brought two more towels.  I had to ask again the next day and they were promptly delivered.  Overall, it wasn't that bad just wish I would have known some of the above before staying. Also, I just went onto their website and it says they have a hot tub.  We were never told anything about this.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I had a hard time trying to find a reasonable hotel for my short trip to Los Angeles.  I chose this hotel based on it's location and on that end, it did not disappoint.  It's about a 20 minute Uber ride to most areas (Hollywood, Santa Monica, Venice Beach).  The best part of this hotel was the bed.  It was the most comfortable bed I have ever slept on.  The continental breakfast was ok and comparable to most other continental breakfasts.  Now the disappointments.  They only had one vending machine and it was cash only.  They said there was an area to buy drinks and other toiletries but there were no drinks and a very small selection of toiletries.  There are no microwaves or mini-fridge's in the rooms (which is ok as it does not say they do on the website) and the ice machine never had any ice.  The wifi was very slow and the change the password daily.  My husband had to work one of the days we were there are we are from the east coast, it took us calling down to the front desk and going down there (where no one was to be found) to them finally calling us back and giving us the password.  Also, we were only given 1 wash cloth and two towels.  I called down and asked for more and was brought 1 more towel.  I asked again if they could...I had a hard time trying to find a reasonable hotel for my short trip to Los Angeles.  I chose this hotel based on it's location and on that end, it did not disappoint.  It's about a 20 minute Uber ride to most areas (Hollywood, Santa Monica, Venice Beach).  The best part of this hotel was the bed.  It was the most comfortable bed I have ever slept on.  The continental breakfast was ok and comparable to most other continental breakfasts.  Now the disappointments.  They only had one vending machine and it was cash only.  They said there was an area to buy drinks and other toiletries but there were no drinks and a very small selection of toiletries.  There are no microwaves or mini-fridge's in the rooms (which is ok as it does not say they do on the website) and the ice machine never had any ice.  The wifi was very slow and the change the password daily.  My husband had to work one of the days we were there are we are from the east coast, it took us calling down to the front desk and going down there (where no one was to be found) to them finally calling us back and giving us the password.  Also, we were only given 1 wash cloth and two towels.  I called down and asked for more and was brought 1 more towel.  I asked again if they could bring at least two more wash clothes when they cleaned the room, when we returned for the evening they brought two more towels.  I had to ask again the next day and they were promptly delivered.  Overall, it wasn't that bad just wish I would have known some of the above before staying. Also, I just went onto their website and it says they have a hot tub.  We were never told anything about this.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r508252301-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>508252301</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>Over Priced</t>
+  </si>
+  <si>
+    <t>Stood here because we needed to be near the airport and this was the only hotel with availability. It could have been worse but was nowhere near worth $200+ for the night. I'm grateful for a clean room and a place to rest my head but I slept with my clothes on as I didn't want to touch the sheets.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r503028335-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>503028335</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Close to everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I do not like outdoor entry hotels and I as not aware this was that type of property at booking. The hotel was however, clean, close enough to the city and there were several nice eateries nearby. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r500782750-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>500782750</t>
+  </si>
+  <si>
+    <t>07/11/2017</t>
+  </si>
+  <si>
+    <t>Average motel</t>
+  </si>
+  <si>
+    <t>Just about average of what one would expect in a motel: Humble furnishings. Loud and intermittent AC. No fridge or microwave. We were on the ground floor and when a loud and smoggy car rolled past, we could hear and smell it. Very basic continental breakfast 6:30-10am that happened to be out of coffee this morning. Okay for the price I guess!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r495498326-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>495498326</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Clean but overpriced and simple</t>
+  </si>
+  <si>
+    <t>This room was a good price compared to others in the area and was clean, but it was missing several basic amenities. The room did not have a refrigerator or even a hair dryer or ice bucket, and our bathroom door knob was broken. The "fitness center" advertised was small, and the "hot tubs" advertised were actually just jet tubs available in certain rooms. We didn't find any of this out until after we checked in. We were able to make do, but it seemed like management was intentionally deceptive, especially about the hot tubs directly advertised on the website. I would stay here again in a pinch, but it's very simple (and cheap) to provide little things like an ice bucket and a hair dryer. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>This room was a good price compared to others in the area and was clean, but it was missing several basic amenities. The room did not have a refrigerator or even a hair dryer or ice bucket, and our bathroom door knob was broken. The "fitness center" advertised was small, and the "hot tubs" advertised were actually just jet tubs available in certain rooms. We didn't find any of this out until after we checked in. We were able to make do, but it seemed like management was intentionally deceptive, especially about the hot tubs directly advertised on the website. I would stay here again in a pinch, but it's very simple (and cheap) to provide little things like an ice bucket and a hair dryer. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r495207415-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>495207415</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r477436542-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>477436542</t>
+  </si>
+  <si>
+    <t>04/20/2017</t>
+  </si>
+  <si>
+    <t>Horrible, filthy, and no customer service</t>
+  </si>
+  <si>
+    <t>We thought "it's only 2 nights, how BAD can it be?" Bad. The owner needs to hire new staff, replace the carpets, and pay attention to what's going on. The carpets are so filthy I wouldn't walk around barefoot and I go barefoot everywhere. They have a breakfast room they opens at 6:30 and there was no coffee at 7. When I called down to get more coffee, I checked back in 20 minutes, no coffee, found the girl who works the front sitting on the couch. The bed is uncomfortable, the blanket is worthless and the breakfast is scary. Do yourself a favor and stay elsewhere</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r467633773-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>467633773</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Can't check in til 3pm</t>
+  </si>
+  <si>
+    <t>The Ramada had a great continental breakfast and nice rooms, but the check in time was too late and the room was very expensive!  Really close to the freeway and to all our events, enjoyed walking down the street for snacks for our room and ended up at Johnnie's Diner on Sepulveda were the best homemade pickles my mom ever had and fantastic pastrami sandwiches!! ;)</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r464042701-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>464042701</t>
+  </si>
+  <si>
+    <t>03/02/2017</t>
+  </si>
+  <si>
+    <t>RIPPED ME OFF ON PRICE AND LOW QUALITY MOTEL</t>
+  </si>
+  <si>
+    <t>First this is a low quality motel.  Do not book here thinking this is a nice hotel.  It's a hooker-tel.Second, they charged me an additional $22.29 in claimed additional taxes.  When I booked online it said my total with taxes and fees was what I would pay.  The hotel upcharges you and you have no choice but to pay.  I have been disputing this for months and Wyndham does not care.Third, the $50 statement credit they offer you once approved for their credit card never comes.All and all, I would never stay at a Wyndham property again.  Wyndham is a horrible company.  I travel a LOT.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r461994755-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>461994755</t>
+  </si>
+  <si>
+    <t>02/22/2017</t>
+  </si>
+  <si>
+    <t>Good size updated room, traffic noise, friendly staff</t>
+  </si>
+  <si>
+    <t>Stayed on the third floor for less noise. Room was comfortable. Really liked the updated bathroom. Everything worked and it's a clean facility. Outside there is traffic noise which is unavoidable given its location. It's a motel so the occasional horn honks in the parking lot of locking cars is annoying but unavoidable. The staff at the desk was very friendly and approachable. I would recommend if this suits you.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r451330423-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>451330423</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>We came back for second time to this place for some work in Culver City.They have done great job with renovation. Staffs were very friendly and rooms are clean and cleaning staffs are also very helpful. We got a room around $130 well worth it. We will be back again.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r442667391-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>442667391</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Just Okay</t>
+  </si>
+  <si>
+    <t>I've stayed at this property several times for business because of the convenient location. Rooms are clean and have adequate amenities. The free breakfast is continental, but there are several nearby restaurants to choose from.  My only complaint, and the reason I chose another property for my monthly trip, is the lackluster front desk staff. No matter what size a property is, I want to be welcomed and met with 5 star customer service. That is a personal requirement, but the hotel will still get the job done if that's not your thing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r435186791-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>435186791</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>Motel with some recent renovations</t>
+  </si>
+  <si>
+    <t>Would say it was fine for a night or two.  Considering it was a Ramada, we thought it might be a little nicer but it's just an older motel property that's been updated.  Girls at check in barely even spoke to us -- one seemed to be in training and didn't speak at all.  Room was on third floor and was clean and updated, including a renovated shower and new furniture. Parking was free and we had no problem finding a spot returning after 11 pm. Bed was comfortable and we didn't hear any noise from traffic or neighbors. Next morning, we went down to breakfast room on second floor.  The room was very nice but the continental breakfast was very basic with coffee, just and assorted toast, bagel or cereal mostly.  For the price paid, I felt it was a poor value but it's also hard to find something reasonable in that area.  I ended up booking on the Wyndham site and got an AAA discount which was cheaper than the primary booking sites.  Our expectations were that a Ramada would be a bit nicer but it was acceptable for a night or two.  We'll try somewhere else next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Would say it was fine for a night or two.  Considering it was a Ramada, we thought it might be a little nicer but it's just an older motel property that's been updated.  Girls at check in barely even spoke to us -- one seemed to be in training and didn't speak at all.  Room was on third floor and was clean and updated, including a renovated shower and new furniture. Parking was free and we had no problem finding a spot returning after 11 pm. Bed was comfortable and we didn't hear any noise from traffic or neighbors. Next morning, we went down to breakfast room on second floor.  The room was very nice but the continental breakfast was very basic with coffee, just and assorted toast, bagel or cereal mostly.  For the price paid, I felt it was a poor value but it's also hard to find something reasonable in that area.  I ended up booking on the Wyndham site and got an AAA discount which was cheaper than the primary booking sites.  Our expectations were that a Ramada would be a bit nicer but it was acceptable for a night or two.  We'll try somewhere else next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r404737530-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>404737530</t>
+  </si>
+  <si>
+    <t>08/12/2016</t>
+  </si>
+  <si>
+    <t>Poor "motel"</t>
+  </si>
+  <si>
+    <t>Just got registered in the Wyndham program and fhis was my first stay in this program and it wasnt the best experience. Front desk is just a table with staff thats not very helpul. My voucher said that a safe will excist but there was none , instead they had one small safe in the lobby cleaning closet that I could use, not very convienient. Stayed for three nights , two first mornings there wasnt any juice or water in the breakfast , so only coffee was available and I dont drink coffee so nothing to drink for me. The second morning also milk and cream wasnr available for those who drink coffee, how can a hotel be out of these things , the neighbourhood had many stores from which they could have bought the stuff..unbeliavable. The rooms were nice and clean even if the sink was in the living room. We could hear all the noices from the streets and outdoors because there was a gap under the door  were you could fit a book in, you could see daylight under the door.My key never worked after the maid had been there so always had to go to the lobby to fix it. In a week Im staying at a hotel of the same program and I hope that it is better than this , this wasnt a hotel , more a motel. And they says that there is...Just got registered in the Wyndham program and fhis was my first stay in this program and it wasnt the best experience. Front desk is just a table with staff thats not very helpul. My voucher said that a safe will excist but there was none , instead they had one small safe in the lobby cleaning closet that I could use, not very convienient. Stayed for three nights , two first mornings there wasnt any juice or water in the breakfast , so only coffee was available and I dont drink coffee so nothing to drink for me. The second morning also milk and cream wasnr available for those who drink coffee, how can a hotel be out of these things , the neighbourhood had many stores from which they could have bought the stuff..unbeliavable. The rooms were nice and clean even if the sink was in the living room. We could hear all the noices from the streets and outdoors because there was a gap under the door  were you could fit a book in, you could see daylight under the door.My key never worked after the maid had been there so always had to go to the lobby to fix it. In a week Im staying at a hotel of the same program and I hope that it is better than this , this wasnt a hotel , more a motel. And they says that there is plenty off things near this hotel but there is nothing except the I 405.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Just got registered in the Wyndham program and fhis was my first stay in this program and it wasnt the best experience. Front desk is just a table with staff thats not very helpul. My voucher said that a safe will excist but there was none , instead they had one small safe in the lobby cleaning closet that I could use, not very convienient. Stayed for three nights , two first mornings there wasnt any juice or water in the breakfast , so only coffee was available and I dont drink coffee so nothing to drink for me. The second morning also milk and cream wasnr available for those who drink coffee, how can a hotel be out of these things , the neighbourhood had many stores from which they could have bought the stuff..unbeliavable. The rooms were nice and clean even if the sink was in the living room. We could hear all the noices from the streets and outdoors because there was a gap under the door  were you could fit a book in, you could see daylight under the door.My key never worked after the maid had been there so always had to go to the lobby to fix it. In a week Im staying at a hotel of the same program and I hope that it is better than this , this wasnt a hotel , more a motel. And they says that there is...Just got registered in the Wyndham program and fhis was my first stay in this program and it wasnt the best experience. Front desk is just a table with staff thats not very helpul. My voucher said that a safe will excist but there was none , instead they had one small safe in the lobby cleaning closet that I could use, not very convienient. Stayed for three nights , two first mornings there wasnt any juice or water in the breakfast , so only coffee was available and I dont drink coffee so nothing to drink for me. The second morning also milk and cream wasnr available for those who drink coffee, how can a hotel be out of these things , the neighbourhood had many stores from which they could have bought the stuff..unbeliavable. The rooms were nice and clean even if the sink was in the living room. We could hear all the noices from the streets and outdoors because there was a gap under the door  were you could fit a book in, you could see daylight under the door.My key never worked after the maid had been there so always had to go to the lobby to fix it. In a week Im staying at a hotel of the same program and I hope that it is better than this , this wasnt a hotel , more a motel. And they says that there is plenty off things near this hotel but there is nothing except the I 405.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r396025092-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>396025092</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>A pleasant stay</t>
+  </si>
+  <si>
+    <t>The hotel is very conveniently located by 405 and takes only 11 minutes to Santa Monica, most of the time. The hotels in Santa Monica are totally expensive, especially in summer, but you can find a reasonable pricing and a comfortable lodging in Culver City, and this Ramada has all one would need. The bed was comfortable, too. I was at the top floor towards the back, and it was quiet. No big restaurants around, but I found a small Thai place nearby, where I had a nice curry dish takeout. The only thing is, the breakfast was a bit too simple and it would be nice to have fruits or yogurt. The staff was nice, and I would stay, again, on my business trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>The hotel is very conveniently located by 405 and takes only 11 minutes to Santa Monica, most of the time. The hotels in Santa Monica are totally expensive, especially in summer, but you can find a reasonable pricing and a comfortable lodging in Culver City, and this Ramada has all one would need. The bed was comfortable, too. I was at the top floor towards the back, and it was quiet. No big restaurants around, but I found a small Thai place nearby, where I had a nice curry dish takeout. The only thing is, the breakfast was a bit too simple and it would be nice to have fruits or yogurt. The staff was nice, and I would stay, again, on my business trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r388878356-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>388878356</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Inconsistent, but promising</t>
+  </si>
+  <si>
+    <t>We booked into the Ramada because we find Culver City is a nice, central location to all the places we like to go in L.A., and our go-to hotel in the area had no vacancies. This hotel is right at the entrance to the 405, which is extremely convenient, but depending on where you're coming from you could be doing some interesting U-Turns to access it. When we walked in the door to reception, you could see this place has been updated. One of the front desk girls confirmed the hotel had been recently renovated. That should have bode well for our stay, but it just...missed the mark. Our first room had a spacious modern bathroom, a much-needed mini-fridge, and it was renovated with some really nice pot lights -- but there were no lamps in the room. The only option of overhead lighting lent to a bit of a hostel-like feel. We needed to switch rooms the next day, and we were assigned a room on the third floor. Again no lamps -- and this one didn't have a mini-fridge, which was disappointing. We did peek into the odd room or two that were open for cleaning, and couldn't help but notice the inconsistencies between other rooms as well. Still, the water pressure in the shower was really good for low-flow, it was pretty spotless, and the beds were extremely comfortable. We also appreciated the ample and clean parking...We booked into the Ramada because we find Culver City is a nice, central location to all the places we like to go in L.A., and our go-to hotel in the area had no vacancies. This hotel is right at the entrance to the 405, which is extremely convenient, but depending on where you're coming from you could be doing some interesting U-Turns to access it. When we walked in the door to reception, you could see this place has been updated. One of the front desk girls confirmed the hotel had been recently renovated. That should have bode well for our stay, but it just...missed the mark. Our first room had a spacious modern bathroom, a much-needed mini-fridge, and it was renovated with some really nice pot lights -- but there were no lamps in the room. The only option of overhead lighting lent to a bit of a hostel-like feel. We needed to switch rooms the next day, and we were assigned a room on the third floor. Again no lamps -- and this one didn't have a mini-fridge, which was disappointing. We did peek into the odd room or two that were open for cleaning, and couldn't help but notice the inconsistencies between other rooms as well. Still, the water pressure in the shower was really good for low-flow, it was pretty spotless, and the beds were extremely comfortable. We also appreciated the ample and clean parking and fast, free WiFi. As we walked to the breakfast room, we noticed the hotel has a small gym on the second floor. I can't really review the continental breakfast, because even through we got there half an hour before it closed, everything was gone. We are used to seeing staff bustling in the room, making sure the coffee is filled and the tables are clean, but this room had an overflowing garbage, dirty tables, and no coffee -- not even decaf. I did notice packages of instant oatmeal, some cereal, a basket which appeared to formerly hold some packaged baked goods, a container which appeared to be for bread for toasting, and there were pre-made pancakes sealed in twos in a chafing dish. So, a tip for others who consider staying at this hotel: hit breakfast early. We really did not care for being coerced into providing the front desk with phone number, which we found odd, and the explanation as to why it was required didn't square with reality for us. Never have I been asked by a hotel, motel, B&amp;B or hostel for a phone number, so that had my antennae up, knowing that kind of information is routinely compiled and sold. The front desk clerk, Magda, was not interested in a discussion about it, and would only repeat that it was for 'sometimes guests forget to check out and we need to call them', but really, hotels love when guests miss check-out time, because they can ding them for another day. I have never been in a hotel that wants to be a babysitter for its guests. Nope. Did not like that. It struck me as strange, and left a bad taste in my mouth. Overall, this hotel has a bit more work to do, but it hits the mark in all the most important ways: if you have a vehicle it's in a great location, it's clean, and the beds and pillows are comfy.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We booked into the Ramada because we find Culver City is a nice, central location to all the places we like to go in L.A., and our go-to hotel in the area had no vacancies. This hotel is right at the entrance to the 405, which is extremely convenient, but depending on where you're coming from you could be doing some interesting U-Turns to access it. When we walked in the door to reception, you could see this place has been updated. One of the front desk girls confirmed the hotel had been recently renovated. That should have bode well for our stay, but it just...missed the mark. Our first room had a spacious modern bathroom, a much-needed mini-fridge, and it was renovated with some really nice pot lights -- but there were no lamps in the room. The only option of overhead lighting lent to a bit of a hostel-like feel. We needed to switch rooms the next day, and we were assigned a room on the third floor. Again no lamps -- and this one didn't have a mini-fridge, which was disappointing. We did peek into the odd room or two that were open for cleaning, and couldn't help but notice the inconsistencies between other rooms as well. Still, the water pressure in the shower was really good for low-flow, it was pretty spotless, and the beds were extremely comfortable. We also appreciated the ample and clean parking...We booked into the Ramada because we find Culver City is a nice, central location to all the places we like to go in L.A., and our go-to hotel in the area had no vacancies. This hotel is right at the entrance to the 405, which is extremely convenient, but depending on where you're coming from you could be doing some interesting U-Turns to access it. When we walked in the door to reception, you could see this place has been updated. One of the front desk girls confirmed the hotel had been recently renovated. That should have bode well for our stay, but it just...missed the mark. Our first room had a spacious modern bathroom, a much-needed mini-fridge, and it was renovated with some really nice pot lights -- but there were no lamps in the room. The only option of overhead lighting lent to a bit of a hostel-like feel. We needed to switch rooms the next day, and we were assigned a room on the third floor. Again no lamps -- and this one didn't have a mini-fridge, which was disappointing. We did peek into the odd room or two that were open for cleaning, and couldn't help but notice the inconsistencies between other rooms as well. Still, the water pressure in the shower was really good for low-flow, it was pretty spotless, and the beds were extremely comfortable. We also appreciated the ample and clean parking and fast, free WiFi. As we walked to the breakfast room, we noticed the hotel has a small gym on the second floor. I can't really review the continental breakfast, because even through we got there half an hour before it closed, everything was gone. We are used to seeing staff bustling in the room, making sure the coffee is filled and the tables are clean, but this room had an overflowing garbage, dirty tables, and no coffee -- not even decaf. I did notice packages of instant oatmeal, some cereal, a basket which appeared to formerly hold some packaged baked goods, a container which appeared to be for bread for toasting, and there were pre-made pancakes sealed in twos in a chafing dish. So, a tip for others who consider staying at this hotel: hit breakfast early. We really did not care for being coerced into providing the front desk with phone number, which we found odd, and the explanation as to why it was required didn't square with reality for us. Never have I been asked by a hotel, motel, B&amp;B or hostel for a phone number, so that had my antennae up, knowing that kind of information is routinely compiled and sold. The front desk clerk, Magda, was not interested in a discussion about it, and would only repeat that it was for 'sometimes guests forget to check out and we need to call them', but really, hotels love when guests miss check-out time, because they can ding them for another day. I have never been in a hotel that wants to be a babysitter for its guests. Nope. Did not like that. It struck me as strange, and left a bad taste in my mouth. Overall, this hotel has a bit more work to do, but it hits the mark in all the most important ways: if you have a vehicle it's in a great location, it's clean, and the beds and pillows are comfy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r367852948-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>367852948</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>A nice surprise</t>
+  </si>
+  <si>
+    <t>I stayed here because the rates had gone up significantly at the Ramada I'd stayed at (near Marina del Rey/Venice) on my last trip to the area.  It turned out to be a great alternative!Not only were the rates VERY reasonable (it might not have hurt that I did the "Pay now and save" option, a good six weeks before my stay), but, the overall experience was even better than I'd had at the other Ramada (referred to above).This location is VERY convenient to accessing the 405, plus, the room itself was quite impressive.  First of all was the size of the room (not to mention the great king size bed), but,it looked like a lot of upgrades had recently been done (i.e. the bathroom).  Don't miss the mini-fridge under the bedside table.  Plus there is a coffee maker (bring your own tea bags, though, if you drink such, because they don't provide those) and other nice amenities.  (Unfortunately, no microwave.)The free continental breakfast isn't too terrific, though.  There isn't a wide variety and it is absent any hot foods.Nonetheless, not only would I stay there again, but, a friend of mine who lives 15 minutes away (in Marina del Rey) came by and upon seeing the room said he'll definitely recommend it to any out-of-town visitors that him and his wife get.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I stayed here because the rates had gone up significantly at the Ramada I'd stayed at (near Marina del Rey/Venice) on my last trip to the area.  It turned out to be a great alternative!Not only were the rates VERY reasonable (it might not have hurt that I did the "Pay now and save" option, a good six weeks before my stay), but, the overall experience was even better than I'd had at the other Ramada (referred to above).This location is VERY convenient to accessing the 405, plus, the room itself was quite impressive.  First of all was the size of the room (not to mention the great king size bed), but,it looked like a lot of upgrades had recently been done (i.e. the bathroom).  Don't miss the mini-fridge under the bedside table.  Plus there is a coffee maker (bring your own tea bags, though, if you drink such, because they don't provide those) and other nice amenities.  (Unfortunately, no microwave.)The free continental breakfast isn't too terrific, though.  There isn't a wide variety and it is absent any hot foods.Nonetheless, not only would I stay there again, but, a friend of mine who lives 15 minutes away (in Marina del Rey) came by and upon seeing the room said he'll definitely recommend it to any out-of-town visitors that him and his wife get.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r363935265-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>363935265</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>A Pleasant Surprise</t>
+  </si>
+  <si>
+    <t>I recently booked a block of rooms for a group at the Ramada Culver City. I wasn't sure what to expect based on previous reviews, but I was pleasantly surprised! It had been updated, the rooms were clean, and the staff could not have been more pleasant and accommodating. This hotel was conveniently located from the venue we were attending and just a short hop jaunt from the airport. It's hard not knowing where things are when you're traveling out of state, but our stay at this Ramada quickly put us at ease. Thank you!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r354371205-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>354371205</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r302175226-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>302175226</t>
+  </si>
+  <si>
+    <t>08/22/2015</t>
+  </si>
+  <si>
+    <t>Central Location, Good price</t>
+  </si>
+  <si>
+    <t>I stayed at the Ramada Culver City on August 4 - August 8.  I did not expect a 4 star hotel and while it certainly wasn't, it fit the bill perfectly for my purposes.  The room was clean and the price was very competitive for the area at that time of year.  They provided extra towels and bath products upon request.  The hotel is centrally located, close to LAX and Santa Monica.  Overall, I would stay at this hotel again when I return to visit my son in LA.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r300256135-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>300256135</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>IN  A PINCH</t>
+  </si>
+  <si>
+    <t>My wife an eye saw our daughter off at LAX late evening/early morning and had reservations to stay at the La Quinta there. While attempting unsuccessfully to secure a parking spot we decided at 12:30 AM to find another hotel near our oldest. We ended up at the Ramada in Culver City.  This motel is ok in a pinch, but like most in L.A. Is over priced.  We ended up with one of the very last rooms and while the bathroom was recently remodeled, it had neither a light over the vanity or a place to hang clothes in the roomWould I recommend this place?  Only in a pinch and then be sure to have your cc ready.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>My wife an eye saw our daughter off at LAX late evening/early morning and had reservations to stay at the La Quinta there. While attempting unsuccessfully to secure a parking spot we decided at 12:30 AM to find another hotel near our oldest. We ended up at the Ramada in Culver City.  This motel is ok in a pinch, but like most in L.A. Is over priced.  We ended up with one of the very last rooms and while the bathroom was recently remodeled, it had neither a light over the vanity or a place to hang clothes in the roomWould I recommend this place?  Only in a pinch and then be sure to have your cc ready.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r299561131-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>299561131</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Good sleep, not far from Venice Beach</t>
+  </si>
+  <si>
+    <t>Whilst being slightly sceptical before visiting this property (this is just because I normally stay at Marriott properties and I'm not particularly enthusiastic when it comes to changes), I was however positively surprised and enjoyed my stay. If you like walking, you can get down to Venice in about an hour and I will also add that the bed was really comfortable (I don't normally get good sleeps at hotels but I did on this occasion and I was even jet-lagged!). Breakfast okay - just all I needed after a morning run!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r292492236-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>292492236</t>
+  </si>
+  <si>
+    <t>07/25/2015</t>
+  </si>
+  <si>
+    <t>Needs Improvement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First, the front desk staff were extremely friendly and helpful. The property needs some attention. We stayed in a newer room, the bathroom was clean and had a tiled shower however the drain was very slow. There was an inch or two gap between the bortom of the entry door to the room and the floor. The continental breakfast was ok. The fruit wasn't fresh and the layout consisted of pancakes, cereal, yogurt, coffee and muffins. The location was convenient.. just down the road was main st and Sony pictures... easy route to the freeway and Santa Monica as well. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r291105524-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>291105524</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Location Location Location</t>
+  </si>
+  <si>
+    <t>Stayed in Room 322 from 7/5 thru 7/13 while apartment-searching and paid $139/nt ($122 plus $17 tax)—a bit pricey for budget travelers.  I’m a local who knows the area quite well.  What you’re really paying for is location.  Walk Score is 82 so most things you need are within easy (no hills) walking distance.  It’s on an extremely busy street directly across from the 405 Fwy on-ramp.  Very safe area.  A 10-minute drive down Sepulveda Blvd gets you to the airport.  It’s 4 miles from the beach and is a good alternative to more expensive hotels farther west.
+Skip if you’re finicky about décor.  The room was clean but showed signs of age—a missing tile here and there, worn carpet/flooring, outdated and mismatched wallpaper in the bathroom.  It had a king-sized bed and a brand new, luxurious spa tub with room for two.  For some, the spa tub alone is worth the price.  
+Extremely comfortable bedding made all my nights restful.  The sheets didn’t fit initially and kept popping off the mattress until I tipped the housekeeper to bring larger ones.  Super-friendly, accommodating staff.  Decent daily breakfast (on 2nd floor above reception), free parking and exercise room.  Wi-fi was free and reliable 80% of the time.  There’s no pool.
+One unpleasant thing:  I needed to stay a few days longer than planned but the front desk raised the charge to $169/night going forward.  They wouldn’t budge on this and mentioned...Stayed in Room 322 from 7/5 thru 7/13 while apartment-searching and paid $139/nt ($122 plus $17 tax)—a bit pricey for budget travelers.  I’m a local who knows the area quite well.  What you’re really paying for is location.  Walk Score is 82 so most things you need are within easy (no hills) walking distance.  It’s on an extremely busy street directly across from the 405 Fwy on-ramp.  Very safe area.  A 10-minute drive down Sepulveda Blvd gets you to the airport.  It’s 4 miles from the beach and is a good alternative to more expensive hotels farther west.Skip if you’re finicky about décor.  The room was clean but showed signs of age—a missing tile here and there, worn carpet/flooring, outdated and mismatched wallpaper in the bathroom.  It had a king-sized bed and a brand new, luxurious spa tub with room for two.  For some, the spa tub alone is worth the price.  Extremely comfortable bedding made all my nights restful.  The sheets didn’t fit initially and kept popping off the mattress until I tipped the housekeeper to bring larger ones.  Super-friendly, accommodating staff.  Decent daily breakfast (on 2nd floor above reception), free parking and exercise room.  Wi-fi was free and reliable 80% of the time.  There’s no pool.One unpleasant thing:  I needed to stay a few days longer than planned but the front desk raised the charge to $169/night going forward.  They wouldn’t budge on this and mentioned that the Special Olympics were in town, i.e. others would pay more money for the room.  So they turned away a sure thing in hopes that a higher-paying customer would come along.  Seems counterintuitive but I guess that’s how business is done these days…MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed in Room 322 from 7/5 thru 7/13 while apartment-searching and paid $139/nt ($122 plus $17 tax)—a bit pricey for budget travelers.  I’m a local who knows the area quite well.  What you’re really paying for is location.  Walk Score is 82 so most things you need are within easy (no hills) walking distance.  It’s on an extremely busy street directly across from the 405 Fwy on-ramp.  Very safe area.  A 10-minute drive down Sepulveda Blvd gets you to the airport.  It’s 4 miles from the beach and is a good alternative to more expensive hotels farther west.
+Skip if you’re finicky about décor.  The room was clean but showed signs of age—a missing tile here and there, worn carpet/flooring, outdated and mismatched wallpaper in the bathroom.  It had a king-sized bed and a brand new, luxurious spa tub with room for two.  For some, the spa tub alone is worth the price.  
+Extremely comfortable bedding made all my nights restful.  The sheets didn’t fit initially and kept popping off the mattress until I tipped the housekeeper to bring larger ones.  Super-friendly, accommodating staff.  Decent daily breakfast (on 2nd floor above reception), free parking and exercise room.  Wi-fi was free and reliable 80% of the time.  There’s no pool.
+One unpleasant thing:  I needed to stay a few days longer than planned but the front desk raised the charge to $169/night going forward.  They wouldn’t budge on this and mentioned...Stayed in Room 322 from 7/5 thru 7/13 while apartment-searching and paid $139/nt ($122 plus $17 tax)—a bit pricey for budget travelers.  I’m a local who knows the area quite well.  What you’re really paying for is location.  Walk Score is 82 so most things you need are within easy (no hills) walking distance.  It’s on an extremely busy street directly across from the 405 Fwy on-ramp.  Very safe area.  A 10-minute drive down Sepulveda Blvd gets you to the airport.  It’s 4 miles from the beach and is a good alternative to more expensive hotels farther west.Skip if you’re finicky about décor.  The room was clean but showed signs of age—a missing tile here and there, worn carpet/flooring, outdated and mismatched wallpaper in the bathroom.  It had a king-sized bed and a brand new, luxurious spa tub with room for two.  For some, the spa tub alone is worth the price.  Extremely comfortable bedding made all my nights restful.  The sheets didn’t fit initially and kept popping off the mattress until I tipped the housekeeper to bring larger ones.  Super-friendly, accommodating staff.  Decent daily breakfast (on 2nd floor above reception), free parking and exercise room.  Wi-fi was free and reliable 80% of the time.  There’s no pool.One unpleasant thing:  I needed to stay a few days longer than planned but the front desk raised the charge to $169/night going forward.  They wouldn’t budge on this and mentioned that the Special Olympics were in town, i.e. others would pay more money for the room.  So they turned away a sure thing in hopes that a higher-paying customer would come along.  Seems counterintuitive but I guess that’s how business is done these days…More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r286310540-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>286310540</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Don't walk into the breakfast room refridgerator for milk!</t>
+  </si>
+  <si>
+    <t>BREAKFAST: pretty standard breakfast included with the room. Empty bowl of fruit/apples (she dropped 3 into the bowl, after the fact, after her display of irritation). Plastic pack of toaster mini pancakes/toast/bagel. Children's box cereals or instant oatmeal, an uncalibrated overpowering, thick juice syrup disperser, empty coffee dispensers, empty milk carafe, (attendant was AWOL from room), I walked to the already opened door where the refrigerator room (how rude of me) was located and brought it to the counter, to pour it over a bowl of cereal. Like a bat out of hell, she walked through the breakfast room door, grabbed the milk out of my hands and returned it to the refrigerator, I never got the milk. She walked out all defiant, I looked at her and said "May I have some milk please, in my best Oliver."  I showed her the metal carafe was empty. She said. "we are closed!" This attitude is all available to you by a feisty South American breakfast attendant who would rip you to threads if she had a chance. Her domain, her passive aggressiveness witnessed by myself, and another family.  We were all considered late, 15 minutes before "SHE" was to lock the door. In front of us ALL, she removed as much as she could, had not refilled empties, for who knows how long prior. Her antics were supported by the motel management. So be it, we will not return this...BREAKFAST: pretty standard breakfast included with the room. Empty bowl of fruit/apples (she dropped 3 into the bowl, after the fact, after her display of irritation). Plastic pack of toaster mini pancakes/toast/bagel. Children's box cereals or instant oatmeal, an uncalibrated overpowering, thick juice syrup disperser, empty coffee dispensers, empty milk carafe, (attendant was AWOL from room), I walked to the already opened door where the refrigerator room (how rude of me) was located and brought it to the counter, to pour it over a bowl of cereal. Like a bat out of hell, she walked through the breakfast room door, grabbed the milk out of my hands and returned it to the refrigerator, I never got the milk. She walked out all defiant, I looked at her and said "May I have some milk please, in my best Oliver."  I showed her the metal carafe was empty. She said. "we are closed!" This attitude is all available to you by a feisty South American breakfast attendant who would rip you to threads if she had a chance. Her domain, her passive aggressiveness witnessed by myself, and another family.  We were all considered late, 15 minutes before "SHE" was to lock the door. In front of us ALL, she removed as much as she could, had not refilled empties, for who knows how long prior. Her antics were supported by the motel management. So be it, we will not return this business. Just as whipping milk produces butter, and twisting the nose causes bleeding, so also stirring up anger produces contention.CONS: The neighborhood is a mix of businesses catering to locals who like to walk and or short car trips to eclectic establishments. RATING: I only gave them a "poor" rating rather than "excellent" due to the so called, under construction excuse for no ironing board, no chairs besides the beds to sit on, no desk or tables to put your purse and other bags, no luggage rack, no closets or hanger racks, two beds identified as queens were in reality doubles.NO SWIMMING POOL: Los Angeles, summer...really?MoreShow less</t>
+  </si>
+  <si>
+    <t>BREAKFAST: pretty standard breakfast included with the room. Empty bowl of fruit/apples (she dropped 3 into the bowl, after the fact, after her display of irritation). Plastic pack of toaster mini pancakes/toast/bagel. Children's box cereals or instant oatmeal, an uncalibrated overpowering, thick juice syrup disperser, empty coffee dispensers, empty milk carafe, (attendant was AWOL from room), I walked to the already opened door where the refrigerator room (how rude of me) was located and brought it to the counter, to pour it over a bowl of cereal. Like a bat out of hell, she walked through the breakfast room door, grabbed the milk out of my hands and returned it to the refrigerator, I never got the milk. She walked out all defiant, I looked at her and said "May I have some milk please, in my best Oliver."  I showed her the metal carafe was empty. She said. "we are closed!" This attitude is all available to you by a feisty South American breakfast attendant who would rip you to threads if she had a chance. Her domain, her passive aggressiveness witnessed by myself, and another family.  We were all considered late, 15 minutes before "SHE" was to lock the door. In front of us ALL, she removed as much as she could, had not refilled empties, for who knows how long prior. Her antics were supported by the motel management. So be it, we will not return this...BREAKFAST: pretty standard breakfast included with the room. Empty bowl of fruit/apples (she dropped 3 into the bowl, after the fact, after her display of irritation). Plastic pack of toaster mini pancakes/toast/bagel. Children's box cereals or instant oatmeal, an uncalibrated overpowering, thick juice syrup disperser, empty coffee dispensers, empty milk carafe, (attendant was AWOL from room), I walked to the already opened door where the refrigerator room (how rude of me) was located and brought it to the counter, to pour it over a bowl of cereal. Like a bat out of hell, she walked through the breakfast room door, grabbed the milk out of my hands and returned it to the refrigerator, I never got the milk. She walked out all defiant, I looked at her and said "May I have some milk please, in my best Oliver."  I showed her the metal carafe was empty. She said. "we are closed!" This attitude is all available to you by a feisty South American breakfast attendant who would rip you to threads if she had a chance. Her domain, her passive aggressiveness witnessed by myself, and another family.  We were all considered late, 15 minutes before "SHE" was to lock the door. In front of us ALL, she removed as much as she could, had not refilled empties, for who knows how long prior. Her antics were supported by the motel management. So be it, we will not return this business. Just as whipping milk produces butter, and twisting the nose causes bleeding, so also stirring up anger produces contention.CONS: The neighborhood is a mix of businesses catering to locals who like to walk and or short car trips to eclectic establishments. RATING: I only gave them a "poor" rating rather than "excellent" due to the so called, under construction excuse for no ironing board, no chairs besides the beds to sit on, no desk or tables to put your purse and other bags, no luggage rack, no closets or hanger racks, two beds identified as queens were in reality doubles.NO SWIMMING POOL: Los Angeles, summer...really?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r274850153-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>274850153</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Good value, acceptable for low-budget business trips</t>
+  </si>
+  <si>
+    <t>I chose the Ramada Culver City because it is within reasonable striking distance of UCLA, where I was attending an early morning meeting. Overall, this is a good option for business travelers going to nearby communities (Santa Monica, Westwood, Century City, Beverly Hills, etc), and would likely be acceptable for families looking for inexpensive, no frills accommodations. It was a relatively easy drive to Westwood for me at a fraction of the cost of actually staying close to the university. Abandon all hope if you’re returning on the 405 South in the afternoon. The room was clean with a nice TV and excellent air conditioning. I had a king bed that was very comfortable. My room was in the back of the hotel, away from busy Sepulveda Blvd. It was very quiet, I’d highly recommend asking for a room as far away from the street as possible. The free wifi was a huge plus, as was the continental breakfast. The hotel was undergoing renovations while I was there, so the tiny lobby has likely improved significantly since then.When exiting the hotel in the morning, I wouldn’t bother trying to make a right into the far left 405 North onramp lane, the line of cars never ends. Just make a right and do a u-turn on Sepulveda at Venice Blvd and approach the onramp from the north.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I chose the Ramada Culver City because it is within reasonable striking distance of UCLA, where I was attending an early morning meeting. Overall, this is a good option for business travelers going to nearby communities (Santa Monica, Westwood, Century City, Beverly Hills, etc), and would likely be acceptable for families looking for inexpensive, no frills accommodations. It was a relatively easy drive to Westwood for me at a fraction of the cost of actually staying close to the university. Abandon all hope if you’re returning on the 405 South in the afternoon. The room was clean with a nice TV and excellent air conditioning. I had a king bed that was very comfortable. My room was in the back of the hotel, away from busy Sepulveda Blvd. It was very quiet, I’d highly recommend asking for a room as far away from the street as possible. The free wifi was a huge plus, as was the continental breakfast. The hotel was undergoing renovations while I was there, so the tiny lobby has likely improved significantly since then.When exiting the hotel in the morning, I wouldn’t bother trying to make a right into the far left 405 North onramp lane, the line of cars never ends. Just make a right and do a u-turn on Sepulveda at Venice Blvd and approach the onramp from the north.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r273910992-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>273910992</t>
+  </si>
+  <si>
+    <t>05/22/2015</t>
+  </si>
+  <si>
+    <t>Best for value!</t>
+  </si>
+  <si>
+    <t>I stayed here on my business trip, everything was good, they were renovating some rooms next to room But the froth desk was nice enough to upgrade me to one of their suite. I had good experience will definitely stay here again.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r273193388-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>273193388</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Spring Getaway</t>
+  </si>
+  <si>
+    <t>Every spring my husband and I come to this hotel to visit California. When driving up to the hotel we noticied the rennovations going on and were a little worried. When we walked in we were greeted by the front desk who is always really helpful, we let them know of our worries about the noise going on but they put us in the end of the hotel where we werent affected by any noise.  We spent most of our stay going to the beach which is only 15 minutes away from the hotel. Overall the remodeling looks really good and im excited to see the outcome will definitely be back next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>Every spring my husband and I come to this hotel to visit California. When driving up to the hotel we noticied the rennovations going on and were a little worried. When we walked in we were greeted by the front desk who is always really helpful, we let them know of our worries about the noise going on but they put us in the end of the hotel where we werent affected by any noise.  We spent most of our stay going to the beach which is only 15 minutes away from the hotel. Overall the remodeling looks really good and im excited to see the outcome will definitely be back next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r263671761-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>263671761</t>
+  </si>
+  <si>
+    <t>04/04/2015</t>
+  </si>
+  <si>
+    <t>Pleasant Penthouse Stay.  VERY SPACIOUS.</t>
+  </si>
+  <si>
+    <t>I have stayed here twice.  Both pleasantMy last stay was with a friend and I needed a 2 bedroom I was given the penthouse and it was a great stayHUGE space with 3 bedrooms, living room, kitchen, and office spaceCustomer service very friendly and helpfulNothing bad I can say</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r260814201-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>260814201</t>
+  </si>
+  <si>
+    <t>03/20/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sufficient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you want Five Star accommodations or if you're picky, don't stay here. But, if you simply require somewhere that's clean, quiet, and close to EVERYTHING, then this place is definitely sufficient. The staff was very nice and you can't beat free parking, free WiFi and free continental breakfast. The outside looks dilapidated but we had a room that had been remodeled so it was perfect for what we needed. So, if you plan on running around LA all day and just need somewhere to sleep and change your clothes, this place is good enough. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r254381841-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>254381841</t>
+  </si>
+  <si>
+    <t>02/15/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r250726525-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>250726525</t>
+  </si>
+  <si>
+    <t>01/23/2015</t>
+  </si>
+  <si>
+    <t>Close to everything, nice and clean place</t>
+  </si>
+  <si>
+    <t>I stayed there before, this time they were remodeling some rooms. I got the room at the back, so it didn't really bother me. Staffs were friendly and rooms were decent. looking forward for the renovated rooms.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r244321195-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>244321195</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r226306816-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>226306816</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>Used to better</t>
+  </si>
+  <si>
+    <t>We had a 2 night stay here, first the good points, it was close to bus stops,shops &amp; an Irish pub,also the staff were helpful &amp; friendly, the breakfast was o.k. The room however was situated on 2nd floor right opposite the lifts so we had NO natural light at all making the room very dark although it was bright sunshine outside,it was also noisy. The carpet was disgusting, wouldnt walk around barefoot, was glad we only had 2 nights.Would call it a Motel rather than Hotel as there wernt really any facilities, no restaurant or swimming pool.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r218363263-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>218363263</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>WHAT A PIT!!</t>
+  </si>
+  <si>
+    <t>1) RUDE PEOPLE WORK THERE2) ROOMS ARE FILTHY &amp; RUN DOWN3) SOCKS STICK TO CARPET LIKE VELCRO4) BREAKFAST IS GROSS! AND THE FRONT DESK STAFF BREATHES DOWN YOUR NECK IF YOU SHOW UP THERE. THEN THEY TEXT THEIR FRIENDS ON FB AT A TABLE NEXT TO YOU!! Hated it! Picked up our stuff into the back to the nasty room! Just rude as hell!4) GHETTO LOCATIONVery close to the freeway for fast getaway tho!5) NOT WORTH THE PRICE! I Cannot express enough here just how disgusting being in that room was. It was impossible to sleep. You can hear everything through the walls and it's just filthy dirty! There was absolutely nothing comforting about staying in that god awful room. I was edgy the entire time I was there, and could not wait for my stay to be over, and because I got sick I was stuck in that room. My Lord I wish there was a way to shout this from the highest mountain top, but please don't stay here!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>1) RUDE PEOPLE WORK THERE2) ROOMS ARE FILTHY &amp; RUN DOWN3) SOCKS STICK TO CARPET LIKE VELCRO4) BREAKFAST IS GROSS! AND THE FRONT DESK STAFF BREATHES DOWN YOUR NECK IF YOU SHOW UP THERE. THEN THEY TEXT THEIR FRIENDS ON FB AT A TABLE NEXT TO YOU!! Hated it! Picked up our stuff into the back to the nasty room! Just rude as hell!4) GHETTO LOCATIONVery close to the freeway for fast getaway tho!5) NOT WORTH THE PRICE! I Cannot express enough here just how disgusting being in that room was. It was impossible to sleep. You can hear everything through the walls and it's just filthy dirty! There was absolutely nothing comforting about staying in that god awful room. I was edgy the entire time I was there, and could not wait for my stay to be over, and because I got sick I was stuck in that room. My Lord I wish there was a way to shout this from the highest mountain top, but please don't stay here!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r212318297-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>212318297</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>A short stop in LA</t>
+  </si>
+  <si>
+    <t>I wanted to be close to downtown LA with free parking and ease of getting in/out and access to highways. This placed served that purpose. The front desk staff were very helpful &amp; nice. The place looks dirty. It had stains all over chairs and the carpets. One day I saw the maids washing one of their cars using guest towels. Thank god I take my own towel. There are people smoking in the balconies in front of your room and you get to smell their smoke since the air intake of the air conditioning is right there. It included the continental breakfast which was sufficient for me. It felt like a truck stop. parking was ample and it is very convenient to get to places and the area is not as congested as the rest of LA. The price was OK (140/per night for 3 people) including the breakfast &amp; parking. The Wi-Fi worked very well and my cell phone had ample coverage as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I wanted to be close to downtown LA with free parking and ease of getting in/out and access to highways. This placed served that purpose. The front desk staff were very helpful &amp; nice. The place looks dirty. It had stains all over chairs and the carpets. One day I saw the maids washing one of their cars using guest towels. Thank god I take my own towel. There are people smoking in the balconies in front of your room and you get to smell their smoke since the air intake of the air conditioning is right there. It included the continental breakfast which was sufficient for me. It felt like a truck stop. parking was ample and it is very convenient to get to places and the area is not as congested as the rest of LA. The price was OK (140/per night for 3 people) including the breakfast &amp; parking. The Wi-Fi worked very well and my cell phone had ample coverage as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r210212995-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>210212995</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r201605422-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>201605422</t>
+  </si>
+  <si>
+    <t>04/17/2014</t>
+  </si>
+  <si>
+    <t>Pretty decent but a bit pricey</t>
+  </si>
+  <si>
+    <t>Stayed here for a week for business visit... $100 per night might be a bit over priced for the room conditions and cleanliness. Rooms are just about decent.. well furnished but pretty old.. high time the carpets/chairs are replaced!!I think by the 2nd or 3rd day, the toilet got clogged and a bit messy.. But the staff was extremely helpful .. Always available both on call and in person, they got it sorted out I guess. Never faced any other issues for the rest of my stay. Pros - The hotel is centrally located in Culver City and public transportation to/from the hotel is pretty convenient for most attractions.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r199834877-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>199834877</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>A bit over priced</t>
+  </si>
+  <si>
+    <t>The worst thing about this motel is the office phone did not work.  I had reservations but due to a medical emergency we were going to arrive very late.  I tried to call but got the recording that said the number was out of order.  So did my husband and daughter.  I called the central reservation desk and they could not get through so they gave me customer care....which was closed aahhhh.  I called back and the person got a message to the front desk.  When I told the front desk about our problem the woman only said I was not the only person to say that.The room was clean as were the sheets and linens.  The bathroom was clean and supplied with the typical supplies.  The towels were small and thin.  Speaking of thin...so are the walls.  I could hear a child coughing all night.  I could here people flushing the toilet, running water and walking around.  The parking lot was also noisy.A breakfast is served.  It was fruit, pastry, muffins, bagels, cold and hot cereal, waffles and pancakes.  There was juice, milk, coffee and tea.  Overall this place was OK if you just need a bed and shower but it is not great.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>The worst thing about this motel is the office phone did not work.  I had reservations but due to a medical emergency we were going to arrive very late.  I tried to call but got the recording that said the number was out of order.  So did my husband and daughter.  I called the central reservation desk and they could not get through so they gave me customer care....which was closed aahhhh.  I called back and the person got a message to the front desk.  When I told the front desk about our problem the woman only said I was not the only person to say that.The room was clean as were the sheets and linens.  The bathroom was clean and supplied with the typical supplies.  The towels were small and thin.  Speaking of thin...so are the walls.  I could hear a child coughing all night.  I could here people flushing the toilet, running water and walking around.  The parking lot was also noisy.A breakfast is served.  It was fruit, pastry, muffins, bagels, cold and hot cereal, waffles and pancakes.  There was juice, milk, coffee and tea.  Overall this place was OK if you just need a bed and shower but it is not great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r192909979-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>192909979</t>
+  </si>
+  <si>
+    <t>02/02/2014</t>
+  </si>
+  <si>
+    <t>HIGH PRICE, POOR CONDITION ROOM</t>
+  </si>
+  <si>
+    <t>For $130 incl TAX you can find hotel's that offer you a clean room that has not been worn out. The Ramada offers you a old, worn out room, poor quality mattress, old carpet, old bathroom in need of new toilet, shower, tiles and ceiling with hair from the previous guest all over bathroom and room. I received a call at 1030 if I wanted to stay another night, if not I had to be out by 11. I even had to ask for my print bill, something you never have to ask in any Comfort Inn. Not a friendly service and my 2nd bad experience with Ramada or better DRAMADA. Will not see me again at any Ramada, I prefer to drive extra 10 mile to find a Comfort Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>For $130 incl TAX you can find hotel's that offer you a clean room that has not been worn out. The Ramada offers you a old, worn out room, poor quality mattress, old carpet, old bathroom in need of new toilet, shower, tiles and ceiling with hair from the previous guest all over bathroom and room. I received a call at 1030 if I wanted to stay another night, if not I had to be out by 11. I even had to ask for my print bill, something you never have to ask in any Comfort Inn. Not a friendly service and my 2nd bad experience with Ramada or better DRAMADA. Will not see me again at any Ramada, I prefer to drive extra 10 mile to find a Comfort Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r191090303-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>191090303</t>
+  </si>
+  <si>
+    <t>01/16/2014</t>
+  </si>
+  <si>
+    <t>VERY HELPFUL MANAGER!</t>
+  </si>
+  <si>
+    <t>Me and my family stayed here for one night as we were stuck in LA as we missed our flight to Bangkok because our flight from New York was delayed. We checked in at 4AM and were given room 103. The room and the bathroom were cleaner and better maintained that most drive-in motels and the beds were very comfortable. Very helpful staff at check-in! (continue reading to find out why)Later that night I realised that I had forgotten my laptop in the back of the taxi that had dropped us off at the Ramada, and the next morning we informed the receptionist and asked whether she could access the security camera outside, she responded that she didn't know and we would have to ask the manager, who would be coming in at 3PM. We left for the airport and throughout the day we were sent back between Taxi ranks, LAPD and Airport Police to find any information/footage on this taxi, but no one seem to know anything. At 3PM we called the hotel to ask the manager if he had footage of the taxi from last night, one hour later he sent us an email with photos of the said taxi, the picture was blurry but he was able to identify the taxi number, we tracked down the taxi and in the end I git my laptop back. Will definitely use the Ramada if I ever visit LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>Me and my family stayed here for one night as we were stuck in LA as we missed our flight to Bangkok because our flight from New York was delayed. We checked in at 4AM and were given room 103. The room and the bathroom were cleaner and better maintained that most drive-in motels and the beds were very comfortable. Very helpful staff at check-in! (continue reading to find out why)Later that night I realised that I had forgotten my laptop in the back of the taxi that had dropped us off at the Ramada, and the next morning we informed the receptionist and asked whether she could access the security camera outside, she responded that she didn't know and we would have to ask the manager, who would be coming in at 3PM. We left for the airport and throughout the day we were sent back between Taxi ranks, LAPD and Airport Police to find any information/footage on this taxi, but no one seem to know anything. At 3PM we called the hotel to ask the manager if he had footage of the taxi from last night, one hour later he sent us an email with photos of the said taxi, the picture was blurry but he was able to identify the taxi number, we tracked down the taxi and in the end I git my laptop back. Will definitely use the Ramada if I ever visit LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r189929891-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>189929891</t>
+  </si>
+  <si>
+    <t>01/06/2014</t>
+  </si>
+  <si>
+    <t>vist</t>
+  </si>
+  <si>
+    <t>Let me start off by saying I LOVE THE RAMADA! Every time i travel to my visit my family i stay there. The morning staff is great but a young lady from grave yard shift was very rude! I believe her name was Helen. Let me say this young lady was very uneducated had lack of respect and was very rude again I repeat. I came in and told her I had a reservation and very quickly and rude replied "no you don't!" Her energy was horrible like if she hated working there. I really think I am done going to The Ramada if she will be working there with that bad vibe! I called to talk to the manager and complain but he was not there. But besides that I never really had a problem staying there its very clean they even have their own gym and free breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me start off by saying I LOVE THE RAMADA! Every time i travel to my visit my family i stay there. The morning staff is great but a young lady from grave yard shift was very rude! I believe her name was Helen. Let me say this young lady was very uneducated had lack of respect and was very rude again I repeat. I came in and told her I had a reservation and very quickly and rude replied "no you don't!" Her energy was horrible like if she hated working there. I really think I am done going to The Ramada if she will be working there with that bad vibe! I called to talk to the manager and complain but he was not there. But besides that I never really had a problem staying there its very clean they even have their own gym and free breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r189789568-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>189789568</t>
+  </si>
+  <si>
+    <t>01/05/2014</t>
+  </si>
+  <si>
+    <t>Bare Bones and Dirty</t>
+  </si>
+  <si>
+    <t>Stayed overnight here on New Year's Eve because we were attending a late wedding nearby.  The best part of the room was the bed (excluding the pillows which were thin and lumpy in random spots), though that's the extent of it.  The room was shabby and barely clean with spots all over the carpet, as well as dings and scratches on the furniture and mold on the underside of the shower rod.  The complimentary breakfast was a whole lot of carbs and a few basic pieces of fruit.  Internet was fairly good.  Very pleasant staff at check-in and breakfast are the only thing that bumps this hotel from Poor to Average.  Wouldn't stay here again, though.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Stayed overnight here on New Year's Eve because we were attending a late wedding nearby.  The best part of the room was the bed (excluding the pillows which were thin and lumpy in random spots), though that's the extent of it.  The room was shabby and barely clean with spots all over the carpet, as well as dings and scratches on the furniture and mold on the underside of the shower rod.  The complimentary breakfast was a whole lot of carbs and a few basic pieces of fruit.  Internet was fairly good.  Very pleasant staff at check-in and breakfast are the only thing that bumps this hotel from Poor to Average.  Wouldn't stay here again, though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r175370499-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>175370499</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>Great place in culver city</t>
+  </si>
+  <si>
+    <t>We stayed at this place last weekend, and everything was awesome. Comfy beds, cleans sheets and best of all all free movies in HD. They have fast internet and it was the best among all the hotels i've stayed in culver city. Staff were friendly and very helpful. Free breakfast in the morning, and fast check out. It was exactly what we were looking for. I would recommend this place to my friends and family.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r172892310-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>172892310</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>Great location!</t>
+  </si>
+  <si>
+    <t>Hotel is ideally located in between Venice Beach and downtown Hollywood.  We found the staff to be courteous and pleasant.  Breakfast each morning was included.  If you're looking for a Sunday-brunch-kind-of-breakfast, you won't be happy.  They offer bagels, cold cereal, fruit, muffins, waffles, coffee and juice, a good, fast morning starter.  Beds were very comfortable, and I am picky.  Carpets could use a good cleaning. Good place for everyone but small children.  Price was excellent for state/location.  Restaurants within walking distance:  Pei-Wei, Starbucks, Chipotle, and local sushi joint.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r171337363-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>171337363</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>Culver City stay</t>
+  </si>
+  <si>
+    <t>I chose this hotel due to the price and the location - just down the street from my daughter's apartment. Convenient location. We ended up with a queen suite. I don't think I booked that, but was glad for the upgrade. Very spacious room. Only complaint was the dirty floors. They are dark wood, so you don't see how dirty they are until you look at your bare feet or socks. Overall a good stay. Did not eat at the continental breakfast, very limited choices. I was suprised they even offered breakfast based on the fact that we were in the LA area and most hotels do not offer a complimentary breakfast.  MoreShow less</t>
+  </si>
+  <si>
+    <t>I chose this hotel due to the price and the location - just down the street from my daughter's apartment. Convenient location. We ended up with a queen suite. I don't think I booked that, but was glad for the upgrade. Very spacious room. Only complaint was the dirty floors. They are dark wood, so you don't see how dirty they are until you look at your bare feet or socks. Overall a good stay. Did not eat at the continental breakfast, very limited choices. I was suprised they even offered breakfast based on the fact that we were in the LA area and most hotels do not offer a complimentary breakfast.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r165382170-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>165382170</t>
+  </si>
+  <si>
+    <t>06/26/2013</t>
+  </si>
+  <si>
+    <t>wonderful stay!</t>
+  </si>
+  <si>
+    <t>Stayed here with a few friends of mine recently. I must say i was impressed. The Front Desk staff was very friendly and welcoming, the rooms were clean and quiet, and everything was lovely. I really enjoyed my stay. Their beds are so comfy and soft, i slept so great. Thank you Ramada for a wonderful stay. I will come back again soon!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r158886106-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>158886106</t>
+  </si>
+  <si>
+    <t>04/26/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>I stayed at the Ramada during a weekend trip to Los Angeles. I found it to be a very friendly place. The room was very nice. The WiFi didn't seem to work, but that was a minor annoyance as I wasn't in the hotel for much more than sleeping, and they also had a computer in the lobby for guest use. I would certainly use this hotel again, depending on the length of my stay. All in all, I had a fantastic experience.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r158069481-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>158069481</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Just Say No...</t>
+  </si>
+  <si>
+    <t>This hotel is this most awkward hotel I've ever stayed in. I don't even know where to begin. We had booked our reservation through Priceline.com which usually charges at the time of reservation, however, with this reservation I guess we were put through to booking.com and weren't charged-all of which was not Ramdas fault, however, he way the front desk staff handled the confusion was very unprofessional and quite rude and argumentative. My next concern was housekeeping.... one day (around noon they come) when they came by my four month old was sleeping so I asked her to come back. She never did.. i called the front desk and asked for new towels and for trash to be taken they said ok, but never did it. Next day while I was out, towels and sheets and amenities (shampoo, etc) were just left on the chair by the door, trash still not emptied. On the 3rd day of our stay we got a phone call saying a cable guy was coming the following day between 11-5....ummm okay... so we had no tv that day... also I came back from keeping busy during that 11-5 time and my bed was made but no pillow cases... no towels (dirty ones gone also) but trash was emptied. MAJOR PROBLEM: FOUND BLOOD ON OUR COMFORTER THAT WASN'T OURS...WHEN WE NOTIFIED MANAGER HE WAS RUDE AND THREATENED TO CALL THE COPS AND KICK US OUT. All...This hotel is this most awkward hotel I've ever stayed in. I don't even know where to begin. We had booked our reservation through Priceline.com which usually charges at the time of reservation, however, with this reservation I guess we were put through to booking.com and weren't charged-all of which was not Ramdas fault, however, he way the front desk staff handled the confusion was very unprofessional and quite rude and argumentative. My next concern was housekeeping.... one day (around noon they come) when they came by my four month old was sleeping so I asked her to come back. She never did.. i called the front desk and asked for new towels and for trash to be taken they said ok, but never did it. Next day while I was out, towels and sheets and amenities (shampoo, etc) were just left on the chair by the door, trash still not emptied. On the 3rd day of our stay we got a phone call saying a cable guy was coming the following day between 11-5....ummm okay... so we had no tv that day... also I came back from keeping busy during that 11-5 time and my bed was made but no pillow cases... no towels (dirty ones gone also) but trash was emptied. MAJOR PROBLEM: FOUND BLOOD ON OUR COMFORTER THAT WASN'T OURS...WHEN WE NOTIFIED MANAGER HE WAS RUDE AND THREATENED TO CALL THE COPS AND KICK US OUT. All in all a very bizarre experince.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is this most awkward hotel I've ever stayed in. I don't even know where to begin. We had booked our reservation through Priceline.com which usually charges at the time of reservation, however, with this reservation I guess we were put through to booking.com and weren't charged-all of which was not Ramdas fault, however, he way the front desk staff handled the confusion was very unprofessional and quite rude and argumentative. My next concern was housekeeping.... one day (around noon they come) when they came by my four month old was sleeping so I asked her to come back. She never did.. i called the front desk and asked for new towels and for trash to be taken they said ok, but never did it. Next day while I was out, towels and sheets and amenities (shampoo, etc) were just left on the chair by the door, trash still not emptied. On the 3rd day of our stay we got a phone call saying a cable guy was coming the following day between 11-5....ummm okay... so we had no tv that day... also I came back from keeping busy during that 11-5 time and my bed was made but no pillow cases... no towels (dirty ones gone also) but trash was emptied. MAJOR PROBLEM: FOUND BLOOD ON OUR COMFORTER THAT WASN'T OURS...WHEN WE NOTIFIED MANAGER HE WAS RUDE AND THREATENED TO CALL THE COPS AND KICK US OUT. All...This hotel is this most awkward hotel I've ever stayed in. I don't even know where to begin. We had booked our reservation through Priceline.com which usually charges at the time of reservation, however, with this reservation I guess we were put through to booking.com and weren't charged-all of which was not Ramdas fault, however, he way the front desk staff handled the confusion was very unprofessional and quite rude and argumentative. My next concern was housekeeping.... one day (around noon they come) when they came by my four month old was sleeping so I asked her to come back. She never did.. i called the front desk and asked for new towels and for trash to be taken they said ok, but never did it. Next day while I was out, towels and sheets and amenities (shampoo, etc) were just left on the chair by the door, trash still not emptied. On the 3rd day of our stay we got a phone call saying a cable guy was coming the following day between 11-5....ummm okay... so we had no tv that day... also I came back from keeping busy during that 11-5 time and my bed was made but no pillow cases... no towels (dirty ones gone also) but trash was emptied. MAJOR PROBLEM: FOUND BLOOD ON OUR COMFORTER THAT WASN'T OURS...WHEN WE NOTIFIED MANAGER HE WAS RUDE AND THREATENED TO CALL THE COPS AND KICK US OUT. All in all a very bizarre experince.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r151430693-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>151430693</t>
+  </si>
+  <si>
+    <t>02/04/2013</t>
+  </si>
+  <si>
+    <t>Not 5 star But well worth the Money!</t>
+  </si>
+  <si>
+    <t>Stayed there for 2 individual alternate nights on the same trip, rooms clean and although not the newest I've stayed in, the bedding was crisp and the room was quiet, (I stayed on the ground floor facing the car park).I have read some people complain about roaches in rooms, there was none in our room but when people bring food into bedrooms... only one outcome will follow, all in all it was completely what you paid for... and as parking IS a problem in locations, that is solved at this hotel!(Nice continental breakfast too)</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r144415633-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>144415633</t>
+  </si>
+  <si>
+    <t>11/03/2012</t>
+  </si>
+  <si>
+    <t>Very pleased with accommodations!</t>
+  </si>
+  <si>
+    <t>Excellent, comfy bed and pillows. Room was very clean with mini fridge, microwave and coffee maker. Plenty of parking included, conveniently located to rooms. Elevator and stairs clean and convenient as well. WF FI and computer/printer for printing out boarding passes available in lobby. Continental breakfast included assorted pastries, bagels, cereal, juice, coffee -- the basics. Excellent value! Good proximity to LAX, UCLA, and surrounding attractions.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r143577086-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>143577086</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r140965060-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>140965060</t>
+  </si>
+  <si>
+    <t>09/22/2012</t>
+  </si>
+  <si>
+    <t>Do not ever stay at this motel</t>
+  </si>
+  <si>
+    <t>Had room reserved for 7 days. Came in on the sixth the night And there were other people staying in our room. they had actually remove our luggage and never even call to tell us. They admitted they made a mistake and still charged extra for a different room. Every hotel in town had a room here but not usMoreShow less</t>
+  </si>
+  <si>
+    <t>ramadainncc, Manager at Ramada by Wyndham Culver City, responded to this reviewResponded September 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2012</t>
+  </si>
+  <si>
+    <t>Had room reserved for 7 days. Came in on the sixth the night And there were other people staying in our room. they had actually remove our luggage and never even call to tell us. They admitted they made a mistake and still charged extra for a different room. Every hotel in town had a room here but not usMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r140792415-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>140792415</t>
+  </si>
+  <si>
+    <t>09/20/2012</t>
+  </si>
+  <si>
+    <t>convenient, budget, not bad...</t>
+  </si>
+  <si>
+    <t>i stayed here while in town for an interview in Hollywood and had no idea what to expect, but it was convenient and i got it at a discounted rate (since i was paying for the trip) and had free wifi and parking and "continental" breakfast... well, the breakfast was, um, quite basic, but there were bagels and a toaster and creme cheese so i was ok for 2 mornings. the room was fine, moderately updated. this place is nothing special, but i really can't complain. it's not super nice, but compared to what was next to it or where i could've ended up, it really was decent! promise! there were some young foreigners (European, Asian) and a pretty good mix of normal types. didn't notice anyone sketchy. staff was nice and always helpful!!! VERY easy access to 405, 10, Hollywood, Santa Monica (it's right down from Venice Blvd which takes you straight to the beach) and very close to Forest Hills mall which has a SuperTarget which i desperately needed and only paid $10 for cab ride there. there's a Vons not far and some taco shops and local cafe types within walking distanct. oh, and a liquor store right across the street :) all in all, as someone who's worked in hotels and is used to MUCH nicer, this place really wasn't bad for 2 nights. i should've rented a car, but didn't... but the parking lot was...i stayed here while in town for an interview in Hollywood and had no idea what to expect, but it was convenient and i got it at a discounted rate (since i was paying for the trip) and had free wifi and parking and "continental" breakfast... well, the breakfast was, um, quite basic, but there were bagels and a toaster and creme cheese so i was ok for 2 mornings. the room was fine, moderately updated. this place is nothing special, but i really can't complain. it's not super nice, but compared to what was next to it or where i could've ended up, it really was decent! promise! there were some young foreigners (European, Asian) and a pretty good mix of normal types. didn't notice anyone sketchy. staff was nice and always helpful!!! VERY easy access to 405, 10, Hollywood, Santa Monica (it's right down from Venice Blvd which takes you straight to the beach) and very close to Forest Hills mall which has a SuperTarget which i desperately needed and only paid $10 for cab ride there. there's a Vons not far and some taco shops and local cafe types within walking distanct. oh, and a liquor store right across the street :) all in all, as someone who's worked in hotels and is used to MUCH nicer, this place really wasn't bad for 2 nights. i should've rented a car, but didn't... but the parking lot was decent size and felt safe and was free as was WiFi. i saw the owner and his son there on occasion and they were doing random repairs and just checking in and they seemed nice, too. definitely worth it if you're on a budget and looking for convenience. bus line runs right down Sepulveda, too.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>i stayed here while in town for an interview in Hollywood and had no idea what to expect, but it was convenient and i got it at a discounted rate (since i was paying for the trip) and had free wifi and parking and "continental" breakfast... well, the breakfast was, um, quite basic, but there were bagels and a toaster and creme cheese so i was ok for 2 mornings. the room was fine, moderately updated. this place is nothing special, but i really can't complain. it's not super nice, but compared to what was next to it or where i could've ended up, it really was decent! promise! there were some young foreigners (European, Asian) and a pretty good mix of normal types. didn't notice anyone sketchy. staff was nice and always helpful!!! VERY easy access to 405, 10, Hollywood, Santa Monica (it's right down from Venice Blvd which takes you straight to the beach) and very close to Forest Hills mall which has a SuperTarget which i desperately needed and only paid $10 for cab ride there. there's a Vons not far and some taco shops and local cafe types within walking distanct. oh, and a liquor store right across the street :) all in all, as someone who's worked in hotels and is used to MUCH nicer, this place really wasn't bad for 2 nights. i should've rented a car, but didn't... but the parking lot was...i stayed here while in town for an interview in Hollywood and had no idea what to expect, but it was convenient and i got it at a discounted rate (since i was paying for the trip) and had free wifi and parking and "continental" breakfast... well, the breakfast was, um, quite basic, but there were bagels and a toaster and creme cheese so i was ok for 2 mornings. the room was fine, moderately updated. this place is nothing special, but i really can't complain. it's not super nice, but compared to what was next to it or where i could've ended up, it really was decent! promise! there were some young foreigners (European, Asian) and a pretty good mix of normal types. didn't notice anyone sketchy. staff was nice and always helpful!!! VERY easy access to 405, 10, Hollywood, Santa Monica (it's right down from Venice Blvd which takes you straight to the beach) and very close to Forest Hills mall which has a SuperTarget which i desperately needed and only paid $10 for cab ride there. there's a Vons not far and some taco shops and local cafe types within walking distanct. oh, and a liquor store right across the street :) all in all, as someone who's worked in hotels and is used to MUCH nicer, this place really wasn't bad for 2 nights. i should've rented a car, but didn't... but the parking lot was decent size and felt safe and was free as was WiFi. i saw the owner and his son there on occasion and they were doing random repairs and just checking in and they seemed nice, too. definitely worth it if you're on a budget and looking for convenience. bus line runs right down Sepulveda, too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r139727277-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>139727277</t>
+  </si>
+  <si>
+    <t>09/08/2012</t>
+  </si>
+  <si>
+    <t>Good location, but needs a little TLC</t>
+  </si>
+  <si>
+    <t>The location is very convenient - close to freeways and bus lines, and the price seemed decent, but the rooms were a little worn.  Everything was clean, but there were some stains on the carpet, etc. - normal wear-and-tear for this type of business.The staff was friendly and professional - which was good because we had to change rooms twice during a 2-night stay!  The first room was a "smoking" room and had some bad smells, then the second room had electrical problems.  But the staff gladly changed our room each time.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r134066571-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>134066571</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>1950's style motel</t>
+  </si>
+  <si>
+    <t>This motel was terrible.  First of all, way overpriced, even for a "jacuzzi room".  Big deal, a big bathtub in the corner of the room.  The furniture, carpet, drapes all need replacing.  It was right off the freeway, which made for easy access.  But as anyone from Southern California will tell you, if the freeway is the I-405 you will hear traffic all the time.  We had to turn on the A/C just to drown out the freeway noise.  Breakfast was nothing but packaged carbs (sweet rolls, muffins, etc).  We ended up eating out for something healthier.  This was the only hotel/motel room we could find in the area for Father's Day/Graduation weekend.  Otherwise we would have gone elsewhere.  We definitely won't be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>This motel was terrible.  First of all, way overpriced, even for a "jacuzzi room".  Big deal, a big bathtub in the corner of the room.  The furniture, carpet, drapes all need replacing.  It was right off the freeway, which made for easy access.  But as anyone from Southern California will tell you, if the freeway is the I-405 you will hear traffic all the time.  We had to turn on the A/C just to drown out the freeway noise.  Breakfast was nothing but packaged carbs (sweet rolls, muffins, etc).  We ended up eating out for something healthier.  This was the only hotel/motel room we could find in the area for Father's Day/Graduation weekend.  Otherwise we would have gone elsewhere.  We definitely won't be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r130709880-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>130709880</t>
+  </si>
+  <si>
+    <t>05/27/2012</t>
+  </si>
+  <si>
+    <t>Good price for what you get</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights in this hotel and enjoyed it. We got a good rate for three people sharing the room. Parking is free. Be aware that the hotel is a more like a motel because of direct access from the parking lot without the need of passing the reception or a building entrance, because the building is open on the parking lot side. The girls at the recpetion were friendly and did a good job. Breakfast was below average but again you get what you pay for. As someone wrote before the furniture in the room is worn and needs to be updated, especially the carpet.The location of the hotel is excellent with easy access to the highway, to a mall and to UCLA (you need a car of course). In walking distance there are several good restaurants. Overall we can recoemmend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights in this hotel and enjoyed it. We got a good rate for three people sharing the room. Parking is free. Be aware that the hotel is a more like a motel because of direct access from the parking lot without the need of passing the reception or a building entrance, because the building is open on the parking lot side. The girls at the recpetion were friendly and did a good job. Breakfast was below average but again you get what you pay for. As someone wrote before the furniture in the room is worn and needs to be updated, especially the carpet.The location of the hotel is excellent with easy access to the highway, to a mall and to UCLA (you need a car of course). In walking distance there are several good restaurants. Overall we can recoemmend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r123922364-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>123922364</t>
+  </si>
+  <si>
+    <t>01/31/2012</t>
+  </si>
+  <si>
+    <t>Not a nice place to stay</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for three nights this past weekend.  It was not a pleasant experience.The towels were so old and worn that we exchanged one right after we checked in because it looked like a rag.  That evening I used one that looked better at first but it turned out to have a hole worn in the middle!  We also had to request a second washcloth both of the first two days because housekeeping provided only one at first.The breakfast was minimal, with food running out well before the 10am time limit.  The breakfast area was also not kept clean.  We had to wake up the desk clerk on our last morning there in order to check out at 5am because of an early flight time.  He seemed to resent the fact that we woke him up, I guess, and wasn't very pleasant while checking us out.The room was worn, the decorative throw on our bed was stained on both sides, and the furniture was worn and battered.We were there to handle a family situation over the weekend.  If we'd been on vacation, I would have moved to another hotel, but we had more important things on our minds at the time.My recommendation would be to avoid this motel, as I know I will in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here for three nights this past weekend.  It was not a pleasant experience.The towels were so old and worn that we exchanged one right after we checked in because it looked like a rag.  That evening I used one that looked better at first but it turned out to have a hole worn in the middle!  We also had to request a second washcloth both of the first two days because housekeeping provided only one at first.The breakfast was minimal, with food running out well before the 10am time limit.  The breakfast area was also not kept clean.  We had to wake up the desk clerk on our last morning there in order to check out at 5am because of an early flight time.  He seemed to resent the fact that we woke him up, I guess, and wasn't very pleasant while checking us out.The room was worn, the decorative throw on our bed was stained on both sides, and the furniture was worn and battered.We were there to handle a family situation over the weekend.  If we'd been on vacation, I would have moved to another hotel, but we had more important things on our minds at the time.My recommendation would be to avoid this motel, as I know I will in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r120669170-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>120669170</t>
+  </si>
+  <si>
+    <t>11/16/2011</t>
+  </si>
+  <si>
+    <t>Not exactly what you would expect!!!</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel 4 nights my check-in was very interesting. I had never seen a hotel have behind their desk a person with no customer service, this person had no idea what she was doing wasn't able to greet me properly, as a matter a fact she treated me as if i was a "friend" her tone was so bulgar and with no manner. It's such a shame on this nice hotel to loose customers thanks to the people representing it. Not only my check-in was bad but they claim to have breakfast every morning from 6:30-10am which is a LIE! The doors to their breakfast never open until past 7am when i see them do a shift switch and even after that you need to be asking them what their breakfast contains off because coffee is late &amp; they don't have half of the things out. I felt sorry for the young lady that came in at that time you always see her running back and forth i think she's the only person i saw putting out breakfast and taking care of all of us guest. Im leaving out the rooms service horrible you would think the rooms are nice because of their pictures, NOT TRUE! Coffee pot was filthy seems as if they don't get cleaned they give you one towel knowing theirs 2 people in the room sometimes they picked up my trash and sometimes...I stayed in this hotel 4 nights my check-in was very interesting. I had never seen a hotel have behind their desk a person with no customer service, this person had no idea what she was doing wasn't able to greet me properly, as a matter a fact she treated me as if i was a "friend" her tone was so bulgar and with no manner. It's such a shame on this nice hotel to loose customers thanks to the people representing it. Not only my check-in was bad but they claim to have breakfast every morning from 6:30-10am which is a LIE! The doors to their breakfast never open until past 7am when i see them do a shift switch and even after that you need to be asking them what their breakfast contains off because coffee is late &amp; they don't have half of the things out. I felt sorry for the young lady that came in at that time you always see her running back and forth i think she's the only person i saw putting out breakfast and taking care of all of us guest. Im leaving out the rooms service horrible you would think the rooms are nice because of their pictures, NOT TRUE! Coffee pot was filthy seems as if they don't get cleaned they give you one towel knowing theirs 2 people in the room sometimes they picked up my trash and sometimes they didn't,  But regardless i think i got my point threw i do not recommend you waste your money on this crapy service motel i have all negative comments and feed back on my experience and as i said the only person kind enough is the young lady in the A.M i hope soon she finds a better position for her standards.MoreShow less</t>
+  </si>
+  <si>
+    <t>ramadainncc, Manager at Ramada by Wyndham Culver City, responded to this reviewResponded November 18, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2011</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel 4 nights my check-in was very interesting. I had never seen a hotel have behind their desk a person with no customer service, this person had no idea what she was doing wasn't able to greet me properly, as a matter a fact she treated me as if i was a "friend" her tone was so bulgar and with no manner. It's such a shame on this nice hotel to loose customers thanks to the people representing it. Not only my check-in was bad but they claim to have breakfast every morning from 6:30-10am which is a LIE! The doors to their breakfast never open until past 7am when i see them do a shift switch and even after that you need to be asking them what their breakfast contains off because coffee is late &amp; they don't have half of the things out. I felt sorry for the young lady that came in at that time you always see her running back and forth i think she's the only person i saw putting out breakfast and taking care of all of us guest. Im leaving out the rooms service horrible you would think the rooms are nice because of their pictures, NOT TRUE! Coffee pot was filthy seems as if they don't get cleaned they give you one towel knowing theirs 2 people in the room sometimes they picked up my trash and sometimes...I stayed in this hotel 4 nights my check-in was very interesting. I had never seen a hotel have behind their desk a person with no customer service, this person had no idea what she was doing wasn't able to greet me properly, as a matter a fact she treated me as if i was a "friend" her tone was so bulgar and with no manner. It's such a shame on this nice hotel to loose customers thanks to the people representing it. Not only my check-in was bad but they claim to have breakfast every morning from 6:30-10am which is a LIE! The doors to their breakfast never open until past 7am when i see them do a shift switch and even after that you need to be asking them what their breakfast contains off because coffee is late &amp; they don't have half of the things out. I felt sorry for the young lady that came in at that time you always see her running back and forth i think she's the only person i saw putting out breakfast and taking care of all of us guest. Im leaving out the rooms service horrible you would think the rooms are nice because of their pictures, NOT TRUE! Coffee pot was filthy seems as if they don't get cleaned they give you one towel knowing theirs 2 people in the room sometimes they picked up my trash and sometimes they didn't,  But regardless i think i got my point threw i do not recommend you waste your money on this crapy service motel i have all negative comments and feed back on my experience and as i said the only person kind enough is the young lady in the A.M i hope soon she finds a better position for her standards.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r118973341-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>118973341</t>
+  </si>
+  <si>
+    <t>10/05/2011</t>
+  </si>
+  <si>
+    <t>Very comfortable and convenient location.</t>
+  </si>
+  <si>
+    <t>Simply love this place. You can really see the changes this place is doing i have to return next month and I've definitely made this the hotel i want to come to they have a great discounted rate which is perfect for me thank you Ramada for your hospitality :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r118591381-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>118591381</t>
+  </si>
+  <si>
+    <t>09/25/2011</t>
+  </si>
+  <si>
+    <t>Very Happy with our stay.</t>
+  </si>
+  <si>
+    <t>I was there for few days for work. I really enjoyed staying there. People are very friendly and its very convinient to get in and out of free way. I was working in Century city, and it was really convinient for me to get to work. Place is very nice, clean and they had very fast internet then other hotels I've stayed before. I would defiantely recommend to my friends here in San Fransisco.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r114622270-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>114622270</t>
+  </si>
+  <si>
+    <t>06/21/2011</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed for 4 nights in late May 2011.  The room was clean and comfortable (the bed was especially firm, and the pillows fluffy).  It's like a basic, no-frills business-type hotel - no pool, and a very tiny gym.  The staff was young, but efficient.  The breakfast was a good continental-style breakfast.  The location was good - close to the freeway, and close to Venice beach. I'd stay again.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r112906399-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>112906399</t>
+  </si>
+  <si>
+    <t>06/12/2011</t>
+  </si>
+  <si>
+    <t>We loved it and we'll be back !</t>
+  </si>
+  <si>
+    <t>We came for our sons graduation, and this place was very close to where we needed to be. Staffs were very friendly and helpful. They had internet and parking was also very convinient. Places like this get un-noticed and people dont know about it, the rooms were nice and housekeepers were very helpful as well. 3 days of trip to Los Angeles , was very plesant.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r112108059-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>112108059</t>
+  </si>
+  <si>
+    <t>06/07/2011</t>
+  </si>
+  <si>
+    <t>back to this wonderful hotel</t>
+  </si>
+  <si>
+    <t>Defenetly returned from my last stay... i just wanted to comment and keep you guys posted with the status of this hotel... from last time i stayed they have upgraded the rooms they look amazing from picture frames to bedding and even the tv's they have FLAT  HD TV'S =) i came on business this time but i won't denied that i sure enjoyed watching a basketball game in those tv's i felt so relaxed.Front desk always so nice to me always accomodating me in every need. Defenetly my place to stay from now and on.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r110374910-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>110374910</t>
+  </si>
+  <si>
+    <t>05/29/2011</t>
+  </si>
+  <si>
+    <t>More then what we expected !</t>
+  </si>
+  <si>
+    <t>Me and my wife stayed at this hotel on our trip to LA, this place was clean, ppl were very nice and it was located very conviniently next to the 405 freeway. I will definately recommend this place to everybody here in San Fransisco.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r97561460-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>97561460</t>
+  </si>
+  <si>
+    <t>02/22/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel for good price</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 4 nights, we really rated this hotel we got a good deal on the hotel ( cant remember exact price ) for our stay, rooms were very clean and large comfortable beds - we really just used this hotel for a base as we were out and about so much, hotel is in a great location for seeing all the sites and had free parking outside which was great.We plan to come back to LA next year and will be staying here again if we can get a good rate again for location and cleanliness It was great - rooms were quite plainly decorated but that was fine for us and for what we needed for this stay.  All in all would really recommend this hotel for anyone looking for a clean hotel as a base for all the sight seeing you will be doing.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for 4 nights, we really rated this hotel we got a good deal on the hotel ( cant remember exact price ) for our stay, rooms were very clean and large comfortable beds - we really just used this hotel for a base as we were out and about so much, hotel is in a great location for seeing all the sites and had free parking outside which was great.We plan to come back to LA next year and will be staying here again if we can get a good rate again for location and cleanliness It was great - rooms were quite plainly decorated but that was fine for us and for what we needed for this stay.  All in all would really recommend this hotel for anyone looking for a clean hotel as a base for all the sight seeing you will be doing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r95416084-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>95416084</t>
+  </si>
+  <si>
+    <t>02/03/2011</t>
+  </si>
+  <si>
+    <t>Hotel was nice enough, but staff has bad attitude problem</t>
+  </si>
+  <si>
+    <t>I recently stayed at the hotel (which was really a motel because the rooms are only accessible from outside).  The downside of this "motel" is that if anyone is outside late at night you can hear it all, and it's very disturbing.  One night i couldnt sleep because of that, plus noise from another room.  It only happened one time though.  
+It was a good price, there was some kind of discount for reserving online so the room came to about $122/night (total with tax).  The room itself was clean, but the beds were smaller than what you would usually find in a hotel and the room itself was very small.  The bathroom was fine, but there was what seemed to be mold on the bottom of the shower curtain.
+I had a similar experience to a previous reviewer who mentioned the lack of towels.  We were also not given ice or garbage bags.  When we first got to the room the fridge still had food from the previous visitor, but otherwise the room was ok.  There were 4 people staying in my room, so I had to go to the desk every day and ask for more towels and toilet paper (since we were only given enough of those items for one person).  Rather than being met with a smile, the staff was very rude and pretty much told me I was not entitled to the items I was...I recently stayed at the hotel (which was really a motel because the rooms are only accessible from outside).  The downside of this "motel" is that if anyone is outside late at night you can hear it all, and it's very disturbing.  One night i couldnt sleep because of that, plus noise from another room.  It only happened one time though.  It was a good price, there was some kind of discount for reserving online so the room came to about $122/night (total with tax).  The room itself was clean, but the beds were smaller than what you would usually find in a hotel and the room itself was very small.  The bathroom was fine, but there was what seemed to be mold on the bottom of the shower curtain.I had a similar experience to a previous reviewer who mentioned the lack of towels.  We were also not given ice or garbage bags.  When we first got to the room the fridge still had food from the previous visitor, but otherwise the room was ok.  There were 4 people staying in my room, so I had to go to the desk every day and ask for more towels and toilet paper (since we were only given enough of those items for one person).  Rather than being met with a smile, the staff was very rude and pretty much told me I was not entitled to the items I was asking for.  I reminded the staff member that my room had 4 adults, and was then angrily given the items.  This happened every night, and each time I was met with the same arrogant and rude attitude - even after a day when housekeeping didn't even come to my room and none of these items were replenished.Lastly their continental breakfast was a joke.  There was tea and coffee, a few slices of bread, a muffin or two, and maybe some ego waffles - but there was hardly anything there.  Some days they would put an apple out, others no fruit at all.Bottom line - if you stick to 2 ppl per room and don't need to ask the hotel staff for anything, it's worth it.  It's also good that they offer free parking, which is not the case for many hotels in nearby areas.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>I recently stayed at the hotel (which was really a motel because the rooms are only accessible from outside).  The downside of this "motel" is that if anyone is outside late at night you can hear it all, and it's very disturbing.  One night i couldnt sleep because of that, plus noise from another room.  It only happened one time though.  
+It was a good price, there was some kind of discount for reserving online so the room came to about $122/night (total with tax).  The room itself was clean, but the beds were smaller than what you would usually find in a hotel and the room itself was very small.  The bathroom was fine, but there was what seemed to be mold on the bottom of the shower curtain.
+I had a similar experience to a previous reviewer who mentioned the lack of towels.  We were also not given ice or garbage bags.  When we first got to the room the fridge still had food from the previous visitor, but otherwise the room was ok.  There were 4 people staying in my room, so I had to go to the desk every day and ask for more towels and toilet paper (since we were only given enough of those items for one person).  Rather than being met with a smile, the staff was very rude and pretty much told me I was not entitled to the items I was...I recently stayed at the hotel (which was really a motel because the rooms are only accessible from outside).  The downside of this "motel" is that if anyone is outside late at night you can hear it all, and it's very disturbing.  One night i couldnt sleep because of that, plus noise from another room.  It only happened one time though.  It was a good price, there was some kind of discount for reserving online so the room came to about $122/night (total with tax).  The room itself was clean, but the beds were smaller than what you would usually find in a hotel and the room itself was very small.  The bathroom was fine, but there was what seemed to be mold on the bottom of the shower curtain.I had a similar experience to a previous reviewer who mentioned the lack of towels.  We were also not given ice or garbage bags.  When we first got to the room the fridge still had food from the previous visitor, but otherwise the room was ok.  There were 4 people staying in my room, so I had to go to the desk every day and ask for more towels and toilet paper (since we were only given enough of those items for one person).  Rather than being met with a smile, the staff was very rude and pretty much told me I was not entitled to the items I was asking for.  I reminded the staff member that my room had 4 adults, and was then angrily given the items.  This happened every night, and each time I was met with the same arrogant and rude attitude - even after a day when housekeeping didn't even come to my room and none of these items were replenished.Lastly their continental breakfast was a joke.  There was tea and coffee, a few slices of bread, a muffin or two, and maybe some ego waffles - but there was hardly anything there.  Some days they would put an apple out, others no fruit at all.Bottom line - if you stick to 2 ppl per room and don't need to ask the hotel staff for anything, it's worth it.  It's also good that they offer free parking, which is not the case for many hotels in nearby areas.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r81832149-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>81832149</t>
+  </si>
+  <si>
+    <t>10/02/2010</t>
+  </si>
+  <si>
+    <t>Ask Questions about rooms located at the far end of hotel!</t>
+  </si>
+  <si>
+    <t>I came here to  celebrate my birthday with my soul-mate, we were both in need for some relaxation, and looked forward to the spa-suite.  We were very disappointed at the fact that we could not get internet access, and the continuous running water and jacquzzi that was directly above us.  The sheets were balling up with fuzz and unfortunately this caused a allergy reactions to my eyes.  For the price of this suite we must say we are very,very unhappy.  Additionally,  the ceiling was esthetically all wrong, the workers did not complete their job.  No paint, just repair plaster.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r74649322-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>74649322</t>
+  </si>
+  <si>
+    <t>08/10/2010</t>
+  </si>
+  <si>
+    <t>The service is superb!</t>
+  </si>
+  <si>
+    <t>My husband had surgery at UCLA and we stayed two nights, pre and post surgery at the Ramada, Culver City, CA. Booking.com gave us a great rate and the staff at the hotel could not have been nicer. They provided instantly all the little extras we needed and were very gracious. The room was clean and attractive; the bed was very comfortable, even the pillows were labeled for ease of choice. I will definitely choose to stay at this hotel again.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r72940623-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>72940623</t>
+  </si>
+  <si>
+    <t>07/29/2010</t>
+  </si>
+  <si>
+    <t>Pleased with our stay</t>
+  </si>
+  <si>
+    <t>We stayed here with our 2 yo daughter for 2 nights.  Rooms were clean, included micro and fridge, and had a great TV cable selection.  Front desk staff very friendly.  The breakfast was good, dining area was bit cramped, and selections would dwindle, but it was acceptable.  I like how it was VERY conveniently located off the 405 freeway, so you can get anywhere (as long as you can stand LA traffic).  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r69949937-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>69949937</t>
+  </si>
+  <si>
+    <t>07/06/2010</t>
+  </si>
+  <si>
+    <t>Could not ask more!</t>
+  </si>
+  <si>
+    <t>Excellent place to stay if you are traveling with family. We had decent time staying there. Definitely will plan future stays for forth coming trips. A+ service. Would recommend to anyone who is looking for comfortable place to stay in decent price.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>ramadainncc, Manager at Ramada by Wyndham Culver City, responded to this reviewResponded July 26, 2010</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2010</t>
+  </si>
+  <si>
+    <t>Excellent place to stay if you are traveling with family. We had decent time staying there. Definitely will plan future stays for forth coming trips. A+ service. Would recommend to anyone who is looking for comfortable place to stay in decent price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r60491550-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>60491550</t>
+  </si>
+  <si>
+    <t>04/05/2010</t>
+  </si>
+  <si>
+    <t>Horrific, liars and cheats...felt like I stayed in a brothel</t>
+  </si>
+  <si>
+    <t>I am going to make this as short as possible, as I could write  2000 word essay on how bad this place was.  We booked a non-smoking room, however we got placed in a smoking room.  The room was dirty and the smell was horrific.  I wanted to change rooms.  After arguing with the indian gentleman at the front desk back and forth for approximately two hours, he finally moved us, ONLY because the air conditioner stopped working NOT because they screwed up.  He was SO SO rude and deserves to be fired!!   He blamed me for THEIR MESS UP!  He kept on telling me they had sold out of rooms so they could not move us, or I WOULD HAVE TO PAY FOR AN UPGRADE...eventually he gave me another room WHICH PROVES HE WAS LYING TO ME ABOUT BEING SOLD OUT!!  The room we got moved to was not much better as the people staying next door were smoking weed and the stench was horrible.  The area is really really average, and I would not feel safe walking around at night.  Worst of all my boyfriend and I were sure this place was a stop in and out used for prostitution.  We cannot be sure of course, however  people (particularly of the female kind dressed quite provocatively) were coming at all hours of the night, and well there were some pretty horrible noises coming from our neighboring rooms.  This...I am going to make this as short as possible, as I could write  2000 word essay on how bad this place was.  We booked a non-smoking room, however we got placed in a smoking room.  The room was dirty and the smell was horrific.  I wanted to change rooms.  After arguing with the indian gentleman at the front desk back and forth for approximately two hours, he finally moved us, ONLY because the air conditioner stopped working NOT because they screwed up.  He was SO SO rude and deserves to be fired!!   He blamed me for THEIR MESS UP!  He kept on telling me they had sold out of rooms so they could not move us, or I WOULD HAVE TO PAY FOR AN UPGRADE...eventually he gave me another room WHICH PROVES HE WAS LYING TO ME ABOUT BEING SOLD OUT!!  The room we got moved to was not much better as the people staying next door were smoking weed and the stench was horrible.  The area is really really average, and I would not feel safe walking around at night.  Worst of all my boyfriend and I were sure this place was a stop in and out used for prostitution.  We cannot be sure of course, however  people (particularly of the female kind dressed quite provocatively) were coming at all hours of the night, and well there were some pretty horrible noises coming from our neighboring rooms.  This was our last night after a three week trip and thank god we only stayed one night, this hotel was a nightmare!!! Read the previous reviews and observe the pattern of the same complaints!!! BE WARNED!! p.s breakfast was average too!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>ramadainncc, Manager at Ramada by Wyndham Culver City, responded to this reviewResponded July 21, 2010</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2010</t>
+  </si>
+  <si>
+    <t>I am going to make this as short as possible, as I could write  2000 word essay on how bad this place was.  We booked a non-smoking room, however we got placed in a smoking room.  The room was dirty and the smell was horrific.  I wanted to change rooms.  After arguing with the indian gentleman at the front desk back and forth for approximately two hours, he finally moved us, ONLY because the air conditioner stopped working NOT because they screwed up.  He was SO SO rude and deserves to be fired!!   He blamed me for THEIR MESS UP!  He kept on telling me they had sold out of rooms so they could not move us, or I WOULD HAVE TO PAY FOR AN UPGRADE...eventually he gave me another room WHICH PROVES HE WAS LYING TO ME ABOUT BEING SOLD OUT!!  The room we got moved to was not much better as the people staying next door were smoking weed and the stench was horrible.  The area is really really average, and I would not feel safe walking around at night.  Worst of all my boyfriend and I were sure this place was a stop in and out used for prostitution.  We cannot be sure of course, however  people (particularly of the female kind dressed quite provocatively) were coming at all hours of the night, and well there were some pretty horrible noises coming from our neighboring rooms.  This...I am going to make this as short as possible, as I could write  2000 word essay on how bad this place was.  We booked a non-smoking room, however we got placed in a smoking room.  The room was dirty and the smell was horrific.  I wanted to change rooms.  After arguing with the indian gentleman at the front desk back and forth for approximately two hours, he finally moved us, ONLY because the air conditioner stopped working NOT because they screwed up.  He was SO SO rude and deserves to be fired!!   He blamed me for THEIR MESS UP!  He kept on telling me they had sold out of rooms so they could not move us, or I WOULD HAVE TO PAY FOR AN UPGRADE...eventually he gave me another room WHICH PROVES HE WAS LYING TO ME ABOUT BEING SOLD OUT!!  The room we got moved to was not much better as the people staying next door were smoking weed and the stench was horrible.  The area is really really average, and I would not feel safe walking around at night.  Worst of all my boyfriend and I were sure this place was a stop in and out used for prostitution.  We cannot be sure of course, however  people (particularly of the female kind dressed quite provocatively) were coming at all hours of the night, and well there were some pretty horrible noises coming from our neighboring rooms.  This was our last night after a three week trip and thank god we only stayed one night, this hotel was a nightmare!!! Read the previous reviews and observe the pattern of the same complaints!!! BE WARNED!! p.s breakfast was average too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r52214316-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>52214316</t>
+  </si>
+  <si>
+    <t>12/30/2009</t>
+  </si>
+  <si>
+    <t>Worth every penny, Quite a place for price...</t>
+  </si>
+  <si>
+    <t>I'd to come to Wheel of Fortune in Sony Studio. So I traveled with my family for three days. We picked this hotel since it was very close to Sony Studio. We had a great deal for staying three nights. We had booked one bed but the manager gave us two beds for same price. For the daily rate of about $75, we couldnt ask more. The room was very nice. Cleaning ladies were very friendly and all the staffs were very helpful. We couldnt some how connect to internet, and the employee there helped us out with our computer. Their breakfast was also decent for the price we paid. They had pan cakes, waffles and bageles and much more. They were very close to the Culver City Downtwon. We went to the dinner at UGO Italian place [ 5 mins drive from there]. For the price it was very convinient for us to wash some cloths. They had laundry facility in house. It was very convienient for us. So everytime I come to Culver city from Henderson, we are going to stay at this place. Great place for great price. Thanks all you guys there.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>I'd to come to Wheel of Fortune in Sony Studio. So I traveled with my family for three days. We picked this hotel since it was very close to Sony Studio. We had a great deal for staying three nights. We had booked one bed but the manager gave us two beds for same price. For the daily rate of about $75, we couldnt ask more. The room was very nice. Cleaning ladies were very friendly and all the staffs were very helpful. We couldnt some how connect to internet, and the employee there helped us out with our computer. Their breakfast was also decent for the price we paid. They had pan cakes, waffles and bageles and much more. They were very close to the Culver City Downtwon. We went to the dinner at UGO Italian place [ 5 mins drive from there]. For the price it was very convinient for us to wash some cloths. They had laundry facility in house. It was very convienient for us. So everytime I come to Culver city from Henderson, we are going to stay at this place. Great place for great price. Thanks all you guys there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r42196640-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>42196640</t>
+  </si>
+  <si>
+    <t>09/16/2009</t>
+  </si>
+  <si>
+    <t>Beware of bait and switch</t>
+  </si>
+  <si>
+    <t>I booked a non-smoking room with two beds for my teenage son and me for Aug14-17. I had read reviews on TripAdvisor for the LA area and valiantly tried to get the most workable accommodations--safe neighborhood, clean hotel, good parking, convenient to highways, not too far from USC, not too expensive. This looked like the best deal. I booked through the Ramada site in an attempt to avoid potential problems with third parties. 
+It was all in vain because this hotel seems to regularly OVERBOOK and then force customers into less desirable rooms. (Read the next review for another case of overbooking.)  I arrived at 4:30 in the afternoon, and already they did not have a room for me. I declined the smoking room with two beds and the king room with a rollaway since my son wanted a comfortable mattress, and so did I.  So they walked me a motel further down the street owned by the same motel owner. 
+For my inconvenience, they gave me $10 off the room rate, but the new motel was overpriced at that rate - $90 a night. The other hotel was clean and staff was helpful and pleasant. However the decor was very dated with 1) peeling wallpaper in the bathroom 2) somewhat lumpy mattress with prominent seam around the edge 3) no temperature control in the bath, but luckily the one temperature was warm enough without being scalding 4) constant drip...I booked a non-smoking room with two beds for my teenage son and me for Aug14-17. I had read reviews on TripAdvisor for the LA area and valiantly tried to get the most workable accommodations--safe neighborhood, clean hotel, good parking, convenient to highways, not too far from USC, not too expensive. This looked like the best deal. I booked through the Ramada site in an attempt to avoid potential problems with third parties. It was all in vain because this hotel seems to regularly OVERBOOK and then force customers into less desirable rooms. (Read the next review for another case of overbooking.)  I arrived at 4:30 in the afternoon, and already they did not have a room for me. I declined the smoking room with two beds and the king room with a rollaway since my son wanted a comfortable mattress, and so did I.  So they walked me a motel further down the street owned by the same motel owner. For my inconvenience, they gave me $10 off the room rate, but the new motel was overpriced at that rate - $90 a night. The other hotel was clean and staff was helpful and pleasant. However the decor was very dated with 1) peeling wallpaper in the bathroom 2) somewhat lumpy mattress with prominent seam around the edge 3) no temperature control in the bath, but luckily the one temperature was warm enough without being scalding 4) constant drip in tub 5) rough towels 6) low flow toilet that clogged twice. On the good side, the hotel had breakfast, internet, and computer in the lobby. My son was very tired from our travel, so I didn't complain about the rate the first night, but I did at 9 am the next morning. I wanted a rate that was more in line with the quality of the motel they had walked me to. As soon as the Ramada staff realized that they couldn't make money off of me with their bait-and-switch ploy, they stopped any semblance of politeness. I had to argue with them and provide a receipt to get my money back for the last two days of my stay. I did contact the Ramada corporate site for help with this issue (overbooking policy, etc) and they have been both helpful and polite. However, this particular hotel is not one I would recommend to anyone who wants to have a reservation honored. If you ignore this advice, and get walked, the Sunburst is OK, but don't down any further down the street. The hotels even further down the street have bullet-proof glass in the lobbies-- never a comforting sign.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>ramadainncc, Manager at Ramada by Wyndham Culver City, responded to this reviewResponded September 19, 2009</t>
+  </si>
+  <si>
+    <t>Responded September 19, 2009</t>
+  </si>
+  <si>
+    <t>I booked a non-smoking room with two beds for my teenage son and me for Aug14-17. I had read reviews on TripAdvisor for the LA area and valiantly tried to get the most workable accommodations--safe neighborhood, clean hotel, good parking, convenient to highways, not too far from USC, not too expensive. This looked like the best deal. I booked through the Ramada site in an attempt to avoid potential problems with third parties. 
+It was all in vain because this hotel seems to regularly OVERBOOK and then force customers into less desirable rooms. (Read the next review for another case of overbooking.)  I arrived at 4:30 in the afternoon, and already they did not have a room for me. I declined the smoking room with two beds and the king room with a rollaway since my son wanted a comfortable mattress, and so did I.  So they walked me a motel further down the street owned by the same motel owner. 
+For my inconvenience, they gave me $10 off the room rate, but the new motel was overpriced at that rate - $90 a night. The other hotel was clean and staff was helpful and pleasant. However the decor was very dated with 1) peeling wallpaper in the bathroom 2) somewhat lumpy mattress with prominent seam around the edge 3) no temperature control in the bath, but luckily the one temperature was warm enough without being scalding 4) constant drip...I booked a non-smoking room with two beds for my teenage son and me for Aug14-17. I had read reviews on TripAdvisor for the LA area and valiantly tried to get the most workable accommodations--safe neighborhood, clean hotel, good parking, convenient to highways, not too far from USC, not too expensive. This looked like the best deal. I booked through the Ramada site in an attempt to avoid potential problems with third parties. It was all in vain because this hotel seems to regularly OVERBOOK and then force customers into less desirable rooms. (Read the next review for another case of overbooking.)  I arrived at 4:30 in the afternoon, and already they did not have a room for me. I declined the smoking room with two beds and the king room with a rollaway since my son wanted a comfortable mattress, and so did I.  So they walked me a motel further down the street owned by the same motel owner. For my inconvenience, they gave me $10 off the room rate, but the new motel was overpriced at that rate - $90 a night. The other hotel was clean and staff was helpful and pleasant. However the decor was very dated with 1) peeling wallpaper in the bathroom 2) somewhat lumpy mattress with prominent seam around the edge 3) no temperature control in the bath, but luckily the one temperature was warm enough without being scalding 4) constant drip in tub 5) rough towels 6) low flow toilet that clogged twice. On the good side, the hotel had breakfast, internet, and computer in the lobby. My son was very tired from our travel, so I didn't complain about the rate the first night, but I did at 9 am the next morning. I wanted a rate that was more in line with the quality of the motel they had walked me to. As soon as the Ramada staff realized that they couldn't make money off of me with their bait-and-switch ploy, they stopped any semblance of politeness. I had to argue with them and provide a receipt to get my money back for the last two days of my stay. I did contact the Ramada corporate site for help with this issue (overbooking policy, etc) and they have been both helpful and polite. However, this particular hotel is not one I would recommend to anyone who wants to have a reservation honored. If you ignore this advice, and get walked, the Sunburst is OK, but don't down any further down the street. The hotels even further down the street have bullet-proof glass in the lobbies-- never a comforting sign.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r38278783-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>38278783</t>
+  </si>
+  <si>
+    <t>08/20/2009</t>
+  </si>
+  <si>
+    <t>Disappointment</t>
+  </si>
+  <si>
+    <t>I booked a non-smoking room with two queen beds online before arriving to the hotel. When I arrived however they gave me a smoking room. I went to complain and was told that they had no other rooms and couldn't do anything about it. I was the one that had to take the initiative to suggest giving me a room with just a kings size bed for my family of three. I was very unhappy and won't be coming to Ramada again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r30006609-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>30006609</t>
+  </si>
+  <si>
+    <t>05/14/2009</t>
+  </si>
+  <si>
+    <t>very helpful staff and the rooms where real clean nice</t>
+  </si>
+  <si>
+    <t>My friends and I decided to go on vacations to LA so we stayed at Ramada because it was close to one of our favorite restaurant. El Torito, you should check that place out really good. The rooms were really clean and confortable and the staff very helpful. I would recommend this hotel on your next vacation.</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r8706054-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>8706054</t>
+  </si>
+  <si>
+    <t>09/12/2007</t>
+  </si>
+  <si>
+    <t>Moved to Holiday Inn the next night!</t>
+  </si>
+  <si>
+    <t>I arrived at 8 PM and when I asked for help carrying my bags, was told that there was no one there to help. I lugged my three bags to the elevator to find that it was broken.The room was small and faced the parking lot which was busy way past 1 AM. The bathrooms are filthy and I got the room next to the "penthouse" which is where the family that manages lives--as a result, it's pretty loud with some TV blaring all night.Hated it so much, called Holiday Inn that night at 4 AM to book! Pay a few bucks more for a decent night's sleep!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>ramadainncc, Manager at Ramada by Wyndham Culver City, responded to this reviewResponded March 24, 2009</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2009</t>
+  </si>
+  <si>
+    <t>I arrived at 8 PM and when I asked for help carrying my bags, was told that there was no one there to help. I lugged my three bags to the elevator to find that it was broken.The room was small and faced the parking lot which was busy way past 1 AM. The bathrooms are filthy and I got the room next to the "penthouse" which is where the family that manages lives--as a result, it's pretty loud with some TV blaring all night.Hated it so much, called Holiday Inn that night at 4 AM to book! Pay a few bucks more for a decent night's sleep!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r5379561-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>5379561</t>
+  </si>
+  <si>
+    <t>06/23/2006</t>
+  </si>
+  <si>
+    <t>Decent and Quiet</t>
+  </si>
+  <si>
+    <t>I know the neighborhood as I have lived only a few miles away. It isn't a bad neighborhood at all.The beds are a bit on the lumpy side but not so bad that you can't have a decent nights sleep. Room is clean and includes a refrigerator. Pipes are kinda noisy but otherwise this is a very quiet 3-story motel considering the 405 freeway is across Sepulveda Blvd (buildings on the other side of the street protect it from most of the noise).Had some problems with reception on the tv. They could use more cable channels, too, but the channel line up was decent.Paco's Tacos is just down the block at Washington and Sepulveda. A 24 hour West Los Angeles institution which is very busy day and night. There is an Italian restaurant across the street, a liquor store also plus Carl's Jr. is less than a block away as well as many other small restaurants that are within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>I know the neighborhood as I have lived only a few miles away. It isn't a bad neighborhood at all.The beds are a bit on the lumpy side but not so bad that you can't have a decent nights sleep. Room is clean and includes a refrigerator. Pipes are kinda noisy but otherwise this is a very quiet 3-story motel considering the 405 freeway is across Sepulveda Blvd (buildings on the other side of the street protect it from most of the noise).Had some problems with reception on the tv. They could use more cable channels, too, but the channel line up was decent.Paco's Tacos is just down the block at Washington and Sepulveda. A 24 hour West Los Angeles institution which is very busy day and night. There is an Italian restaurant across the street, a liquor store also plus Carl's Jr. is less than a block away as well as many other small restaurants that are within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r5030724-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
+  </si>
+  <si>
+    <t>5030724</t>
+  </si>
+  <si>
+    <t>05/02/2006</t>
+  </si>
+  <si>
+    <t>A little scary!</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here one night before an early flight out of LAX. My daughter currently lives in the LA area and was concerned driving to this Ramada that it wasn't in a very good neighborhood. The place was full and there was all kinds of activity going on in the parking lot till way past 1 in the morning. ??? We were frankly scared! The hotel itself isn't bad, clean and well kept but the bed was the worst I had ever encountered in a motel, lumpy and coils sticking up. I would avoid this Ramada if you can. It's not really that reasonable either considering the safety factor. We made sure we had the Club on the steering wheel!MoreShow less</t>
+  </si>
+  <si>
+    <t>ramadainncc, Manager at Ramada by Wyndham Culver City, responded to this reviewResponded March 17, 2009</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2009</t>
+  </si>
+  <si>
+    <t>My daughter and I stayed here one night before an early flight out of LAX. My daughter currently lives in the LA area and was concerned driving to this Ramada that it wasn't in a very good neighborhood. The place was full and there was all kinds of activity going on in the parking lot till way past 1 in the morning. ??? We were frankly scared! The hotel itself isn't bad, clean and well kept but the bed was the worst I had ever encountered in a motel, lumpy and coils sticking up. I would avoid this Ramada if you can. It's not really that reasonable either considering the safety factor. We made sure we had the Club on the steering wheel!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2345,5728 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s"/>
+      <c r="L6" t="s"/>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>82</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O8" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>128</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>60</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" t="s">
+        <v>153</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>154</v>
+      </c>
+      <c r="O19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" t="s">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>162</v>
+      </c>
+      <c r="J21" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>115</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" t="s">
+        <v>170</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>171</v>
+      </c>
+      <c r="O22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" t="s">
+        <v>175</v>
+      </c>
+      <c r="L23" t="s">
+        <v>176</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>177</v>
+      </c>
+      <c r="O23" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>179</v>
+      </c>
+      <c r="J24" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" t="s">
+        <v>181</v>
+      </c>
+      <c r="L24" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>115</v>
+      </c>
+      <c r="O24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>115</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" t="s">
+        <v>191</v>
+      </c>
+      <c r="K26" t="s">
+        <v>192</v>
+      </c>
+      <c r="L26" t="s">
+        <v>193</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>194</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>197</v>
+      </c>
+      <c r="J27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" t="s">
+        <v>199</v>
+      </c>
+      <c r="L27" t="s">
+        <v>200</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>201</v>
+      </c>
+      <c r="O27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>210</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>211</v>
+      </c>
+      <c r="J29" t="s">
+        <v>212</v>
+      </c>
+      <c r="K29" t="s">
+        <v>213</v>
+      </c>
+      <c r="L29" t="s">
+        <v>214</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>215</v>
+      </c>
+      <c r="O29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" t="s">
+        <v>220</v>
+      </c>
+      <c r="L30" t="s">
+        <v>221</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>215</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>223</v>
+      </c>
+      <c r="J31" t="s">
+        <v>224</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s">
+        <v>225</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>226</v>
+      </c>
+      <c r="O31" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>229</v>
+      </c>
+      <c r="J32" t="s">
+        <v>230</v>
+      </c>
+      <c r="K32" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" t="s">
+        <v>232</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>233</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>234</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>235</v>
+      </c>
+      <c r="J33" t="s">
+        <v>236</v>
+      </c>
+      <c r="K33" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" t="s">
+        <v>238</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>239</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>242</v>
+      </c>
+      <c r="J34" t="s">
+        <v>243</v>
+      </c>
+      <c r="K34" t="s">
+        <v>244</v>
+      </c>
+      <c r="L34" t="s">
+        <v>245</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>233</v>
+      </c>
+      <c r="O34" t="s">
+        <v>89</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>246</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>247</v>
+      </c>
+      <c r="J35" t="s">
+        <v>248</v>
+      </c>
+      <c r="K35" t="s">
+        <v>249</v>
+      </c>
+      <c r="L35" t="s">
+        <v>250</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>251</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>252</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" t="s">
+        <v>255</v>
+      </c>
+      <c r="L36" t="s">
+        <v>256</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>251</v>
+      </c>
+      <c r="O36" t="s">
+        <v>82</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>258</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>259</v>
+      </c>
+      <c r="J37" t="s">
+        <v>260</v>
+      </c>
+      <c r="K37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" t="s">
+        <v>262</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>251</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>264</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" t="s">
+        <v>268</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>269</v>
+      </c>
+      <c r="O38" t="s">
+        <v>89</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>272</v>
+      </c>
+      <c r="J39" t="s">
+        <v>273</v>
+      </c>
+      <c r="K39" t="s">
+        <v>274</v>
+      </c>
+      <c r="L39" t="s">
+        <v>275</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O39" t="s">
+        <v>89</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>278</v>
+      </c>
+      <c r="J40" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>276</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>284</v>
+      </c>
+      <c r="J41" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>288</v>
+      </c>
+      <c r="O41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>290</v>
+      </c>
+      <c r="J42" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>294</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>295</v>
+      </c>
+      <c r="J43" t="s">
+        <v>296</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s"/>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>297</v>
+      </c>
+      <c r="O43" t="s">
+        <v>89</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>298</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>299</v>
+      </c>
+      <c r="J44" t="s">
+        <v>300</v>
+      </c>
+      <c r="K44" t="s">
+        <v>301</v>
+      </c>
+      <c r="L44" t="s">
+        <v>302</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>303</v>
+      </c>
+      <c r="O44" t="s">
+        <v>89</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>304</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>305</v>
+      </c>
+      <c r="J45" t="s">
+        <v>306</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s"/>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>307</v>
+      </c>
+      <c r="O45" t="s">
+        <v>89</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>308</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>309</v>
+      </c>
+      <c r="J46" t="s">
+        <v>310</v>
+      </c>
+      <c r="K46" t="s">
+        <v>311</v>
+      </c>
+      <c r="L46" t="s">
+        <v>312</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>313</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>314</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>315</v>
+      </c>
+      <c r="J47" t="s">
+        <v>316</v>
+      </c>
+      <c r="K47" t="s">
+        <v>317</v>
+      </c>
+      <c r="L47" t="s">
+        <v>318</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>320</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>321</v>
+      </c>
+      <c r="J48" t="s">
+        <v>322</v>
+      </c>
+      <c r="K48" t="s">
+        <v>323</v>
+      </c>
+      <c r="L48" t="s">
+        <v>324</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s">
+        <v>325</v>
+      </c>
+      <c r="O48" t="s">
+        <v>89</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>327</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>328</v>
+      </c>
+      <c r="J49" t="s">
+        <v>329</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s"/>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>325</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>330</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>331</v>
+      </c>
+      <c r="J50" t="s">
+        <v>332</v>
+      </c>
+      <c r="K50" t="s">
+        <v>333</v>
+      </c>
+      <c r="L50" t="s">
+        <v>334</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>335</v>
+      </c>
+      <c r="O50" t="s">
+        <v>89</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>336</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>337</v>
+      </c>
+      <c r="J51" t="s">
+        <v>338</v>
+      </c>
+      <c r="K51" t="s">
+        <v>339</v>
+      </c>
+      <c r="L51" t="s">
+        <v>340</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>341</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>343</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>344</v>
+      </c>
+      <c r="J52" t="s">
+        <v>345</v>
+      </c>
+      <c r="K52" t="s">
+        <v>346</v>
+      </c>
+      <c r="L52" t="s">
+        <v>347</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>348</v>
+      </c>
+      <c r="O52" t="s">
+        <v>89</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>350</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>351</v>
+      </c>
+      <c r="J53" t="s">
+        <v>352</v>
+      </c>
+      <c r="K53" t="s">
+        <v>353</v>
+      </c>
+      <c r="L53" t="s">
+        <v>354</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>348</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>356</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>357</v>
+      </c>
+      <c r="J54" t="s">
+        <v>358</v>
+      </c>
+      <c r="K54" t="s">
+        <v>359</v>
+      </c>
+      <c r="L54" t="s">
+        <v>360</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>348</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>362</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>363</v>
+      </c>
+      <c r="J55" t="s">
+        <v>364</v>
+      </c>
+      <c r="K55" t="s">
+        <v>365</v>
+      </c>
+      <c r="L55" t="s">
+        <v>366</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>367</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>369</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>370</v>
+      </c>
+      <c r="J56" t="s">
+        <v>371</v>
+      </c>
+      <c r="K56" t="s">
+        <v>372</v>
+      </c>
+      <c r="L56" t="s">
+        <v>373</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>374</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>375</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>376</v>
+      </c>
+      <c r="J57" t="s">
+        <v>377</v>
+      </c>
+      <c r="K57" t="s">
+        <v>378</v>
+      </c>
+      <c r="L57" t="s">
+        <v>379</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>374</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>380</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>381</v>
+      </c>
+      <c r="J58" t="s">
+        <v>382</v>
+      </c>
+      <c r="K58" t="s">
+        <v>383</v>
+      </c>
+      <c r="L58" t="s">
+        <v>384</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>374</v>
+      </c>
+      <c r="O58" t="s">
+        <v>60</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>386</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>387</v>
+      </c>
+      <c r="J59" t="s">
+        <v>388</v>
+      </c>
+      <c r="K59" t="s">
+        <v>389</v>
+      </c>
+      <c r="L59" t="s">
+        <v>390</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>391</v>
+      </c>
+      <c r="O59" t="s">
+        <v>82</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>392</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>393</v>
+      </c>
+      <c r="J60" t="s">
+        <v>394</v>
+      </c>
+      <c r="K60" t="s">
+        <v>395</v>
+      </c>
+      <c r="L60" t="s">
+        <v>396</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>397</v>
+      </c>
+      <c r="O60" t="s">
+        <v>96</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>398</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>399</v>
+      </c>
+      <c r="J61" t="s">
+        <v>400</v>
+      </c>
+      <c r="K61" t="s">
+        <v>401</v>
+      </c>
+      <c r="L61" t="s">
+        <v>402</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>397</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>404</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>405</v>
+      </c>
+      <c r="J62" t="s">
+        <v>406</v>
+      </c>
+      <c r="K62" t="s">
+        <v>407</v>
+      </c>
+      <c r="L62" t="s">
+        <v>408</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>409</v>
+      </c>
+      <c r="O62" t="s">
+        <v>60</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>410</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>411</v>
+      </c>
+      <c r="J63" t="s">
+        <v>412</v>
+      </c>
+      <c r="K63" t="s">
+        <v>413</v>
+      </c>
+      <c r="L63" t="s">
+        <v>414</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>415</v>
+      </c>
+      <c r="O63" t="s">
+        <v>60</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>416</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>417</v>
+      </c>
+      <c r="J64" t="s">
+        <v>418</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>419</v>
+      </c>
+      <c r="O64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>420</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>421</v>
+      </c>
+      <c r="J65" t="s">
+        <v>422</v>
+      </c>
+      <c r="K65" t="s">
+        <v>423</v>
+      </c>
+      <c r="L65" t="s">
+        <v>424</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>425</v>
+      </c>
+      <c r="X65" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>428</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>429</v>
+      </c>
+      <c r="J66" t="s">
+        <v>430</v>
+      </c>
+      <c r="K66" t="s">
+        <v>431</v>
+      </c>
+      <c r="L66" t="s">
+        <v>432</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>433</v>
+      </c>
+      <c r="O66" t="s">
+        <v>96</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>435</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>436</v>
+      </c>
+      <c r="J67" t="s">
+        <v>437</v>
+      </c>
+      <c r="K67" t="s">
+        <v>438</v>
+      </c>
+      <c r="L67" t="s">
+        <v>439</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>440</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>441</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>442</v>
+      </c>
+      <c r="J68" t="s">
+        <v>443</v>
+      </c>
+      <c r="K68" t="s">
+        <v>444</v>
+      </c>
+      <c r="L68" t="s">
+        <v>445</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>446</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>2</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>448</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>449</v>
+      </c>
+      <c r="J69" t="s">
+        <v>450</v>
+      </c>
+      <c r="K69" t="s">
+        <v>451</v>
+      </c>
+      <c r="L69" t="s">
+        <v>452</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>453</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>2</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>455</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>456</v>
+      </c>
+      <c r="J70" t="s">
+        <v>457</v>
+      </c>
+      <c r="K70" t="s">
+        <v>458</v>
+      </c>
+      <c r="L70" t="s">
+        <v>459</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>460</v>
+      </c>
+      <c r="O70" t="s">
+        <v>60</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>462</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>463</v>
+      </c>
+      <c r="J71" t="s">
+        <v>464</v>
+      </c>
+      <c r="K71" t="s">
+        <v>465</v>
+      </c>
+      <c r="L71" t="s">
+        <v>466</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>467</v>
+      </c>
+      <c r="X71" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>470</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>471</v>
+      </c>
+      <c r="J72" t="s">
+        <v>472</v>
+      </c>
+      <c r="K72" t="s">
+        <v>473</v>
+      </c>
+      <c r="L72" t="s">
+        <v>474</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>475</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>476</v>
+      </c>
+      <c r="J73" t="s">
+        <v>477</v>
+      </c>
+      <c r="K73" t="s">
+        <v>478</v>
+      </c>
+      <c r="L73" t="s">
+        <v>479</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>480</v>
+      </c>
+      <c r="O73" t="s">
+        <v>89</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>481</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>482</v>
+      </c>
+      <c r="J74" t="s">
+        <v>483</v>
+      </c>
+      <c r="K74" t="s">
+        <v>484</v>
+      </c>
+      <c r="L74" t="s">
+        <v>485</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>486</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>487</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>488</v>
+      </c>
+      <c r="J75" t="s">
+        <v>489</v>
+      </c>
+      <c r="K75" t="s">
+        <v>490</v>
+      </c>
+      <c r="L75" t="s">
+        <v>491</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>492</v>
+      </c>
+      <c r="O75" t="s">
+        <v>89</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>493</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>494</v>
+      </c>
+      <c r="J76" t="s">
+        <v>495</v>
+      </c>
+      <c r="K76" t="s">
+        <v>496</v>
+      </c>
+      <c r="L76" t="s">
+        <v>497</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>492</v>
+      </c>
+      <c r="O76" t="s">
+        <v>89</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>498</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>499</v>
+      </c>
+      <c r="J77" t="s">
+        <v>500</v>
+      </c>
+      <c r="K77" t="s">
+        <v>501</v>
+      </c>
+      <c r="L77" t="s">
+        <v>502</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>486</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>503</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>504</v>
+      </c>
+      <c r="J78" t="s">
+        <v>505</v>
+      </c>
+      <c r="K78" t="s">
+        <v>506</v>
+      </c>
+      <c r="L78" t="s">
+        <v>507</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>508</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>510</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>511</v>
+      </c>
+      <c r="J79" t="s">
+        <v>512</v>
+      </c>
+      <c r="K79" t="s">
+        <v>513</v>
+      </c>
+      <c r="L79" t="s">
+        <v>514</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>515</v>
+      </c>
+      <c r="O79" t="s">
+        <v>82</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>517</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>518</v>
+      </c>
+      <c r="J80" t="s">
+        <v>519</v>
+      </c>
+      <c r="K80" t="s">
+        <v>520</v>
+      </c>
+      <c r="L80" t="s">
+        <v>521</v>
+      </c>
+      <c r="M80" t="n">
+        <v>3</v>
+      </c>
+      <c r="N80" t="s">
+        <v>522</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>523</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>524</v>
+      </c>
+      <c r="J81" t="s">
+        <v>525</v>
+      </c>
+      <c r="K81" t="s">
+        <v>526</v>
+      </c>
+      <c r="L81" t="s">
+        <v>527</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>528</v>
+      </c>
+      <c r="O81" t="s">
+        <v>89</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>529</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>530</v>
+      </c>
+      <c r="J82" t="s">
+        <v>531</v>
+      </c>
+      <c r="K82" t="s">
+        <v>532</v>
+      </c>
+      <c r="L82" t="s">
+        <v>533</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>534</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>535</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>536</v>
+      </c>
+      <c r="J83" t="s">
+        <v>537</v>
+      </c>
+      <c r="K83" t="s">
+        <v>538</v>
+      </c>
+      <c r="L83" t="s">
+        <v>539</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>540</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>541</v>
+      </c>
+      <c r="X83" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>544</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>545</v>
+      </c>
+      <c r="J84" t="s">
+        <v>546</v>
+      </c>
+      <c r="K84" t="s">
+        <v>547</v>
+      </c>
+      <c r="L84" t="s">
+        <v>548</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>549</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>550</v>
+      </c>
+      <c r="X84" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>553</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>554</v>
+      </c>
+      <c r="J85" t="s">
+        <v>555</v>
+      </c>
+      <c r="K85" t="s">
+        <v>556</v>
+      </c>
+      <c r="L85" t="s">
+        <v>557</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>558</v>
+      </c>
+      <c r="O85" t="s">
+        <v>60</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>560</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>561</v>
+      </c>
+      <c r="J86" t="s">
+        <v>562</v>
+      </c>
+      <c r="K86" t="s">
+        <v>563</v>
+      </c>
+      <c r="L86" t="s">
+        <v>564</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>565</v>
+      </c>
+      <c r="O86" t="s">
+        <v>89</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>566</v>
+      </c>
+      <c r="X86" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>569</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>570</v>
+      </c>
+      <c r="J87" t="s">
+        <v>571</v>
+      </c>
+      <c r="K87" t="s">
+        <v>572</v>
+      </c>
+      <c r="L87" t="s">
+        <v>573</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>565</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>574</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>575</v>
+      </c>
+      <c r="J88" t="s">
+        <v>576</v>
+      </c>
+      <c r="K88" t="s">
+        <v>577</v>
+      </c>
+      <c r="L88" t="s">
+        <v>578</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>579</v>
+      </c>
+      <c r="O88" t="s">
+        <v>82</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>3</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>580</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>581</v>
+      </c>
+      <c r="J89" t="s">
+        <v>582</v>
+      </c>
+      <c r="K89" t="s">
+        <v>583</v>
+      </c>
+      <c r="L89" t="s">
+        <v>584</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>585</v>
+      </c>
+      <c r="O89" t="s">
+        <v>96</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>1</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>586</v>
+      </c>
+      <c r="X89" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>589</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>590</v>
+      </c>
+      <c r="J90" t="s">
+        <v>591</v>
+      </c>
+      <c r="K90" t="s">
+        <v>592</v>
+      </c>
+      <c r="L90" t="s">
+        <v>593</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>3</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>29356</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>595</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>596</v>
+      </c>
+      <c r="J91" t="s">
+        <v>597</v>
+      </c>
+      <c r="K91" t="s">
+        <v>598</v>
+      </c>
+      <c r="L91" t="s">
+        <v>599</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>600</v>
+      </c>
+      <c r="X91" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>602</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_612.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_612.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="692">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>missjazzyemily</t>
   </si>
   <si>
     <t>07/08/2018</t>
@@ -187,6 +190,9 @@
 There were some things that weren't cool. I.e there were a couple of weird stains on the outside of our bed linens BUT the inside of the sheets were clean so we didn't care too much! We were surprised it didn't have a mini fridge to keep our water bottles cold. Also, whenever our neighboring rooms would close their doors it shook our walls and jolted us awake! But we didn't hear any other noises like showers running, or street noise or even people talking. So that was nice! I'm pretty sure the elevator needs some inspecting or at least some...I really enjoyed my stay at the Ramada. So close to great food and even greater beaches. I chose the standard king room and I was very pleasantly surprised to see it came with a jacuzzi tub! The room was very clean and super spacious. The king bed was so comfy! Its always hard for my boyfriend and I to find a bed we both find comfortable because our different preferences on firmness but we both woke up well-rested and not hurting! Check in and out was super easy and fast. No hidden fees! The lobby was super cool and modern. The continental breakfast was LEGIT! Waffles, OJ, apple juice, danishes, cereal, oatmeal, fruit, bagels &amp; cream cheese, toast and jelly, and coffee! Save a bunch of money right there not having to go out to eat for breakfast. There were some things that weren't cool. I.e there were a couple of weird stains on the outside of our bed linens BUT the inside of the sheets were clean so we didn't care too much! We were surprised it didn't have a mini fridge to keep our water bottles cold. Also, whenever our neighboring rooms would close their doors it shook our walls and jolted us awake! But we didn't hear any other noises like showers running, or street noise or even people talking. So that was nice! I'm pretty sure the elevator needs some inspecting or at least some WD-40.Overall, would stay again!More</t>
   </si>
   <si>
+    <t>whitelace782018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r582741424-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -205,6 +211,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>CedarTravelGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r576531398-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -229,6 +238,9 @@
     <t>The reviews and pictures looked OK, but when we pulled up we had a different opinion.  There were 4 of us on a business trip and had prepaid the 4 rooms for our 3 night stay.  We decided to make the best of it, but asked that our rooms be close together.  The rooms were outdated and while surface clean, I would not walk in the room without slippers.More</t>
   </si>
   <si>
+    <t>HowieJaye</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r566527389-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -256,6 +268,9 @@
     <t>Where do I start...• Homeless Guy greeter at the lobby door.• Same Guy followed us in and stood beside my wife as I checked in.• Sink was clogged...had to brush our teeth in the shower.On the plus side...• We checked in very late• Nothing bit us as we sleptMore</t>
   </si>
   <si>
+    <t>659breannac</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r559303150-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -269,6 +284,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>tlyntp</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r558303791-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
@@ -297,6 +315,9 @@
 So, that having been said -- the room is very clean. It was an updated room with new bedding and furniture, new fixtures and bathroom and carpet. There was free wifi in the room that worked well. The kids enjoyed the flat screen with multiple working channels. They don't get to watch tv much - so this was a vacation for them!  The bathroom did not have a tub - which was disappointing - BUT the shower was huge and lovely with great water pressure so it made up for it. Had we been staying for more...I waivered between 3 stars and 4. Ultimately, I gave this hotel a 3 star rating because it can get pretty pricey depending on the day and time you stay (like any other hotel). Our room was in total, $147 for a queen double which seemed a little high even for a clean room in a busy part of Los Angeles. It's a competitive rate for the area in regular chain hotel I guess, but still a little high. No matter what the holiday or situation - paying more than that - is WAAY too much. We actually were put up here for work - if it were me paying out of my own pocket... I never would have paid that much for the hotel and if I had to out of emergency - I would have felt very put out about it!So, that having been said -- the room is very clean. It was an updated room with new bedding and furniture, new fixtures and bathroom and carpet. There was free wifi in the room that worked well. The kids enjoyed the flat screen with multiple working channels. They don't get to watch tv much - so this was a vacation for them!  The bathroom did not have a tub - which was disappointing - BUT the shower was huge and lovely with great water pressure so it made up for it. Had we been staying for more than one night - I would have preferred a bathtub (and would have been more disappointed that I didn't have a tub for the $150 bucks).We slept well - the beds were comfortable and it wasn't loud. We were right on the bottom floor against the parking lot - and we had no issues with noise. The hotel is right off the busy main road - and it's a congested part of Los Angeles - so there was no less than 3 sirens that went by throughout the night - but no big deal. The parking lot was safe - it's off the road and not open to people passing by. We had no issues with parking - lots of room too. Free parking. I didn't see any 'shady' looking people at the hotel or on the grounds. I felt safe given the area. It has come a long way. The staff was nice and helpful. There was a free continental breakfast upstairs in a renovated space - a breakfast room with tv. It was limited - but nothing I would complain about. When I reserve a room that has 'free breakfast' I don't expect more than continental. When it is more than expected - it is a great plus. This was not - but it did the job. Lots of cereal choices, muffins, danish, packaged/frozen pancakes that you heat up in the microwave (my kids did not like them), bagels, cream cheese, toast, oatmeal and coffee and juice. It was plenty but I know a lot of times people expect more and are disappointed with continental. If staying more than a day or two - this would get tiring as far a choice. **The coffee here was awful. In room coffee was better than what was being served at breakfast - but for the 4 cups of coffee being served in room - there was only one pack of cream and sugar. Plus, I prefer milk or creme. But overall - if you like your morning cup to be an experience - don't even attempt it here. Overall - it did the job for what we needed. As I said, it worked for our stay but I would not make a family vacation here. It's best for a couple or business trip though I didn't see a business center. To print I had to email the front desk. There is no place to walk to or just hang out. You really have to have a plan and a car to get somewhere good. The room was fine - but not worth a high price. The surrounding area has a lot going on - but I wouldn't walk around to sight see. You need a car. Just a couple blocks down the road is a really nice center that has a Starbucks and tons of new restaurants and that has its own free parking lot. It's .3 miles down the road but I come from the era of nobody walks in L.A. ---- I drove there for coffee because I wasn't going to make the walk with all the coffee - and it's too busy to walk with the kids. The hotel does not have a pool. It said there was a hot tub but we didn't even look for it - so I don't know to comment on it.  Stay if you have too - but if this is a family vacation - look elsewhere.More</t>
   </si>
   <si>
+    <t>Kim C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r552252822-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>jefferyt368</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r546425089-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -327,6 +351,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>K362VKsuel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r538319483-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Stephanie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r534448378-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t xml:space="preserve">Celebrating 2 year anniversary. Wasn't in the hotel often during the day. At night We popped some bubbly, played some music and sat in Jacuzzi for a while. The girl that checked us in didn't seem like she wanted to be there, she wasn't very nice but not rude either if that makes sense. Different girl checked us out and she was very sweet. Overall the room was ok for a last minute "affordable" trip, The bathroom was great. My only complaint is the blanket seemed to have cigarette burns and the bed felt "broken" couldn't sit down with out sinking in and hearing it creek.   </t>
   </si>
   <si>
+    <t>martinpE1638OS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r530012347-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -372,6 +405,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>MoniB513</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r526338054-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -393,6 +429,9 @@
     <t>I had a hard time trying to find a reasonable hotel for my short trip to Los Angeles.  I chose this hotel based on it's location and on that end, it did not disappoint.  It's about a 20 minute Uber ride to most areas (Hollywood, Santa Monica, Venice Beach).  The best part of this hotel was the bed.  It was the most comfortable bed I have ever slept on.  The continental breakfast was ok and comparable to most other continental breakfasts.  Now the disappointments.  They only had one vending machine and it was cash only.  They said there was an area to buy drinks and other toiletries but there were no drinks and a very small selection of toiletries.  There are no microwaves or mini-fridge's in the rooms (which is ok as it does not say they do on the website) and the ice machine never had any ice.  The wifi was very slow and the change the password daily.  My husband had to work one of the days we were there are we are from the east coast, it took us calling down to the front desk and going down there (where no one was to be found) to them finally calling us back and giving us the password.  Also, we were only given 1 wash cloth and two towels.  I called down and asked for more and was brought 1 more towel.  I asked again if they could...I had a hard time trying to find a reasonable hotel for my short trip to Los Angeles.  I chose this hotel based on it's location and on that end, it did not disappoint.  It's about a 20 minute Uber ride to most areas (Hollywood, Santa Monica, Venice Beach).  The best part of this hotel was the bed.  It was the most comfortable bed I have ever slept on.  The continental breakfast was ok and comparable to most other continental breakfasts.  Now the disappointments.  They only had one vending machine and it was cash only.  They said there was an area to buy drinks and other toiletries but there were no drinks and a very small selection of toiletries.  There are no microwaves or mini-fridge's in the rooms (which is ok as it does not say they do on the website) and the ice machine never had any ice.  The wifi was very slow and the change the password daily.  My husband had to work one of the days we were there are we are from the east coast, it took us calling down to the front desk and going down there (where no one was to be found) to them finally calling us back and giving us the password.  Also, we were only given 1 wash cloth and two towels.  I called down and asked for more and was brought 1 more towel.  I asked again if they could bring at least two more wash clothes when they cleaned the room, when we returned for the evening they brought two more towels.  I had to ask again the next day and they were promptly delivered.  Overall, it wasn't that bad just wish I would have known some of the above before staying. Also, I just went onto their website and it says they have a hot tub.  We were never told anything about this.More</t>
   </si>
   <si>
+    <t>Michelle Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r508252301-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -411,6 +450,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>j0anithaB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r503028335-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -426,6 +468,9 @@
     <t xml:space="preserve">I do not like outdoor entry hotels and I as not aware this was that type of property at booking. The hotel was however, clean, close enough to the city and there were several nice eateries nearby. </t>
   </si>
   <si>
+    <t>Annie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r500782750-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -441,6 +486,9 @@
     <t>Just about average of what one would expect in a motel: Humble furnishings. Loud and intermittent AC. No fridge or microwave. We were on the ground floor and when a loud and smoggy car rolled past, we could hear and smell it. Very basic continental breakfast 6:30-10am that happened to be out of coffee this morning. Okay for the price I guess!</t>
   </si>
   <si>
+    <t>meggymack92</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r495498326-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -462,6 +510,9 @@
     <t>This room was a good price compared to others in the area and was clean, but it was missing several basic amenities. The room did not have a refrigerator or even a hair dryer or ice bucket, and our bathroom door knob was broken. The "fitness center" advertised was small, and the "hot tubs" advertised were actually just jet tubs available in certain rooms. We didn't find any of this out until after we checked in. We were able to make do, but it seemed like management was intentionally deceptive, especially about the hot tubs directly advertised on the website. I would stay here again in a pinch, but it's very simple (and cheap) to provide little things like an ice bucket and a hair dryer. More</t>
   </si>
   <si>
+    <t>Dennis E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r495207415-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -471,6 +522,9 @@
     <t>06/22/2017</t>
   </si>
   <si>
+    <t>Benizziranch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r477436542-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -489,6 +543,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>409sylviay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r467633773-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -507,6 +564,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>karterl2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r464042701-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -522,6 +582,9 @@
     <t>First this is a low quality motel.  Do not book here thinking this is a nice hotel.  It's a hooker-tel.Second, they charged me an additional $22.29 in claimed additional taxes.  When I booked online it said my total with taxes and fees was what I would pay.  The hotel upcharges you and you have no choice but to pay.  I have been disputing this for months and Wyndham does not care.Third, the $50 statement credit they offer you once approved for their credit card never comes.All and all, I would never stay at a Wyndham property again.  Wyndham is a horrible company.  I travel a LOT.</t>
   </si>
   <si>
+    <t>Kenneth J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r461994755-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -540,6 +603,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Sasmita B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r451330423-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -558,6 +624,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>dmanders22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r442667391-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -573,6 +642,9 @@
     <t>I've stayed at this property several times for business because of the convenient location. Rooms are clean and have adequate amenities. The free breakfast is continental, but there are several nearby restaurants to choose from.  My only complaint, and the reason I chose another property for my monthly trip, is the lackluster front desk staff. No matter what size a property is, I want to be welcomed and met with 5 star customer service. That is a personal requirement, but the hotel will still get the job done if that's not your thing.</t>
   </si>
   <si>
+    <t>ALadyNCal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r435186791-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -591,6 +663,9 @@
     <t>Would say it was fine for a night or two.  Considering it was a Ramada, we thought it might be a little nicer but it's just an older motel property that's been updated.  Girls at check in barely even spoke to us -- one seemed to be in training and didn't speak at all.  Room was on third floor and was clean and updated, including a renovated shower and new furniture. Parking was free and we had no problem finding a spot returning after 11 pm. Bed was comfortable and we didn't hear any noise from traffic or neighbors. Next morning, we went down to breakfast room on second floor.  The room was very nice but the continental breakfast was very basic with coffee, just and assorted toast, bagel or cereal mostly.  For the price paid, I felt it was a poor value but it's also hard to find something reasonable in that area.  I ended up booking on the Wyndham site and got an AAA discount which was cheaper than the primary booking sites.  Our expectations were that a Ramada would be a bit nicer but it was acceptable for a night or two.  We'll try somewhere else next time.More</t>
   </si>
   <si>
+    <t>Mats N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r404737530-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -612,6 +687,9 @@
     <t>Just got registered in the Wyndham program and fhis was my first stay in this program and it wasnt the best experience. Front desk is just a table with staff thats not very helpul. My voucher said that a safe will excist but there was none , instead they had one small safe in the lobby cleaning closet that I could use, not very convienient. Stayed for three nights , two first mornings there wasnt any juice or water in the breakfast , so only coffee was available and I dont drink coffee so nothing to drink for me. The second morning also milk and cream wasnr available for those who drink coffee, how can a hotel be out of these things , the neighbourhood had many stores from which they could have bought the stuff..unbeliavable. The rooms were nice and clean even if the sink was in the living room. We could hear all the noices from the streets and outdoors because there was a gap under the door  were you could fit a book in, you could see daylight under the door.My key never worked after the maid had been there so always had to go to the lobby to fix it. In a week Im staying at a hotel of the same program and I hope that it is better than this , this wasnt a hotel , more a motel. And they says that there is...Just got registered in the Wyndham program and fhis was my first stay in this program and it wasnt the best experience. Front desk is just a table with staff thats not very helpul. My voucher said that a safe will excist but there was none , instead they had one small safe in the lobby cleaning closet that I could use, not very convienient. Stayed for three nights , two first mornings there wasnt any juice or water in the breakfast , so only coffee was available and I dont drink coffee so nothing to drink for me. The second morning also milk and cream wasnr available for those who drink coffee, how can a hotel be out of these things , the neighbourhood had many stores from which they could have bought the stuff..unbeliavable. The rooms were nice and clean even if the sink was in the living room. We could hear all the noices from the streets and outdoors because there was a gap under the door  were you could fit a book in, you could see daylight under the door.My key never worked after the maid had been there so always had to go to the lobby to fix it. In a week Im staying at a hotel of the same program and I hope that it is better than this , this wasnt a hotel , more a motel. And they says that there is plenty off things near this hotel but there is nothing except the I 405.More</t>
   </si>
   <si>
+    <t>Yuri D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r396025092-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -633,6 +711,9 @@
     <t>The hotel is very conveniently located by 405 and takes only 11 minutes to Santa Monica, most of the time. The hotels in Santa Monica are totally expensive, especially in summer, but you can find a reasonable pricing and a comfortable lodging in Culver City, and this Ramada has all one would need. The bed was comfortable, too. I was at the top floor towards the back, and it was quiet. No big restaurants around, but I found a small Thai place nearby, where I had a nice curry dish takeout. The only thing is, the breakfast was a bit too simple and it would be nice to have fruits or yogurt. The staff was nice, and I would stay, again, on my business trip.More</t>
   </si>
   <si>
+    <t>forewarn_forearm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r388878356-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -654,6 +735,9 @@
     <t>We booked into the Ramada because we find Culver City is a nice, central location to all the places we like to go in L.A., and our go-to hotel in the area had no vacancies. This hotel is right at the entrance to the 405, which is extremely convenient, but depending on where you're coming from you could be doing some interesting U-Turns to access it. When we walked in the door to reception, you could see this place has been updated. One of the front desk girls confirmed the hotel had been recently renovated. That should have bode well for our stay, but it just...missed the mark. Our first room had a spacious modern bathroom, a much-needed mini-fridge, and it was renovated with some really nice pot lights -- but there were no lamps in the room. The only option of overhead lighting lent to a bit of a hostel-like feel. We needed to switch rooms the next day, and we were assigned a room on the third floor. Again no lamps -- and this one didn't have a mini-fridge, which was disappointing. We did peek into the odd room or two that were open for cleaning, and couldn't help but notice the inconsistencies between other rooms as well. Still, the water pressure in the shower was really good for low-flow, it was pretty spotless, and the beds were extremely comfortable. We also appreciated the ample and clean parking...We booked into the Ramada because we find Culver City is a nice, central location to all the places we like to go in L.A., and our go-to hotel in the area had no vacancies. This hotel is right at the entrance to the 405, which is extremely convenient, but depending on where you're coming from you could be doing some interesting U-Turns to access it. When we walked in the door to reception, you could see this place has been updated. One of the front desk girls confirmed the hotel had been recently renovated. That should have bode well for our stay, but it just...missed the mark. Our first room had a spacious modern bathroom, a much-needed mini-fridge, and it was renovated with some really nice pot lights -- but there were no lamps in the room. The only option of overhead lighting lent to a bit of a hostel-like feel. We needed to switch rooms the next day, and we were assigned a room on the third floor. Again no lamps -- and this one didn't have a mini-fridge, which was disappointing. We did peek into the odd room or two that were open for cleaning, and couldn't help but notice the inconsistencies between other rooms as well. Still, the water pressure in the shower was really good for low-flow, it was pretty spotless, and the beds were extremely comfortable. We also appreciated the ample and clean parking and fast, free WiFi. As we walked to the breakfast room, we noticed the hotel has a small gym on the second floor. I can't really review the continental breakfast, because even through we got there half an hour before it closed, everything was gone. We are used to seeing staff bustling in the room, making sure the coffee is filled and the tables are clean, but this room had an overflowing garbage, dirty tables, and no coffee -- not even decaf. I did notice packages of instant oatmeal, some cereal, a basket which appeared to formerly hold some packaged baked goods, a container which appeared to be for bread for toasting, and there were pre-made pancakes sealed in twos in a chafing dish. So, a tip for others who consider staying at this hotel: hit breakfast early. We really did not care for being coerced into providing the front desk with phone number, which we found odd, and the explanation as to why it was required didn't square with reality for us. Never have I been asked by a hotel, motel, B&amp;B or hostel for a phone number, so that had my antennae up, knowing that kind of information is routinely compiled and sold. The front desk clerk, Magda, was not interested in a discussion about it, and would only repeat that it was for 'sometimes guests forget to check out and we need to call them', but really, hotels love when guests miss check-out time, because they can ding them for another day. I have never been in a hotel that wants to be a babysitter for its guests. Nope. Did not like that. It struck me as strange, and left a bad taste in my mouth. Overall, this hotel has a bit more work to do, but it hits the mark in all the most important ways: if you have a vehicle it's in a great location, it's clean, and the beds and pillows are comfy.More</t>
   </si>
   <si>
+    <t>BRW928</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r367852948-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -675,6 +759,9 @@
     <t>I stayed here because the rates had gone up significantly at the Ramada I'd stayed at (near Marina del Rey/Venice) on my last trip to the area.  It turned out to be a great alternative!Not only were the rates VERY reasonable (it might not have hurt that I did the "Pay now and save" option, a good six weeks before my stay), but, the overall experience was even better than I'd had at the other Ramada (referred to above).This location is VERY convenient to accessing the 405, plus, the room itself was quite impressive.  First of all was the size of the room (not to mention the great king size bed), but,it looked like a lot of upgrades had recently been done (i.e. the bathroom).  Don't miss the mini-fridge under the bedside table.  Plus there is a coffee maker (bring your own tea bags, though, if you drink such, because they don't provide those) and other nice amenities.  (Unfortunately, no microwave.)The free continental breakfast isn't too terrific, though.  There isn't a wide variety and it is absent any hot foods.Nonetheless, not only would I stay there again, but, a friend of mine who lives 15 minutes away (in Marina del Rey) came by and upon seeing the room said he'll definitely recommend it to any out-of-town visitors that him and his wife get.More</t>
   </si>
   <si>
+    <t>CCCDiva</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r363935265-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -690,6 +777,9 @@
     <t>I recently booked a block of rooms for a group at the Ramada Culver City. I wasn't sure what to expect based on previous reviews, but I was pleasantly surprised! It had been updated, the rooms were clean, and the staff could not have been more pleasant and accommodating. This hotel was conveniently located from the venue we were attending and just a short hop jaunt from the airport. It's hard not knowing where things are when you're traveling out of state, but our stay at this Ramada quickly put us at ease. Thank you!</t>
   </si>
   <si>
+    <t>unclep2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r354371205-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -708,6 +798,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>Jackie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r302175226-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -726,6 +819,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Joe T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r300256135-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -747,6 +843,9 @@
     <t>My wife an eye saw our daughter off at LAX late evening/early morning and had reservations to stay at the La Quinta there. While attempting unsuccessfully to secure a parking spot we decided at 12:30 AM to find another hotel near our oldest. We ended up at the Ramada in Culver City.  This motel is ok in a pinch, but like most in L.A. Is over priced.  We ended up with one of the very last rooms and while the bathroom was recently remodeled, it had neither a light over the vanity or a place to hang clothes in the roomWould I recommend this place?  Only in a pinch and then be sure to have your cc ready.More</t>
   </si>
   <si>
+    <t>AGR1981</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r299561131-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -762,6 +861,9 @@
     <t>Whilst being slightly sceptical before visiting this property (this is just because I normally stay at Marriott properties and I'm not particularly enthusiastic when it comes to changes), I was however positively surprised and enjoyed my stay. If you like walking, you can get down to Venice in about an hour and I will also add that the bed was really comfortable (I don't normally get good sleeps at hotels but I did on this occasion and I was even jet-lagged!). Breakfast okay - just all I needed after a morning run!</t>
   </si>
   <si>
+    <t>NYLivinLAdreamin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r292492236-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -778,6 +880,9 @@
   </si>
   <si>
     <t>July 2015</t>
+  </si>
+  <si>
+    <t>Kim P</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r291105524-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
@@ -804,6 +909,9 @@
 One unpleasant thing:  I needed to stay a few days longer than planned but the front desk raised the charge to $169/night going forward.  They wouldn’t budge on this and mentioned...Stayed in Room 322 from 7/5 thru 7/13 while apartment-searching and paid $139/nt ($122 plus $17 tax)—a bit pricey for budget travelers.  I’m a local who knows the area quite well.  What you’re really paying for is location.  Walk Score is 82 so most things you need are within easy (no hills) walking distance.  It’s on an extremely busy street directly across from the 405 Fwy on-ramp.  Very safe area.  A 10-minute drive down Sepulveda Blvd gets you to the airport.  It’s 4 miles from the beach and is a good alternative to more expensive hotels farther west.Skip if you’re finicky about décor.  The room was clean but showed signs of age—a missing tile here and there, worn carpet/flooring, outdated and mismatched wallpaper in the bathroom.  It had a king-sized bed and a brand new, luxurious spa tub with room for two.  For some, the spa tub alone is worth the price.  Extremely comfortable bedding made all my nights restful.  The sheets didn’t fit initially and kept popping off the mattress until I tipped the housekeeper to bring larger ones.  Super-friendly, accommodating staff.  Decent daily breakfast (on 2nd floor above reception), free parking and exercise room.  Wi-fi was free and reliable 80% of the time.  There’s no pool.One unpleasant thing:  I needed to stay a few days longer than planned but the front desk raised the charge to $169/night going forward.  They wouldn’t budge on this and mentioned that the Special Olympics were in town, i.e. others would pay more money for the room.  So they turned away a sure thing in hopes that a higher-paying customer would come along.  Seems counterintuitive but I guess that’s how business is done these days…More</t>
   </si>
   <si>
+    <t>Ruth B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r286310540-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -822,6 +930,9 @@
     <t>BREAKFAST: pretty standard breakfast included with the room. Empty bowl of fruit/apples (she dropped 3 into the bowl, after the fact, after her display of irritation). Plastic pack of toaster mini pancakes/toast/bagel. Children's box cereals or instant oatmeal, an uncalibrated overpowering, thick juice syrup disperser, empty coffee dispensers, empty milk carafe, (attendant was AWOL from room), I walked to the already opened door where the refrigerator room (how rude of me) was located and brought it to the counter, to pour it over a bowl of cereal. Like a bat out of hell, she walked through the breakfast room door, grabbed the milk out of my hands and returned it to the refrigerator, I never got the milk. She walked out all defiant, I looked at her and said "May I have some milk please, in my best Oliver."  I showed her the metal carafe was empty. She said. "we are closed!" This attitude is all available to you by a feisty South American breakfast attendant who would rip you to threads if she had a chance. Her domain, her passive aggressiveness witnessed by myself, and another family.  We were all considered late, 15 minutes before "SHE" was to lock the door. In front of us ALL, she removed as much as she could, had not refilled empties, for who knows how long prior. Her antics were supported by the motel management. So be it, we will not return this...BREAKFAST: pretty standard breakfast included with the room. Empty bowl of fruit/apples (she dropped 3 into the bowl, after the fact, after her display of irritation). Plastic pack of toaster mini pancakes/toast/bagel. Children's box cereals or instant oatmeal, an uncalibrated overpowering, thick juice syrup disperser, empty coffee dispensers, empty milk carafe, (attendant was AWOL from room), I walked to the already opened door where the refrigerator room (how rude of me) was located and brought it to the counter, to pour it over a bowl of cereal. Like a bat out of hell, she walked through the breakfast room door, grabbed the milk out of my hands and returned it to the refrigerator, I never got the milk. She walked out all defiant, I looked at her and said "May I have some milk please, in my best Oliver."  I showed her the metal carafe was empty. She said. "we are closed!" This attitude is all available to you by a feisty South American breakfast attendant who would rip you to threads if she had a chance. Her domain, her passive aggressiveness witnessed by myself, and another family.  We were all considered late, 15 minutes before "SHE" was to lock the door. In front of us ALL, she removed as much as she could, had not refilled empties, for who knows how long prior. Her antics were supported by the motel management. So be it, we will not return this business. Just as whipping milk produces butter, and twisting the nose causes bleeding, so also stirring up anger produces contention.CONS: The neighborhood is a mix of businesses catering to locals who like to walk and or short car trips to eclectic establishments. RATING: I only gave them a "poor" rating rather than "excellent" due to the so called, under construction excuse for no ironing board, no chairs besides the beds to sit on, no desk or tables to put your purse and other bags, no luggage rack, no closets or hanger racks, two beds identified as queens were in reality doubles.NO SWIMMING POOL: Los Angeles, summer...really?More</t>
   </si>
   <si>
+    <t>John A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r274850153-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -843,6 +954,9 @@
     <t>I chose the Ramada Culver City because it is within reasonable striking distance of UCLA, where I was attending an early morning meeting. Overall, this is a good option for business travelers going to nearby communities (Santa Monica, Westwood, Century City, Beverly Hills, etc), and would likely be acceptable for families looking for inexpensive, no frills accommodations. It was a relatively easy drive to Westwood for me at a fraction of the cost of actually staying close to the university. Abandon all hope if you’re returning on the 405 South in the afternoon. The room was clean with a nice TV and excellent air conditioning. I had a king bed that was very comfortable. My room was in the back of the hotel, away from busy Sepulveda Blvd. It was very quiet, I’d highly recommend asking for a room as far away from the street as possible. The free wifi was a huge plus, as was the continental breakfast. The hotel was undergoing renovations while I was there, so the tiny lobby has likely improved significantly since then.When exiting the hotel in the morning, I wouldn’t bother trying to make a right into the far left 405 North onramp lane, the line of cars never ends. Just make a right and do a u-turn on Sepulveda at Venice Blvd and approach the onramp from the north.More</t>
   </si>
   <si>
+    <t>duk_dukOC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r273910992-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -861,6 +975,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>DO11991</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r273193388-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -879,6 +996,9 @@
     <t>Every spring my husband and I come to this hotel to visit California. When driving up to the hotel we noticied the rennovations going on and were a little worried. When we walked in we were greeted by the front desk who is always really helpful, we let them know of our worries about the noise going on but they put us in the end of the hotel where we werent affected by any noise.  We spent most of our stay going to the beach which is only 15 minutes away from the hotel. Overall the remodeling looks really good and im excited to see the outcome will definitely be back next year.More</t>
   </si>
   <si>
+    <t>CKHiD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r263671761-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -897,6 +1017,9 @@
     <t>May 2014</t>
   </si>
   <si>
+    <t>SabrinaP1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r260814201-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -912,6 +1035,9 @@
     <t xml:space="preserve">If you want Five Star accommodations or if you're picky, don't stay here. But, if you simply require somewhere that's clean, quiet, and close to EVERYTHING, then this place is definitely sufficient. The staff was very nice and you can't beat free parking, free WiFi and free continental breakfast. The outside looks dilapidated but we had a room that had been remodeled so it was perfect for what we needed. So, if you plan on running around LA all day and just need somewhere to sleep and change your clothes, this place is good enough. </t>
   </si>
   <si>
+    <t>robertbD2826CL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r254381841-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -924,6 +1050,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>V P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r250726525-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -942,6 +1071,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>jeffreyb776</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r244321195-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -954,6 +1086,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Trudymacey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r226306816-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -972,6 +1107,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Debrasong</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r218363263-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -990,6 +1128,9 @@
     <t>1) RUDE PEOPLE WORK THERE2) ROOMS ARE FILTHY &amp; RUN DOWN3) SOCKS STICK TO CARPET LIKE VELCRO4) BREAKFAST IS GROSS! AND THE FRONT DESK STAFF BREATHES DOWN YOUR NECK IF YOU SHOW UP THERE. THEN THEY TEXT THEIR FRIENDS ON FB AT A TABLE NEXT TO YOU!! Hated it! Picked up our stuff into the back to the nasty room! Just rude as hell!4) GHETTO LOCATIONVery close to the freeway for fast getaway tho!5) NOT WORTH THE PRICE! I Cannot express enough here just how disgusting being in that room was. It was impossible to sleep. You can hear everything through the walls and it's just filthy dirty! There was absolutely nothing comforting about staying in that god awful room. I was edgy the entire time I was there, and could not wait for my stay to be over, and because I got sick I was stuck in that room. My Lord I wish there was a way to shout this from the highest mountain top, but please don't stay here!!!!!More</t>
   </si>
   <si>
+    <t>Rostam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r212318297-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1011,6 +1152,9 @@
     <t>I wanted to be close to downtown LA with free parking and ease of getting in/out and access to highways. This placed served that purpose. The front desk staff were very helpful &amp; nice. The place looks dirty. It had stains all over chairs and the carpets. One day I saw the maids washing one of their cars using guest towels. Thank god I take my own towel. There are people smoking in the balconies in front of your room and you get to smell their smoke since the air intake of the air conditioning is right there. It included the continental breakfast which was sufficient for me. It felt like a truck stop. parking was ample and it is very convenient to get to places and the area is not as congested as the rest of LA. The price was OK (140/per night for 3 people) including the breakfast &amp; parking. The Wi-Fi worked very well and my cell phone had ample coverage as well.More</t>
   </si>
   <si>
+    <t>Barbara V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r210212995-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1020,6 +1164,9 @@
     <t>06/13/2014</t>
   </si>
   <si>
+    <t>JPNK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r201605422-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1038,6 +1185,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>mombmw1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r199834877-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1059,6 +1209,9 @@
     <t>The worst thing about this motel is the office phone did not work.  I had reservations but due to a medical emergency we were going to arrive very late.  I tried to call but got the recording that said the number was out of order.  So did my husband and daughter.  I called the central reservation desk and they could not get through so they gave me customer care....which was closed aahhhh.  I called back and the person got a message to the front desk.  When I told the front desk about our problem the woman only said I was not the only person to say that.The room was clean as were the sheets and linens.  The bathroom was clean and supplied with the typical supplies.  The towels were small and thin.  Speaking of thin...so are the walls.  I could hear a child coughing all night.  I could here people flushing the toilet, running water and walking around.  The parking lot was also noisy.A breakfast is served.  It was fruit, pastry, muffins, bagels, cold and hot cereal, waffles and pancakes.  There was juice, milk, coffee and tea.  Overall this place was OK if you just need a bed and shower but it is not great.More</t>
   </si>
   <si>
+    <t>Gotcha4444</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r192909979-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1080,6 +1233,9 @@
     <t>For $130 incl TAX you can find hotel's that offer you a clean room that has not been worn out. The Ramada offers you a old, worn out room, poor quality mattress, old carpet, old bathroom in need of new toilet, shower, tiles and ceiling with hair from the previous guest all over bathroom and room. I received a call at 1030 if I wanted to stay another night, if not I had to be out by 11. I even had to ask for my print bill, something you never have to ask in any Comfort Inn. Not a friendly service and my 2nd bad experience with Ramada or better DRAMADA. Will not see me again at any Ramada, I prefer to drive extra 10 mile to find a Comfort Inn.More</t>
   </si>
   <si>
+    <t>Mitree V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r191090303-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1098,6 +1254,9 @@
     <t>Me and my family stayed here for one night as we were stuck in LA as we missed our flight to Bangkok because our flight from New York was delayed. We checked in at 4AM and were given room 103. The room and the bathroom were cleaner and better maintained that most drive-in motels and the beds were very comfortable. Very helpful staff at check-in! (continue reading to find out why)Later that night I realised that I had forgotten my laptop in the back of the taxi that had dropped us off at the Ramada, and the next morning we informed the receptionist and asked whether she could access the security camera outside, she responded that she didn't know and we would have to ask the manager, who would be coming in at 3PM. We left for the airport and throughout the day we were sent back between Taxi ranks, LAPD and Airport Police to find any information/footage on this taxi, but no one seem to know anything. At 3PM we called the hotel to ask the manager if he had footage of the taxi from last night, one hour later he sent us an email with photos of the said taxi, the picture was blurry but he was able to identify the taxi number, we tracked down the taxi and in the end I git my laptop back. Will definitely use the Ramada if I ever visit LA.More</t>
   </si>
   <si>
+    <t>henry c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r189929891-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1116,6 +1275,9 @@
     <t>Let me start off by saying I LOVE THE RAMADA! Every time i travel to my visit my family i stay there. The morning staff is great but a young lady from grave yard shift was very rude! I believe her name was Helen. Let me say this young lady was very uneducated had lack of respect and was very rude again I repeat. I came in and told her I had a reservation and very quickly and rude replied "no you don't!" Her energy was horrible like if she hated working there. I really think I am done going to The Ramada if she will be working there with that bad vibe! I called to talk to the manager and complain but he was not there. But besides that I never really had a problem staying there its very clean they even have their own gym and free breakfast.More</t>
   </si>
   <si>
+    <t>TravelingCAGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r189789568-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1137,6 +1299,9 @@
     <t>Stayed overnight here on New Year's Eve because we were attending a late wedding nearby.  The best part of the room was the bed (excluding the pillows which were thin and lumpy in random spots), though that's the extent of it.  The room was shabby and barely clean with spots all over the carpet, as well as dings and scratches on the furniture and mold on the underside of the shower rod.  The complimentary breakfast was a whole lot of carbs and a few basic pieces of fruit.  Internet was fairly good.  Very pleasant staff at check-in and breakfast are the only thing that bumps this hotel from Poor to Average.  Wouldn't stay here again, though.More</t>
   </si>
   <si>
+    <t>danyalpc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r175370499-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1155,6 +1320,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>Cathy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r172892310-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1170,6 +1338,9 @@
     <t>Hotel is ideally located in between Venice Beach and downtown Hollywood.  We found the staff to be courteous and pleasant.  Breakfast each morning was included.  If you're looking for a Sunday-brunch-kind-of-breakfast, you won't be happy.  They offer bagels, cold cereal, fruit, muffins, waffles, coffee and juice, a good, fast morning starter.  Beds were very comfortable, and I am picky.  Carpets could use a good cleaning. Good place for everyone but small children.  Price was excellent for state/location.  Restaurants within walking distance:  Pei-Wei, Starbucks, Chipotle, and local sushi joint.</t>
   </si>
   <si>
+    <t>Tammy P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r171337363-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1188,6 +1359,9 @@
     <t>I chose this hotel due to the price and the location - just down the street from my daughter's apartment. Convenient location. We ended up with a queen suite. I don't think I booked that, but was glad for the upgrade. Very spacious room. Only complaint was the dirty floors. They are dark wood, so you don't see how dirty they are until you look at your bare feet or socks. Overall a good stay. Did not eat at the continental breakfast, very limited choices. I was suprised they even offered breakfast based on the fact that we were in the LA area and most hotels do not offer a complimentary breakfast.  More</t>
   </si>
   <si>
+    <t>xxbaby210xx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r165382170-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1206,6 +1380,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>ManFromMars22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r158886106-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1224,6 +1401,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Managirl79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r158069481-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1242,6 +1422,9 @@
     <t>This hotel is this most awkward hotel I've ever stayed in. I don't even know where to begin. We had booked our reservation through Priceline.com which usually charges at the time of reservation, however, with this reservation I guess we were put through to booking.com and weren't charged-all of which was not Ramdas fault, however, he way the front desk staff handled the confusion was very unprofessional and quite rude and argumentative. My next concern was housekeeping.... one day (around noon they come) when they came by my four month old was sleeping so I asked her to come back. She never did.. i called the front desk and asked for new towels and for trash to be taken they said ok, but never did it. Next day while I was out, towels and sheets and amenities (shampoo, etc) were just left on the chair by the door, trash still not emptied. On the 3rd day of our stay we got a phone call saying a cable guy was coming the following day between 11-5....ummm okay... so we had no tv that day... also I came back from keeping busy during that 11-5 time and my bed was made but no pillow cases... no towels (dirty ones gone also) but trash was emptied. MAJOR PROBLEM: FOUND BLOOD ON OUR COMFORTER THAT WASN'T OURS...WHEN WE NOTIFIED MANAGER HE WAS RUDE AND THREATENED TO CALL THE COPS AND KICK US OUT. All...This hotel is this most awkward hotel I've ever stayed in. I don't even know where to begin. We had booked our reservation through Priceline.com which usually charges at the time of reservation, however, with this reservation I guess we were put through to booking.com and weren't charged-all of which was not Ramdas fault, however, he way the front desk staff handled the confusion was very unprofessional and quite rude and argumentative. My next concern was housekeeping.... one day (around noon they come) when they came by my four month old was sleeping so I asked her to come back. She never did.. i called the front desk and asked for new towels and for trash to be taken they said ok, but never did it. Next day while I was out, towels and sheets and amenities (shampoo, etc) were just left on the chair by the door, trash still not emptied. On the 3rd day of our stay we got a phone call saying a cable guy was coming the following day between 11-5....ummm okay... so we had no tv that day... also I came back from keeping busy during that 11-5 time and my bed was made but no pillow cases... no towels (dirty ones gone also) but trash was emptied. MAJOR PROBLEM: FOUND BLOOD ON OUR COMFORTER THAT WASN'T OURS...WHEN WE NOTIFIED MANAGER HE WAS RUDE AND THREATENED TO CALL THE COPS AND KICK US OUT. All in all a very bizarre experince.More</t>
   </si>
   <si>
+    <t>cabbyjohn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r151430693-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1260,6 +1443,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>travelingm_8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r144415633-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1278,6 +1464,9 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>ClintonfromOregon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r143577086-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1290,6 +1479,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>chrisc2469</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r140965060-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1314,6 +1506,9 @@
     <t>Had room reserved for 7 days. Came in on the sixth the night And there were other people staying in our room. they had actually remove our luggage and never even call to tell us. They admitted they made a mistake and still charged extra for a different room. Every hotel in town had a room here but not usMore</t>
   </si>
   <si>
+    <t>despidoodle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r140792415-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1335,6 +1530,9 @@
     <t>i stayed here while in town for an interview in Hollywood and had no idea what to expect, but it was convenient and i got it at a discounted rate (since i was paying for the trip) and had free wifi and parking and "continental" breakfast... well, the breakfast was, um, quite basic, but there were bagels and a toaster and creme cheese so i was ok for 2 mornings. the room was fine, moderately updated. this place is nothing special, but i really can't complain. it's not super nice, but compared to what was next to it or where i could've ended up, it really was decent! promise! there were some young foreigners (European, Asian) and a pretty good mix of normal types. didn't notice anyone sketchy. staff was nice and always helpful!!! VERY easy access to 405, 10, Hollywood, Santa Monica (it's right down from Venice Blvd which takes you straight to the beach) and very close to Forest Hills mall which has a SuperTarget which i desperately needed and only paid $10 for cab ride there. there's a Vons not far and some taco shops and local cafe types within walking distanct. oh, and a liquor store right across the street :) all in all, as someone who's worked in hotels and is used to MUCH nicer, this place really wasn't bad for 2 nights. i should've rented a car, but didn't... but the parking lot was...i stayed here while in town for an interview in Hollywood and had no idea what to expect, but it was convenient and i got it at a discounted rate (since i was paying for the trip) and had free wifi and parking and "continental" breakfast... well, the breakfast was, um, quite basic, but there were bagels and a toaster and creme cheese so i was ok for 2 mornings. the room was fine, moderately updated. this place is nothing special, but i really can't complain. it's not super nice, but compared to what was next to it or where i could've ended up, it really was decent! promise! there were some young foreigners (European, Asian) and a pretty good mix of normal types. didn't notice anyone sketchy. staff was nice and always helpful!!! VERY easy access to 405, 10, Hollywood, Santa Monica (it's right down from Venice Blvd which takes you straight to the beach) and very close to Forest Hills mall which has a SuperTarget which i desperately needed and only paid $10 for cab ride there. there's a Vons not far and some taco shops and local cafe types within walking distanct. oh, and a liquor store right across the street :) all in all, as someone who's worked in hotels and is used to MUCH nicer, this place really wasn't bad for 2 nights. i should've rented a car, but didn't... but the parking lot was decent size and felt safe and was free as was WiFi. i saw the owner and his son there on occasion and they were doing random repairs and just checking in and they seemed nice, too. definitely worth it if you're on a budget and looking for convenience. bus line runs right down Sepulveda, too.More</t>
   </si>
   <si>
+    <t>Velvet D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r139727277-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1353,6 +1551,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>grampaSanDiego</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r134066571-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1374,6 +1575,9 @@
     <t>This motel was terrible.  First of all, way overpriced, even for a "jacuzzi room".  Big deal, a big bathtub in the corner of the room.  The furniture, carpet, drapes all need replacing.  It was right off the freeway, which made for easy access.  But as anyone from Southern California will tell you, if the freeway is the I-405 you will hear traffic all the time.  We had to turn on the A/C just to drown out the freeway noise.  Breakfast was nothing but packaged carbs (sweet rolls, muffins, etc).  We ended up eating out for something healthier.  This was the only hotel/motel room we could find in the area for Father's Day/Graduation weekend.  Otherwise we would have gone elsewhere.  We definitely won't be staying there again.More</t>
   </si>
   <si>
+    <t>Doffa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r130709880-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1395,6 +1599,9 @@
     <t>We stayed 3 nights in this hotel and enjoyed it. We got a good rate for three people sharing the room. Parking is free. Be aware that the hotel is a more like a motel because of direct access from the parking lot without the need of passing the reception or a building entrance, because the building is open on the parking lot side. The girls at the recpetion were friendly and did a good job. Breakfast was below average but again you get what you pay for. As someone wrote before the furniture in the room is worn and needs to be updated, especially the carpet.The location of the hotel is excellent with easy access to the highway, to a mall and to UCLA (you need a car of course). In walking distance there are several good restaurants. Overall we can recoemmend this place.More</t>
   </si>
   <si>
+    <t>Don N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r123922364-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1416,6 +1623,9 @@
     <t>My wife and I stayed here for three nights this past weekend.  It was not a pleasant experience.The towels were so old and worn that we exchanged one right after we checked in because it looked like a rag.  That evening I used one that looked better at first but it turned out to have a hole worn in the middle!  We also had to request a second washcloth both of the first two days because housekeeping provided only one at first.The breakfast was minimal, with food running out well before the 10am time limit.  The breakfast area was also not kept clean.  We had to wake up the desk clerk on our last morning there in order to check out at 5am because of an early flight time.  He seemed to resent the fact that we woke him up, I guess, and wasn't very pleasant while checking us out.The room was worn, the decorative throw on our bed was stained on both sides, and the furniture was worn and battered.We were there to handle a family situation over the weekend.  If we'd been on vacation, I would have moved to another hotel, but we had more important things on our minds at the time.My recommendation would be to avoid this motel, as I know I will in the future.More</t>
   </si>
   <si>
+    <t>antonio323</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r120669170-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1455,6 +1665,9 @@
     <t>Simply love this place. You can really see the changes this place is doing i have to return next month and I've definitely made this the hotel i want to come to they have a great discounted rate which is perfect for me thank you Ramada for your hospitality :)</t>
   </si>
   <si>
+    <t>Larry S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r118591381-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1473,6 +1686,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>BarryBlue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r114622270-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1491,6 +1707,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>vivekxp100</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r112906399-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1509,6 +1728,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>goofymaniak23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r112108059-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1524,6 +1746,9 @@
     <t>Defenetly returned from my last stay... i just wanted to comment and keep you guys posted with the status of this hotel... from last time i stayed they have upgraded the rooms they look amazing from picture frames to bedding and even the tv's they have FLAT  HD TV'S =) i came on business this time but i won't denied that i sure enjoyed watching a basketball game in those tv's i felt so relaxed.Front desk always so nice to me always accomodating me in every need. Defenetly my place to stay from now and on.</t>
   </si>
   <si>
+    <t>brianpsan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r110374910-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1539,6 +1764,9 @@
     <t>Me and my wife stayed at this hotel on our trip to LA, this place was clean, ppl were very nice and it was located very conviniently next to the 405 freeway. I will definately recommend this place to everybody here in San Fransisco.</t>
   </si>
   <si>
+    <t>Gemma H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r97561460-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1558,6 +1786,9 @@
   </si>
   <si>
     <t>My husband and I stayed here for 4 nights, we really rated this hotel we got a good deal on the hotel ( cant remember exact price ) for our stay, rooms were very clean and large comfortable beds - we really just used this hotel for a base as we were out and about so much, hotel is in a great location for seeing all the sites and had free parking outside which was great.We plan to come back to LA next year and will be staying here again if we can get a good rate again for location and cleanliness It was great - rooms were quite plainly decorated but that was fine for us and for what we needed for this stay.  All in all would really recommend this hotel for anyone looking for a clean hotel as a base for all the sight seeing you will be doing.More</t>
+  </si>
+  <si>
+    <t>LaurienL</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r95416084-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
@@ -1585,6 +1816,9 @@
 I had a similar experience to a previous reviewer who mentioned the lack of towels.  We were also not given ice or garbage bags.  When we first got to the room the fridge still had food from the previous visitor, but otherwise the room was ok.  There were 4 people staying in my room, so I had to go to the desk every day and ask for more towels and toilet paper (since we were only given enough of those items for one person).  Rather than being met with a smile, the staff was very rude and pretty much told me I was not entitled to the items I was...I recently stayed at the hotel (which was really a motel because the rooms are only accessible from outside).  The downside of this "motel" is that if anyone is outside late at night you can hear it all, and it's very disturbing.  One night i couldnt sleep because of that, plus noise from another room.  It only happened one time though.  It was a good price, there was some kind of discount for reserving online so the room came to about $122/night (total with tax).  The room itself was clean, but the beds were smaller than what you would usually find in a hotel and the room itself was very small.  The bathroom was fine, but there was what seemed to be mold on the bottom of the shower curtain.I had a similar experience to a previous reviewer who mentioned the lack of towels.  We were also not given ice or garbage bags.  When we first got to the room the fridge still had food from the previous visitor, but otherwise the room was ok.  There were 4 people staying in my room, so I had to go to the desk every day and ask for more towels and toilet paper (since we were only given enough of those items for one person).  Rather than being met with a smile, the staff was very rude and pretty much told me I was not entitled to the items I was asking for.  I reminded the staff member that my room had 4 adults, and was then angrily given the items.  This happened every night, and each time I was met with the same arrogant and rude attitude - even after a day when housekeeping didn't even come to my room and none of these items were replenished.Lastly their continental breakfast was a joke.  There was tea and coffee, a few slices of bread, a muffin or two, and maybe some ego waffles - but there was hardly anything there.  Some days they would put an apple out, others no fruit at all.Bottom line - if you stick to 2 ppl per room and don't need to ask the hotel staff for anything, it's worth it.  It's also good that they offer free parking, which is not the case for many hotels in nearby areas.More</t>
   </si>
   <si>
+    <t>computerLove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r81832149-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1603,6 +1837,9 @@
     <t>October 2010</t>
   </si>
   <si>
+    <t>alittlefish</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r74649322-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1621,6 +1858,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>latinqt2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r72940623-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1639,6 +1879,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>Vikky_pdy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r69949937-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1666,6 +1909,9 @@
     <t>Excellent place to stay if you are traveling with family. We had decent time staying there. Definitely will plan future stays for forth coming trips. A+ service. Would recommend to anyone who is looking for comfortable place to stay in decent price.More</t>
   </si>
   <si>
+    <t>tboandspit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r60491550-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1693,6 +1939,9 @@
     <t>I am going to make this as short as possible, as I could write  2000 word essay on how bad this place was.  We booked a non-smoking room, however we got placed in a smoking room.  The room was dirty and the smell was horrific.  I wanted to change rooms.  After arguing with the indian gentleman at the front desk back and forth for approximately two hours, he finally moved us, ONLY because the air conditioner stopped working NOT because they screwed up.  He was SO SO rude and deserves to be fired!!   He blamed me for THEIR MESS UP!  He kept on telling me they had sold out of rooms so they could not move us, or I WOULD HAVE TO PAY FOR AN UPGRADE...eventually he gave me another room WHICH PROVES HE WAS LYING TO ME ABOUT BEING SOLD OUT!!  The room we got moved to was not much better as the people staying next door were smoking weed and the stench was horrible.  The area is really really average, and I would not feel safe walking around at night.  Worst of all my boyfriend and I were sure this place was a stop in and out used for prostitution.  We cannot be sure of course, however  people (particularly of the female kind dressed quite provocatively) were coming at all hours of the night, and well there were some pretty horrible noises coming from our neighboring rooms.  This...I am going to make this as short as possible, as I could write  2000 word essay on how bad this place was.  We booked a non-smoking room, however we got placed in a smoking room.  The room was dirty and the smell was horrific.  I wanted to change rooms.  After arguing with the indian gentleman at the front desk back and forth for approximately two hours, he finally moved us, ONLY because the air conditioner stopped working NOT because they screwed up.  He was SO SO rude and deserves to be fired!!   He blamed me for THEIR MESS UP!  He kept on telling me they had sold out of rooms so they could not move us, or I WOULD HAVE TO PAY FOR AN UPGRADE...eventually he gave me another room WHICH PROVES HE WAS LYING TO ME ABOUT BEING SOLD OUT!!  The room we got moved to was not much better as the people staying next door were smoking weed and the stench was horrible.  The area is really really average, and I would not feel safe walking around at night.  Worst of all my boyfriend and I were sure this place was a stop in and out used for prostitution.  We cannot be sure of course, however  people (particularly of the female kind dressed quite provocatively) were coming at all hours of the night, and well there were some pretty horrible noises coming from our neighboring rooms.  This was our last night after a three week trip and thank god we only stayed one night, this hotel was a nightmare!!! Read the previous reviews and observe the pattern of the same complaints!!! BE WARNED!! p.s breakfast was average too!More</t>
   </si>
   <si>
+    <t>blacksw10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r52214316-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1712,6 +1961,9 @@
   </si>
   <si>
     <t>I'd to come to Wheel of Fortune in Sony Studio. So I traveled with my family for three days. We picked this hotel since it was very close to Sony Studio. We had a great deal for staying three nights. We had booked one bed but the manager gave us two beds for same price. For the daily rate of about $75, we couldnt ask more. The room was very nice. Cleaning ladies were very friendly and all the staffs were very helpful. We couldnt some how connect to internet, and the employee there helped us out with our computer. Their breakfast was also decent for the price we paid. They had pan cakes, waffles and bageles and much more. They were very close to the Culver City Downtwon. We went to the dinner at UGO Italian place [ 5 mins drive from there]. For the price it was very convinient for us to wash some cloths. They had laundry facility in house. It was very convienient for us. So everytime I come to Culver city from Henderson, we are going to stay at this place. Great place for great price. Thanks all you guys there.More</t>
+  </si>
+  <si>
+    <t>MAreader</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r42196640-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
@@ -1745,6 +1997,9 @@
 For my inconvenience, they gave me $10 off the room rate, but the new motel was overpriced at that rate - $90 a night. The other hotel was clean and staff was helpful and pleasant. However the decor was very dated with 1) peeling wallpaper in the bathroom 2) somewhat lumpy mattress with prominent seam around the edge 3) no temperature control in the bath, but luckily the one temperature was warm enough without being scalding 4) constant drip...I booked a non-smoking room with two beds for my teenage son and me for Aug14-17. I had read reviews on TripAdvisor for the LA area and valiantly tried to get the most workable accommodations--safe neighborhood, clean hotel, good parking, convenient to highways, not too far from USC, not too expensive. This looked like the best deal. I booked through the Ramada site in an attempt to avoid potential problems with third parties. It was all in vain because this hotel seems to regularly OVERBOOK and then force customers into less desirable rooms. (Read the next review for another case of overbooking.)  I arrived at 4:30 in the afternoon, and already they did not have a room for me. I declined the smoking room with two beds and the king room with a rollaway since my son wanted a comfortable mattress, and so did I.  So they walked me a motel further down the street owned by the same motel owner. For my inconvenience, they gave me $10 off the room rate, but the new motel was overpriced at that rate - $90 a night. The other hotel was clean and staff was helpful and pleasant. However the decor was very dated with 1) peeling wallpaper in the bathroom 2) somewhat lumpy mattress with prominent seam around the edge 3) no temperature control in the bath, but luckily the one temperature was warm enough without being scalding 4) constant drip in tub 5) rough towels 6) low flow toilet that clogged twice. On the good side, the hotel had breakfast, internet, and computer in the lobby. My son was very tired from our travel, so I didn't complain about the rate the first night, but I did at 9 am the next morning. I wanted a rate that was more in line with the quality of the motel they had walked me to. As soon as the Ramada staff realized that they couldn't make money off of me with their bait-and-switch ploy, they stopped any semblance of politeness. I had to argue with them and provide a receipt to get my money back for the last two days of my stay. I did contact the Ramada corporate site for help with this issue (overbooking policy, etc) and they have been both helpful and polite. However, this particular hotel is not one I would recommend to anyone who wants to have a reservation honored. If you ignore this advice, and get walked, the Sunburst is OK, but don't down any further down the street. The hotels even further down the street have bullet-proof glass in the lobbies-- never a comforting sign.More</t>
   </si>
   <si>
+    <t>leafumbrella</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r38278783-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1760,6 +2015,9 @@
     <t>I booked a non-smoking room with two queen beds online before arriving to the hotel. When I arrived however they gave me a smoking room. I went to complain and was told that they had no other rooms and couldn't do anything about it. I was the one that had to take the initiative to suggest giving me a room with just a kings size bed for my family of three. I was very unhappy and won't be coming to Ramada again.</t>
   </si>
   <si>
+    <t>LilyTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r30006609-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1778,6 +2036,9 @@
     <t>August 2008</t>
   </si>
   <si>
+    <t>ranibee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r8706054-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1805,6 +2066,9 @@
     <t>I arrived at 8 PM and when I asked for help carrying my bags, was told that there was no one there to help. I lugged my three bags to the elevator to find that it was broken.The room was small and faced the parking lot which was busy way past 1 AM. The bathrooms are filthy and I got the room next to the "penthouse" which is where the family that manages lives--as a result, it's pretty loud with some TV blaring all night.Hated it so much, called Holiday Inn that night at 4 AM to book! Pay a few bucks more for a decent night's sleep!More</t>
   </si>
   <si>
+    <t>CalItalian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r5379561-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
   </si>
   <si>
@@ -1821,6 +2085,9 @@
   </si>
   <si>
     <t>I know the neighborhood as I have lived only a few miles away. It isn't a bad neighborhood at all.The beds are a bit on the lumpy side but not so bad that you can't have a decent nights sleep. Room is clean and includes a refrigerator. Pipes are kinda noisy but otherwise this is a very quiet 3-story motel considering the 405 freeway is across Sepulveda Blvd (buildings on the other side of the street protect it from most of the noise).Had some problems with reception on the tv. They could use more cable channels, too, but the channel line up was decent.Paco's Tacos is just down the block at Washington and Sepulveda. A 24 hour West Los Angeles institution which is very busy day and night. There is an Italian restaurant across the street, a liquor store also plus Carl's Jr. is less than a block away as well as many other small restaurants that are within walking distance.More</t>
+  </si>
+  <si>
+    <t>Marej49</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32272-d84222-r5030724-Ramada_by_Wyndham_Culver_City-Culver_City_California.html</t>
@@ -2349,43 +2616,47 @@
       <c r="A2" t="n">
         <v>29356</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -2409,50 +2680,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>29356</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -2476,41 +2751,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>29356</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -2527,56 +2806,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>29356</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2588,41 +2871,45 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>29356</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2630,10 +2917,10 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -2654,51 +2941,52 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
-      <c r="Y6" t="s"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>29356</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -2718,50 +3006,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>29356</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -2785,35 +3077,39 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>29356</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -2821,10 +3117,10 @@
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P9" t="n">
         <v>3</v>
@@ -2845,36 +3141,37 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
-      <c r="Y9" t="s"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>29356</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>109</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -2882,10 +3179,10 @@
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2906,51 +3203,52 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>29356</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2974,50 +3272,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>29356</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3031,50 +3333,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>29356</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>127</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3094,50 +3400,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>29356</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3151,50 +3461,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>29356</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3218,50 +3532,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>29356</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3275,50 +3593,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>29356</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -3342,35 +3664,39 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>29356</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>162</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s"/>
@@ -3378,10 +3704,10 @@
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -3402,51 +3728,52 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
-      <c r="Y18" t="s"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>29356</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>166</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="J19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="O19" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3460,50 +3787,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>29356</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="J20" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -3527,50 +3858,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>29356</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>180</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3590,50 +3925,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>29356</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>186</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="L22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="O22" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3647,50 +3986,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>29356</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>193</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="J23" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="K23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="L23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="O23" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3710,50 +4053,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>29356</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>200</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="J24" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="L24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O24" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3767,50 +4114,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>29356</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>206</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="J25" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -3830,50 +4181,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>29356</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>213</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="J26" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="K26" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3891,50 +4246,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>29356</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>221</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="J27" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="K27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3948,50 +4307,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>29356</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>229</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="K28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="L28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4011,50 +4374,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>29356</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>237</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="J29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="O29" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4072,50 +4439,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>29356</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>245</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="J30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="L30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="O30" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4135,48 +4506,52 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>29356</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>251</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="J31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4200,50 +4575,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>29356</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>258</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="J32" t="s">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="K32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="L32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4257,50 +4636,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>29356</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>265</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>235</v>
+        <v>267</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="K33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4320,50 +4703,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>29356</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>273</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="J34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="K34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="L34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="O34" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4383,50 +4770,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>29356</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>279</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="J35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4440,50 +4831,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>29356</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>286</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="J36" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="K36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="O36" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4501,50 +4896,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>29356</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>293</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="J37" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="K37" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="L37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -4564,50 +4963,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>29356</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>300</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="J38" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="L38" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="O38" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -4625,50 +5028,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>29356</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>308</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="J39" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="K39" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="O39" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4682,50 +5089,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>29356</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>315</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="J40" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4739,50 +5150,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>29356</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>322</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="J41" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="K41" t="s">
-        <v>286</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>288</v>
+        <v>328</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4796,41 +5211,45 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>287</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>29356</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>329</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="J42" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
@@ -4849,35 +5268,39 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>29356</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>335</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>294</v>
+        <v>336</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="J43" t="s">
-        <v>296</v>
+        <v>338</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
@@ -4885,10 +5308,10 @@
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="O43" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4909,51 +5332,52 @@
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
-      <c r="Y43" t="s"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>29356</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>340</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="J44" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="K44" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="L44" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>303</v>
+        <v>346</v>
       </c>
       <c r="O44" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4971,35 +5395,39 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>29356</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>347</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>304</v>
+        <v>348</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>305</v>
+        <v>349</v>
       </c>
       <c r="J45" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
@@ -5007,10 +5435,10 @@
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="O45" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5031,51 +5459,52 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
-      <c r="Y45" t="s"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>29356</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>352</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="J46" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="K46" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="L46" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5095,41 +5524,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>312</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>29356</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>359</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="J47" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="K47" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
@@ -5158,50 +5591,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>319</v>
+        <v>365</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>29356</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>366</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="J48" t="s">
-        <v>322</v>
+        <v>369</v>
       </c>
       <c r="K48" t="s">
-        <v>323</v>
+        <v>370</v>
       </c>
       <c r="L48" t="s">
-        <v>324</v>
+        <v>371</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="O48" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P48" t="n">
         <v>2</v>
@@ -5225,35 +5662,39 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>326</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>29356</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>374</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="J49" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s"/>
@@ -5261,10 +5702,10 @@
         <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>325</v>
+        <v>372</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -5285,51 +5726,52 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
-      <c r="Y49" t="s"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>29356</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>378</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
       <c r="J50" t="s">
-        <v>332</v>
+        <v>381</v>
       </c>
       <c r="K50" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="L50" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>335</v>
+        <v>384</v>
       </c>
       <c r="O50" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5351,50 +5793,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>334</v>
+        <v>383</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>29356</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>385</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
       <c r="J51" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="K51" t="s">
-        <v>339</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s">
-        <v>340</v>
+        <v>390</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>341</v>
+        <v>391</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5408,50 +5854,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>29356</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>393</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>343</v>
+        <v>394</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>344</v>
+        <v>395</v>
       </c>
       <c r="J52" t="s">
-        <v>345</v>
+        <v>396</v>
       </c>
       <c r="K52" t="s">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="O52" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P52" t="n">
         <v>2</v>
@@ -5475,50 +5925,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>29356</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>401</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>351</v>
+        <v>403</v>
       </c>
       <c r="J53" t="s">
-        <v>352</v>
+        <v>404</v>
       </c>
       <c r="K53" t="s">
-        <v>353</v>
+        <v>405</v>
       </c>
       <c r="L53" t="s">
-        <v>354</v>
+        <v>406</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5542,50 +5996,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>355</v>
+        <v>407</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>29356</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>408</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>357</v>
+        <v>410</v>
       </c>
       <c r="J54" t="s">
-        <v>358</v>
+        <v>411</v>
       </c>
       <c r="K54" t="s">
-        <v>359</v>
+        <v>412</v>
       </c>
       <c r="L54" t="s">
-        <v>360</v>
+        <v>413</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5609,50 +6067,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>361</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>29356</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>415</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="J55" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="K55" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="L55" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5676,50 +6138,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>29356</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>423</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="J56" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
       <c r="K56" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="L56" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5743,50 +6209,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>29356</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>430</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>375</v>
+        <v>431</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="J57" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="K57" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="L57" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5810,50 +6280,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>29356</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>436</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>380</v>
+        <v>437</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="J58" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="K58" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="L58" t="s">
-        <v>384</v>
+        <v>441</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="O58" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -5877,50 +6351,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>29356</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>443</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>386</v>
+        <v>444</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>387</v>
+        <v>445</v>
       </c>
       <c r="J59" t="s">
-        <v>388</v>
+        <v>446</v>
       </c>
       <c r="K59" t="s">
-        <v>389</v>
+        <v>447</v>
       </c>
       <c r="L59" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>391</v>
+        <v>449</v>
       </c>
       <c r="O59" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5944,50 +6422,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>29356</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>450</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="J60" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="K60" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="L60" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="O60" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6011,50 +6493,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>29356</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>457</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="J61" t="s">
-        <v>400</v>
+        <v>460</v>
       </c>
       <c r="K61" t="s">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="L61" t="s">
-        <v>402</v>
+        <v>462</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6078,50 +6564,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>403</v>
+        <v>463</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>29356</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>464</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>404</v>
+        <v>465</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>405</v>
+        <v>466</v>
       </c>
       <c r="J62" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="K62" t="s">
-        <v>407</v>
+        <v>468</v>
       </c>
       <c r="L62" t="s">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>409</v>
+        <v>470</v>
       </c>
       <c r="O62" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6145,50 +6635,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>408</v>
+        <v>469</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>29356</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>471</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>410</v>
+        <v>472</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>411</v>
+        <v>473</v>
       </c>
       <c r="J63" t="s">
-        <v>412</v>
+        <v>474</v>
       </c>
       <c r="K63" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="L63" t="s">
-        <v>414</v>
+        <v>476</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="O63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6202,35 +6696,39 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>414</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>29356</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>478</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="J64" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6238,10 +6736,10 @@
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
       <c r="O64" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P64" t="n">
         <v>3</v>
@@ -6262,42 +6760,43 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>29356</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>483</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>421</v>
+        <v>485</v>
       </c>
       <c r="J65" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="K65" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="L65" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
@@ -6324,56 +6823,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="X65" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="Y65" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>29356</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>492</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="J66" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="K66" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="L66" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
       <c r="O66" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P66" t="n">
         <v>3</v>
@@ -6397,50 +6900,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>29356</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>500</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>435</v>
+        <v>501</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>436</v>
+        <v>502</v>
       </c>
       <c r="J67" t="s">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="K67" t="s">
-        <v>438</v>
+        <v>504</v>
       </c>
       <c r="L67" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="O67" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -6464,50 +6971,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>439</v>
+        <v>505</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>29356</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>507</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>441</v>
+        <v>508</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>442</v>
+        <v>509</v>
       </c>
       <c r="J68" t="s">
-        <v>443</v>
+        <v>510</v>
       </c>
       <c r="K68" t="s">
-        <v>444</v>
+        <v>511</v>
       </c>
       <c r="L68" t="s">
-        <v>445</v>
+        <v>512</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -6531,50 +7042,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>447</v>
+        <v>514</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>29356</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>515</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>448</v>
+        <v>516</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>449</v>
+        <v>517</v>
       </c>
       <c r="J69" t="s">
-        <v>450</v>
+        <v>518</v>
       </c>
       <c r="K69" t="s">
-        <v>451</v>
+        <v>519</v>
       </c>
       <c r="L69" t="s">
-        <v>452</v>
+        <v>520</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>453</v>
+        <v>521</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6598,50 +7113,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>454</v>
+        <v>522</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>29356</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>523</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="J70" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="K70" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
       <c r="L70" t="s">
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="O70" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P70" t="n">
         <v>2</v>
@@ -6665,41 +7184,45 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>461</v>
+        <v>530</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>29356</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>531</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>462</v>
+        <v>532</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>463</v>
+        <v>533</v>
       </c>
       <c r="J71" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="K71" t="s">
-        <v>465</v>
+        <v>535</v>
       </c>
       <c r="L71" t="s">
-        <v>466</v>
+        <v>536</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
@@ -6726,47 +7249,51 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>467</v>
+        <v>537</v>
       </c>
       <c r="X71" t="s">
-        <v>468</v>
+        <v>538</v>
       </c>
       <c r="Y71" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>29356</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>531</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>471</v>
+        <v>541</v>
       </c>
       <c r="J72" t="s">
-        <v>472</v>
+        <v>542</v>
       </c>
       <c r="K72" t="s">
-        <v>473</v>
+        <v>543</v>
       </c>
       <c r="L72" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
@@ -6795,50 +7322,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>474</v>
+        <v>544</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>29356</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>545</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>475</v>
+        <v>546</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>476</v>
+        <v>547</v>
       </c>
       <c r="J73" t="s">
-        <v>477</v>
+        <v>548</v>
       </c>
       <c r="K73" t="s">
-        <v>478</v>
+        <v>549</v>
       </c>
       <c r="L73" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>480</v>
+        <v>551</v>
       </c>
       <c r="O73" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -6862,50 +7393,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>479</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>29356</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>552</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>482</v>
+        <v>554</v>
       </c>
       <c r="J74" t="s">
-        <v>483</v>
+        <v>555</v>
       </c>
       <c r="K74" t="s">
-        <v>484</v>
+        <v>556</v>
       </c>
       <c r="L74" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -6925,50 +7460,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>29356</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>559</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>487</v>
+        <v>560</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>488</v>
+        <v>561</v>
       </c>
       <c r="J75" t="s">
-        <v>489</v>
+        <v>562</v>
       </c>
       <c r="K75" t="s">
-        <v>490</v>
+        <v>563</v>
       </c>
       <c r="L75" t="s">
-        <v>491</v>
+        <v>564</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="O75" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -6988,50 +7527,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>491</v>
+        <v>564</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>29356</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>566</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>493</v>
+        <v>567</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="J76" t="s">
-        <v>495</v>
+        <v>569</v>
       </c>
       <c r="K76" t="s">
-        <v>496</v>
+        <v>570</v>
       </c>
       <c r="L76" t="s">
-        <v>497</v>
+        <v>571</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>492</v>
+        <v>565</v>
       </c>
       <c r="O76" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7051,50 +7594,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>497</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>29356</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>572</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>498</v>
+        <v>573</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>499</v>
+        <v>574</v>
       </c>
       <c r="J77" t="s">
-        <v>500</v>
+        <v>575</v>
       </c>
       <c r="K77" t="s">
-        <v>501</v>
+        <v>576</v>
       </c>
       <c r="L77" t="s">
-        <v>502</v>
+        <v>577</v>
       </c>
       <c r="M77" t="n">
         <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7118,50 +7665,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>502</v>
+        <v>577</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>29356</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>578</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>503</v>
+        <v>579</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>504</v>
+        <v>580</v>
       </c>
       <c r="J78" t="s">
-        <v>505</v>
+        <v>581</v>
       </c>
       <c r="K78" t="s">
-        <v>506</v>
+        <v>582</v>
       </c>
       <c r="L78" t="s">
-        <v>507</v>
+        <v>583</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>508</v>
+        <v>584</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7185,50 +7736,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>509</v>
+        <v>585</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>29356</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>586</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>510</v>
+        <v>587</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>511</v>
+        <v>588</v>
       </c>
       <c r="J79" t="s">
-        <v>512</v>
+        <v>589</v>
       </c>
       <c r="K79" t="s">
-        <v>513</v>
+        <v>590</v>
       </c>
       <c r="L79" t="s">
-        <v>514</v>
+        <v>591</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>515</v>
+        <v>592</v>
       </c>
       <c r="O79" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7252,50 +7807,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>516</v>
+        <v>593</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>29356</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>594</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>517</v>
+        <v>595</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>518</v>
+        <v>596</v>
       </c>
       <c r="J80" t="s">
-        <v>519</v>
+        <v>597</v>
       </c>
       <c r="K80" t="s">
-        <v>520</v>
+        <v>598</v>
       </c>
       <c r="L80" t="s">
-        <v>521</v>
+        <v>599</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>2</v>
@@ -7319,50 +7878,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>521</v>
+        <v>599</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>29356</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>601</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>523</v>
+        <v>602</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>524</v>
+        <v>603</v>
       </c>
       <c r="J81" t="s">
-        <v>525</v>
+        <v>604</v>
       </c>
       <c r="K81" t="s">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="L81" t="s">
-        <v>527</v>
+        <v>606</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>528</v>
+        <v>607</v>
       </c>
       <c r="O81" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -7386,50 +7949,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>527</v>
+        <v>606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>29356</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>608</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>529</v>
+        <v>609</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>530</v>
+        <v>610</v>
       </c>
       <c r="J82" t="s">
-        <v>531</v>
+        <v>611</v>
       </c>
       <c r="K82" t="s">
-        <v>532</v>
+        <v>612</v>
       </c>
       <c r="L82" t="s">
-        <v>533</v>
+        <v>613</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>534</v>
+        <v>614</v>
       </c>
       <c r="O82" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7453,50 +8020,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>533</v>
+        <v>613</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>29356</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>615</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>535</v>
+        <v>616</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>536</v>
+        <v>617</v>
       </c>
       <c r="J83" t="s">
-        <v>537</v>
+        <v>618</v>
       </c>
       <c r="K83" t="s">
-        <v>538</v>
+        <v>619</v>
       </c>
       <c r="L83" t="s">
-        <v>539</v>
+        <v>620</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>540</v>
+        <v>621</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7518,56 +8089,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>541</v>
+        <v>622</v>
       </c>
       <c r="X83" t="s">
-        <v>542</v>
+        <v>623</v>
       </c>
       <c r="Y83" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>29356</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>625</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>544</v>
+        <v>626</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>545</v>
+        <v>627</v>
       </c>
       <c r="J84" t="s">
-        <v>546</v>
+        <v>628</v>
       </c>
       <c r="K84" t="s">
-        <v>547</v>
+        <v>629</v>
       </c>
       <c r="L84" t="s">
-        <v>548</v>
+        <v>630</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>549</v>
+        <v>631</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -7589,56 +8164,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>550</v>
+        <v>632</v>
       </c>
       <c r="X84" t="s">
-        <v>551</v>
+        <v>633</v>
       </c>
       <c r="Y84" t="s">
-        <v>552</v>
+        <v>634</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>29356</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>635</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>553</v>
+        <v>636</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
       <c r="J85" t="s">
-        <v>555</v>
+        <v>638</v>
       </c>
       <c r="K85" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
       <c r="L85" t="s">
-        <v>557</v>
+        <v>640</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>558</v>
+        <v>641</v>
       </c>
       <c r="O85" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7662,50 +8241,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>559</v>
+        <v>642</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>29356</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>643</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>560</v>
+        <v>644</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>561</v>
+        <v>645</v>
       </c>
       <c r="J86" t="s">
-        <v>562</v>
+        <v>646</v>
       </c>
       <c r="K86" t="s">
-        <v>563</v>
+        <v>647</v>
       </c>
       <c r="L86" t="s">
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="O86" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P86" t="n">
         <v>1</v>
@@ -7727,56 +8310,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="X86" t="s">
-        <v>567</v>
+        <v>651</v>
       </c>
       <c r="Y86" t="s">
-        <v>568</v>
+        <v>652</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>29356</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>653</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>569</v>
+        <v>654</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>570</v>
+        <v>655</v>
       </c>
       <c r="J87" t="s">
-        <v>571</v>
+        <v>656</v>
       </c>
       <c r="K87" t="s">
-        <v>572</v>
+        <v>657</v>
       </c>
       <c r="L87" t="s">
-        <v>573</v>
+        <v>658</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="O87" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -7800,50 +8387,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>573</v>
+        <v>658</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>29356</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>659</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>574</v>
+        <v>660</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>575</v>
+        <v>661</v>
       </c>
       <c r="J88" t="s">
-        <v>576</v>
+        <v>662</v>
       </c>
       <c r="K88" t="s">
-        <v>577</v>
+        <v>663</v>
       </c>
       <c r="L88" t="s">
-        <v>578</v>
+        <v>664</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>579</v>
+        <v>665</v>
       </c>
       <c r="O88" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P88" t="n">
         <v>3</v>
@@ -7867,50 +8458,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>578</v>
+        <v>664</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>29356</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>666</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>580</v>
+        <v>667</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>581</v>
+        <v>668</v>
       </c>
       <c r="J89" t="s">
-        <v>582</v>
+        <v>669</v>
       </c>
       <c r="K89" t="s">
-        <v>583</v>
+        <v>670</v>
       </c>
       <c r="L89" t="s">
-        <v>584</v>
+        <v>671</v>
       </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
       <c r="N89" t="s">
-        <v>585</v>
+        <v>672</v>
       </c>
       <c r="O89" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="P89" t="n">
         <v>2</v>
@@ -7932,47 +8527,51 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>586</v>
+        <v>673</v>
       </c>
       <c r="X89" t="s">
-        <v>587</v>
+        <v>674</v>
       </c>
       <c r="Y89" t="s">
-        <v>588</v>
+        <v>675</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>29356</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>676</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>589</v>
+        <v>677</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>590</v>
+        <v>678</v>
       </c>
       <c r="J90" t="s">
-        <v>591</v>
+        <v>679</v>
       </c>
       <c r="K90" t="s">
-        <v>592</v>
+        <v>680</v>
       </c>
       <c r="L90" t="s">
-        <v>593</v>
+        <v>681</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
@@ -7999,41 +8598,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>594</v>
+        <v>682</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>29356</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>683</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>595</v>
+        <v>684</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>596</v>
+        <v>685</v>
       </c>
       <c r="J91" t="s">
-        <v>597</v>
+        <v>686</v>
       </c>
       <c r="K91" t="s">
-        <v>598</v>
+        <v>687</v>
       </c>
       <c r="L91" t="s">
-        <v>599</v>
+        <v>688</v>
       </c>
       <c r="M91" t="n">
         <v>2</v>
@@ -8058,13 +8661,13 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>600</v>
+        <v>689</v>
       </c>
       <c r="X91" t="s">
-        <v>601</v>
+        <v>690</v>
       </c>
       <c r="Y91" t="s">
-        <v>602</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
